--- a/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
+++ b/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\Sept 2020 - Jan 2021\Grade 2018\Class Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\Class Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CA22F1-E118-4C23-BC2C-EB2DF3427A69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8BC82D-790D-4151-A283-92204FE10705}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="381">
   <si>
     <t>No</t>
   </si>
@@ -1183,18 +1183,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1209,14 +1209,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -1224,7 +1224,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1237,7 +1237,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1396,7 +1396,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="常规 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -1684,20 +1684,20 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="4" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1713,7 +1713,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="15.6">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.6">
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.6">
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.6">
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.6">
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.6">
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.6">
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.6">
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.6">
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.6">
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6">
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.6">
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.6">
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.6">
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.6">
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.6">
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.6">
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.6">
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.6">
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.6">
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.6">
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.6">
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.6">
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.6">
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.6">
+    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.6">
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.6">
+    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.6">
+    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.6">
+    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.6">
+    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.6">
+    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.6">
+    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.6">
+    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.6">
+    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.6">
+    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.6">
+    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.6">
+    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.6">
+    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.6">
+    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.6">
+    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.6">
+    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.6">
+    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.6">
+    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.6">
+    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.6">
+    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.6">
+    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.6">
+    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -2974,20 +2974,20 @@
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="4" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -3003,7 +3003,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="15.6">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.6">
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.6">
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.6">
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.6">
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.6">
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.6">
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.6">
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.6">
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.6">
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6">
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.6">
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.6">
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.6">
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.6">
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.6">
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.6">
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.6">
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.6">
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.6">
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.6">
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.6">
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.6">
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.6">
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.6">
+    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.6">
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.6">
+    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.6">
+    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.6">
+    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.6">
+    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.6">
+    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.6">
+    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.6">
+    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.6">
+    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.6">
+    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.6">
+    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.6">
+    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.6">
+    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.6">
+    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.6">
+    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.6">
+    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.6">
+    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.6">
+    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.6">
+    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.6">
+    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.6">
+    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.6">
+    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.6">
+    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -4271,6 +4271,7 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="J2:J3"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3" xr:uid="{81C00A40-4F2D-4136-BF81-A1B2E8DFE4A3}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2" xr:uid="{DE98AF91-576A-42A1-8A5B-99C85F357990}"/>
@@ -4288,20 +4289,20 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="4" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -4317,7 +4318,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -4349,7 +4350,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -4369,7 +4370,7 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="15.6">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -4394,7 +4395,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.6">
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -4419,7 +4420,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.6">
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -4444,7 +4445,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.6">
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -4469,7 +4470,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.6">
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -4494,7 +4495,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.6">
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -4519,7 +4520,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.6">
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -4544,7 +4545,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.6">
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -4569,7 +4570,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.6">
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -4594,7 +4595,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.6">
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -4619,7 +4620,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6">
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -4644,7 +4645,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.6">
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -4669,7 +4670,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.6">
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -4694,7 +4695,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.6">
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -4719,7 +4720,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.6">
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -4744,7 +4745,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.6">
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -4769,7 +4770,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.6">
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -4794,7 +4795,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.6">
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -4819,7 +4820,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.6">
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -4844,7 +4845,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.6">
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -4869,7 +4870,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.6">
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -4894,7 +4895,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.6">
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -4919,7 +4920,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.6">
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -4944,7 +4945,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.6">
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -4969,7 +4970,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.6">
+    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -4994,7 +4995,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.6">
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -5019,7 +5020,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.6">
+    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -5044,7 +5045,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.6">
+    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -5069,7 +5070,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.6">
+    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -5094,7 +5095,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.6">
+    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -5119,7 +5120,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.6">
+    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -5144,7 +5145,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.6">
+    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -5169,7 +5170,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.6">
+    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -5194,7 +5195,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.6">
+    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -5219,7 +5220,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.6">
+    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -5244,7 +5245,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.6">
+    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -5269,7 +5270,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.6">
+    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -5294,7 +5295,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.6">
+    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -5319,7 +5320,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.6">
+    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -5344,7 +5345,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.6">
+    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -5369,7 +5370,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.6">
+    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -5394,7 +5395,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.6">
+    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -5419,7 +5420,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.6">
+    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -5444,7 +5445,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.6">
+    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -5469,7 +5470,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.6">
+    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -5494,7 +5495,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.6">
+    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -5519,7 +5520,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.6">
+    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -5544,7 +5545,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.6">
+    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -5585,6 +5586,7 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="J2:J3"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2" xr:uid="{BE99A159-1EF3-4BB4-B0E6-731B59428136}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3" xr:uid="{91DCA2A1-A619-4D6E-9057-C193606F5535}"/>
@@ -5598,24 +5600,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71A6A0A-D35A-46D3-AE05-F9914FF9FBE0}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="4" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -5631,7 +5633,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -5663,14 +5665,14 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="14"/>
       <c r="E3" s="17"/>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
+      <c r="F3" s="3">
+        <v>44826</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>12</v>
@@ -5683,7 +5685,7 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="15.6">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -5699,16 +5701,18 @@
       <c r="E4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7">
+        <v>8</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="6" t="e">
+      <c r="J4" s="6">
         <f>AVERAGE(F4:I4)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -5724,16 +5728,18 @@
       <c r="E5" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7">
+        <v>7</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="6" t="e">
+      <c r="J5" s="6">
         <f>AVERAGE(F5:I5)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -5749,16 +5755,18 @@
       <c r="E6" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7">
+        <v>8</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="6" t="e">
+      <c r="J6" s="6">
         <f>AVERAGE(F6:I6)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -5774,16 +5782,18 @@
       <c r="E7" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7">
+        <v>9</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="6" t="e">
+      <c r="J7" s="6">
         <f>AVERAGE(F7:I7)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -5799,16 +5809,18 @@
       <c r="E8" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7">
+        <v>8</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="6" t="e">
+      <c r="J8" s="6">
         <f>AVERAGE(F8,G8)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -5824,16 +5836,18 @@
       <c r="E9" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7">
+        <v>9</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="6" t="e">
+      <c r="J9" s="6">
         <f>AVERAGE(F9:I9)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -5849,16 +5863,18 @@
       <c r="E10" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7">
+        <v>9</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="6" t="e">
+      <c r="J10" s="6">
         <f>AVERAGE(F10:I10)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -5874,16 +5890,18 @@
       <c r="E11" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7">
+        <v>7</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="6" t="e">
+      <c r="J11" s="6">
         <f>AVERAGE(F11:I11)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -5899,16 +5917,18 @@
       <c r="E12" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7">
+        <v>9</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="6" t="e">
+      <c r="J12" s="6">
         <f>AVERAGE(F12:I12)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -5924,16 +5944,18 @@
       <c r="E13" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7">
+        <v>8</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="6" t="e">
+      <c r="J13" s="6">
         <f t="shared" ref="J13:J51" si="0">AVERAGE(F13:I13)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -5949,16 +5971,18 @@
       <c r="E14" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7">
+        <v>7</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.6">
+      <c r="J14" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -5974,16 +5998,18 @@
       <c r="E15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7">
+        <v>10</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.6">
+      <c r="J15" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -5999,16 +6025,18 @@
       <c r="E16" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7">
+        <v>6</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.6">
+      <c r="J16" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -6024,16 +6052,18 @@
       <c r="E17" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7">
+        <v>7</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.6">
+      <c r="J17" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -6049,16 +6079,18 @@
       <c r="E18" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7">
+        <v>9</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.6">
+      <c r="J18" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -6074,16 +6106,18 @@
       <c r="E19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="7">
+        <v>8</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.6">
+      <c r="J19" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -6099,16 +6133,18 @@
       <c r="E20" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="7">
+        <v>8</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.6">
+      <c r="J20" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -6124,16 +6160,18 @@
       <c r="E21" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="7">
+        <v>9</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.6">
+      <c r="J21" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -6149,16 +6187,18 @@
       <c r="E22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7">
+        <v>9</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.6">
+      <c r="J22" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -6174,16 +6214,18 @@
       <c r="E23" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="7">
+        <v>7</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.6">
+      <c r="J23" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -6199,16 +6241,18 @@
       <c r="E24" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="7">
+        <v>9</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.6">
+      <c r="J24" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -6224,16 +6268,18 @@
       <c r="E25" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="7">
+        <v>9</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.6">
+      <c r="J25" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -6249,16 +6295,18 @@
       <c r="E26" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="7">
+        <v>8</v>
+      </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.6">
+      <c r="J26" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -6274,16 +6322,18 @@
       <c r="E27" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="7">
+        <v>9</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.6">
+      <c r="J27" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -6299,16 +6349,18 @@
       <c r="E28" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="7">
+        <v>8</v>
+      </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.6">
+      <c r="J28" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -6324,16 +6376,18 @@
       <c r="E29" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="7">
+        <v>9</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.6">
+      <c r="J29" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -6349,16 +6403,18 @@
       <c r="E30" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="7"/>
+      <c r="F30" s="7">
+        <v>9</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.6">
+      <c r="J30" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -6374,16 +6430,18 @@
       <c r="E31" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="F31" s="7"/>
+      <c r="F31" s="7">
+        <v>10</v>
+      </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.6">
+      <c r="J31" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -6399,16 +6457,18 @@
       <c r="E32" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7">
+        <v>6</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15.6">
+      <c r="J32" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -6424,16 +6484,18 @@
       <c r="E33" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="7">
+        <v>9</v>
+      </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15.6">
+      <c r="J33" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -6449,16 +6511,18 @@
       <c r="E34" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="7">
+        <v>8</v>
+      </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.6">
+      <c r="J34" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -6474,16 +6538,18 @@
       <c r="E35" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="7">
+        <v>8</v>
+      </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.6">
+      <c r="J35" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -6499,16 +6565,18 @@
       <c r="E36" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="F36" s="7">
+        <v>10</v>
+      </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.6">
+      <c r="J36" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -6524,16 +6592,18 @@
       <c r="E37" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="F37" s="7"/>
+      <c r="F37" s="7">
+        <v>9</v>
+      </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.6">
+      <c r="J37" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -6549,16 +6619,18 @@
       <c r="E38" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="F38" s="7"/>
+      <c r="F38" s="7">
+        <v>9</v>
+      </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15.6">
+      <c r="J38" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -6574,16 +6646,18 @@
       <c r="E39" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="F39" s="7"/>
+      <c r="F39" s="7">
+        <v>9</v>
+      </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15.6">
+      <c r="J39" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -6599,16 +6673,18 @@
       <c r="E40" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="7"/>
+      <c r="F40" s="7">
+        <v>8</v>
+      </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15.6">
+      <c r="J40" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -6624,16 +6700,18 @@
       <c r="E41" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="F41" s="7"/>
+      <c r="F41" s="7">
+        <v>6</v>
+      </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15.6">
+      <c r="J41" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -6649,16 +6727,18 @@
       <c r="E42" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="F42" s="7"/>
+      <c r="F42" s="7">
+        <v>8</v>
+      </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="15.6">
+      <c r="J42" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -6674,16 +6754,18 @@
       <c r="E43" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F43" s="7"/>
+      <c r="F43" s="7">
+        <v>8</v>
+      </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
-      <c r="J43" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15.6">
+      <c r="J43" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -6699,16 +6781,18 @@
       <c r="E44" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="F44" s="7"/>
+      <c r="F44" s="7">
+        <v>9</v>
+      </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
-      <c r="J44" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15.6">
+      <c r="J44" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -6724,16 +6808,18 @@
       <c r="E45" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F45" s="7"/>
+      <c r="F45" s="7">
+        <v>7</v>
+      </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
-      <c r="J45" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.6">
+      <c r="J45" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -6749,16 +6835,18 @@
       <c r="E46" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="F46" s="7"/>
+      <c r="F46" s="7">
+        <v>8</v>
+      </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
-      <c r="J46" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15.6">
+      <c r="J46" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -6774,16 +6862,18 @@
       <c r="E47" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F47" s="7"/>
+      <c r="F47" s="7">
+        <v>9</v>
+      </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
-      <c r="J47" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15.6">
+      <c r="J47" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -6799,16 +6889,18 @@
       <c r="E48" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="F48" s="7"/>
+      <c r="F48" s="7">
+        <v>9</v>
+      </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
-      <c r="J48" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15.6">
+      <c r="J48" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -6824,16 +6916,18 @@
       <c r="E49" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="F49" s="7"/>
+      <c r="F49" s="7">
+        <v>7</v>
+      </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
-      <c r="J49" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="15.6">
+      <c r="J49" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -6849,16 +6943,18 @@
       <c r="E50" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="F50" s="7"/>
+      <c r="F50" s="7">
+        <v>9</v>
+      </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
-      <c r="J50" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="15.6">
+      <c r="J50" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -6874,13 +6970,15 @@
       <c r="E51" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="F51" s="7"/>
+      <c r="F51" s="7">
+        <v>9</v>
+      </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
-      <c r="J51" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J51" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -6899,6 +6997,7 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="J2:J3"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3" xr:uid="{72437432-EAB7-41A1-8A3D-F4D1EF05A484}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2" xr:uid="{CE85343B-4101-49A3-B993-D9A56BA44C5E}"/>

--- a/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
+++ b/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\Class Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8BC82D-790D-4151-A283-92204FE10705}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D876AFA-BC2C-4BEB-8A8D-808B7AD34324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="381">
   <si>
     <t>No</t>
   </si>
@@ -4285,8 +4285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DDB66F-D270-42E2-B6F1-6326C25DE7DB}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4356,8 +4356,8 @@
       <c r="C3" s="11"/>
       <c r="D3" s="14"/>
       <c r="E3" s="17"/>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
+      <c r="F3" s="3">
+        <v>44096</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>12</v>
@@ -4386,13 +4386,15 @@
       <c r="E4" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="6" t="e">
+      <c r="J4" s="6">
         <f>AVERAGE(F4:I4)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4411,13 +4413,15 @@
       <c r="E5" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7">
+        <v>8</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="6" t="e">
+      <c r="J5" s="6">
         <f>AVERAGE(F5:I5)</f>
-        <v>#DIV/0!</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4436,13 +4440,15 @@
       <c r="E6" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7">
+        <v>8</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="6" t="e">
+      <c r="J6" s="6">
         <f>AVERAGE(F6:I6)</f>
-        <v>#DIV/0!</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4461,13 +4467,15 @@
       <c r="E7" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7">
+        <v>10</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="6" t="e">
+      <c r="J7" s="6">
         <f>AVERAGE(F7:I7)</f>
-        <v>#DIV/0!</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4486,13 +4494,15 @@
       <c r="E8" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7">
+        <v>10</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="6" t="e">
+      <c r="J8" s="6">
         <f>AVERAGE(F8,G8)</f>
-        <v>#DIV/0!</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4511,13 +4521,15 @@
       <c r="E9" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7">
+        <v>10</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="6" t="e">
+      <c r="J9" s="6">
         <f>AVERAGE(F9:I9)</f>
-        <v>#DIV/0!</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4536,13 +4548,15 @@
       <c r="E10" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7">
+        <v>9</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="6" t="e">
+      <c r="J10" s="6">
         <f>AVERAGE(F10:I10)</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4561,13 +4575,15 @@
       <c r="E11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7">
+        <v>9</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="6" t="e">
+      <c r="J11" s="6">
         <f>AVERAGE(F11:I11)</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4586,13 +4602,15 @@
       <c r="E12" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7">
+        <v>9</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="6" t="e">
+      <c r="J12" s="6">
         <f>AVERAGE(F12:I12)</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4611,13 +4629,15 @@
       <c r="E13" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7">
+        <v>10</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="6" t="e">
+      <c r="J13" s="6">
         <f t="shared" ref="J13:J50" si="0">AVERAGE(F13:I13)</f>
-        <v>#DIV/0!</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4636,13 +4656,15 @@
       <c r="E14" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7">
+        <v>10</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J14" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4661,13 +4683,15 @@
       <c r="E15" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7">
+        <v>8</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J15" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4686,13 +4710,15 @@
       <c r="E16" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7">
+        <v>9</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J16" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4711,13 +4737,15 @@
       <c r="E17" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7">
+        <v>8</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J17" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4736,13 +4764,15 @@
       <c r="E18" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7">
+        <v>9</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J18" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4761,13 +4791,15 @@
       <c r="E19" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="7">
+        <v>9</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J19" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4786,13 +4818,15 @@
       <c r="E20" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="7">
+        <v>10</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J20" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4811,13 +4845,15 @@
       <c r="E21" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="7">
+        <v>9</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J21" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4836,13 +4872,15 @@
       <c r="E22" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7">
+        <v>10</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J22" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4861,13 +4899,15 @@
       <c r="E23" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="7">
+        <v>9</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J23" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4886,13 +4926,15 @@
       <c r="E24" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="7">
+        <v>10</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J24" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4911,13 +4953,15 @@
       <c r="E25" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="7">
+        <v>9</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J25" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4936,13 +4980,15 @@
       <c r="E26" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="7">
+        <v>10</v>
+      </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J26" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4961,13 +5007,15 @@
       <c r="E27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="7">
+        <v>10</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J27" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4986,13 +5034,15 @@
       <c r="E28" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="7">
+        <v>9</v>
+      </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J28" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5011,13 +5061,15 @@
       <c r="E29" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="7">
+        <v>10</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J29" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5036,13 +5088,15 @@
       <c r="E30" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="F30" s="7"/>
+      <c r="F30" s="7">
+        <v>8</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J30" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5061,13 +5115,15 @@
       <c r="E31" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F31" s="7"/>
+      <c r="F31" s="7">
+        <v>9</v>
+      </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J31" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5086,13 +5142,15 @@
       <c r="E32" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7">
+        <v>8</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J32" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5111,13 +5169,15 @@
       <c r="E33" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="7">
+        <v>9</v>
+      </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J33" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5136,13 +5196,15 @@
       <c r="E34" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="7">
+        <v>10</v>
+      </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J34" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5161,13 +5223,15 @@
       <c r="E35" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="7">
+        <v>10</v>
+      </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J35" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5186,13 +5250,15 @@
       <c r="E36" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="F36" s="7">
+        <v>9</v>
+      </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J36" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5211,13 +5277,15 @@
       <c r="E37" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F37" s="7"/>
+      <c r="F37" s="7">
+        <v>10</v>
+      </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J37" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5236,13 +5304,15 @@
       <c r="E38" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="F38" s="7"/>
+      <c r="F38" s="7">
+        <v>9</v>
+      </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J38" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5261,13 +5331,15 @@
       <c r="E39" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="F39" s="7"/>
+      <c r="F39" s="7">
+        <v>10</v>
+      </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J39" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5286,13 +5358,15 @@
       <c r="E40" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="F40" s="7"/>
+      <c r="F40" s="7">
+        <v>8</v>
+      </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J40" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5311,13 +5385,15 @@
       <c r="E41" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="F41" s="7"/>
+      <c r="F41" s="7">
+        <v>8</v>
+      </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J41" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5336,13 +5412,15 @@
       <c r="E42" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="7"/>
+      <c r="F42" s="7">
+        <v>9</v>
+      </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J42" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5361,13 +5439,15 @@
       <c r="E43" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F43" s="7"/>
+      <c r="F43" s="7">
+        <v>10</v>
+      </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
-      <c r="J43" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J43" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5386,13 +5466,15 @@
       <c r="E44" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="F44" s="7"/>
+      <c r="F44" s="7">
+        <v>8</v>
+      </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
-      <c r="J44" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J44" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5411,13 +5493,15 @@
       <c r="E45" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="F45" s="7"/>
+      <c r="F45" s="7">
+        <v>10</v>
+      </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
-      <c r="J45" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J45" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5436,13 +5520,15 @@
       <c r="E46" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="F46" s="7"/>
+      <c r="F46" s="7">
+        <v>10</v>
+      </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
-      <c r="J46" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J46" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5461,13 +5547,15 @@
       <c r="E47" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="F47" s="7"/>
+      <c r="F47" s="7">
+        <v>10</v>
+      </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
-      <c r="J47" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J47" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5486,13 +5574,15 @@
       <c r="E48" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F48" s="7"/>
+      <c r="F48" s="7">
+        <v>10</v>
+      </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
-      <c r="J48" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J48" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5511,13 +5601,15 @@
       <c r="E49" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="F49" s="7"/>
+      <c r="F49" s="7">
+        <v>7</v>
+      </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
-      <c r="J49" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J49" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5536,13 +5628,15 @@
       <c r="E50" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="F50" s="7"/>
+      <c r="F50" s="7">
+        <v>10</v>
+      </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
-      <c r="J50" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J50" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5561,13 +5655,15 @@
       <c r="E51" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F51" s="7"/>
+      <c r="F51" s="7">
+        <v>8</v>
+      </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
-      <c r="J51" s="6" t="e">
+      <c r="J51" s="6">
         <f t="shared" ref="J51" si="1">AVERAGE(F51:I51)</f>
-        <v>#DIV/0!</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -5600,8 +5696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71A6A0A-D35A-46D3-AE05-F9914FF9FBE0}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5672,7 +5768,7 @@
       <c r="D3" s="14"/>
       <c r="E3" s="17"/>
       <c r="F3" s="3">
-        <v>44826</v>
+        <v>44096</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>12</v>

--- a/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
+++ b/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\Sept 2020 - Jan 2021\Grade 2018\Class Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\Class Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CA22F1-E118-4C23-BC2C-EB2DF3427A69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D876AFA-BC2C-4BEB-8A8D-808B7AD34324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="381">
   <si>
     <t>No</t>
   </si>
@@ -1183,18 +1183,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1209,14 +1209,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -1224,7 +1224,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1237,7 +1237,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1396,7 +1396,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="常规 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -1684,20 +1684,20 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="4" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1713,7 +1713,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="15.6">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.6">
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.6">
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.6">
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.6">
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.6">
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.6">
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.6">
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.6">
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.6">
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6">
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.6">
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.6">
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.6">
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.6">
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.6">
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.6">
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.6">
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.6">
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.6">
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.6">
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.6">
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.6">
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.6">
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.6">
+    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.6">
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.6">
+    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.6">
+    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.6">
+    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.6">
+    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.6">
+    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.6">
+    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.6">
+    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.6">
+    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.6">
+    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.6">
+    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.6">
+    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.6">
+    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.6">
+    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.6">
+    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.6">
+    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.6">
+    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.6">
+    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.6">
+    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.6">
+    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.6">
+    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.6">
+    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -2974,20 +2974,20 @@
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="4" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -3003,7 +3003,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="15.6">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.6">
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.6">
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.6">
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.6">
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.6">
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.6">
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.6">
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.6">
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.6">
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6">
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.6">
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.6">
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.6">
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.6">
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.6">
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.6">
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.6">
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.6">
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.6">
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.6">
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.6">
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.6">
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.6">
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.6">
+    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.6">
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.6">
+    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.6">
+    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.6">
+    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.6">
+    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.6">
+    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.6">
+    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.6">
+    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.6">
+    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.6">
+    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.6">
+    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.6">
+    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.6">
+    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.6">
+    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.6">
+    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.6">
+    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.6">
+    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.6">
+    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.6">
+    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.6">
+    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.6">
+    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.6">
+    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.6">
+    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -4271,6 +4271,7 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="J2:J3"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3" xr:uid="{81C00A40-4F2D-4136-BF81-A1B2E8DFE4A3}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2" xr:uid="{DE98AF91-576A-42A1-8A5B-99C85F357990}"/>
@@ -4284,24 +4285,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DDB66F-D270-42E2-B6F1-6326C25DE7DB}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="4" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -4317,7 +4318,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -4349,14 +4350,14 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="14"/>
       <c r="E3" s="17"/>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
+      <c r="F3" s="3">
+        <v>44096</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>12</v>
@@ -4369,7 +4370,7 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="15.6">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -4385,16 +4386,18 @@
       <c r="E4" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="6" t="e">
+      <c r="J4" s="6">
         <f>AVERAGE(F4:I4)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -4410,16 +4413,18 @@
       <c r="E5" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7">
+        <v>8</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="6" t="e">
+      <c r="J5" s="6">
         <f>AVERAGE(F5:I5)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -4435,16 +4440,18 @@
       <c r="E6" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7">
+        <v>8</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="6" t="e">
+      <c r="J6" s="6">
         <f>AVERAGE(F6:I6)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -4460,16 +4467,18 @@
       <c r="E7" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7">
+        <v>10</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="6" t="e">
+      <c r="J7" s="6">
         <f>AVERAGE(F7:I7)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -4485,16 +4494,18 @@
       <c r="E8" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7">
+        <v>10</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="6" t="e">
+      <c r="J8" s="6">
         <f>AVERAGE(F8,G8)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -4510,16 +4521,18 @@
       <c r="E9" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7">
+        <v>10</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="6" t="e">
+      <c r="J9" s="6">
         <f>AVERAGE(F9:I9)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -4535,16 +4548,18 @@
       <c r="E10" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7">
+        <v>9</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="6" t="e">
+      <c r="J10" s="6">
         <f>AVERAGE(F10:I10)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -4560,16 +4575,18 @@
       <c r="E11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7">
+        <v>9</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="6" t="e">
+      <c r="J11" s="6">
         <f>AVERAGE(F11:I11)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -4585,16 +4602,18 @@
       <c r="E12" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7">
+        <v>9</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="6" t="e">
+      <c r="J12" s="6">
         <f>AVERAGE(F12:I12)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -4610,16 +4629,18 @@
       <c r="E13" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7">
+        <v>10</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="6" t="e">
+      <c r="J13" s="6">
         <f t="shared" ref="J13:J50" si="0">AVERAGE(F13:I13)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -4635,16 +4656,18 @@
       <c r="E14" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7">
+        <v>10</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.6">
+      <c r="J14" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -4660,16 +4683,18 @@
       <c r="E15" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7">
+        <v>8</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.6">
+      <c r="J15" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -4685,16 +4710,18 @@
       <c r="E16" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7">
+        <v>9</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.6">
+      <c r="J16" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -4710,16 +4737,18 @@
       <c r="E17" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7">
+        <v>8</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.6">
+      <c r="J17" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -4735,16 +4764,18 @@
       <c r="E18" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7">
+        <v>9</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.6">
+      <c r="J18" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -4760,16 +4791,18 @@
       <c r="E19" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="7">
+        <v>9</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.6">
+      <c r="J19" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -4785,16 +4818,18 @@
       <c r="E20" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="7">
+        <v>10</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.6">
+      <c r="J20" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -4810,16 +4845,18 @@
       <c r="E21" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="7">
+        <v>9</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.6">
+      <c r="J21" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -4835,16 +4872,18 @@
       <c r="E22" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7">
+        <v>10</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.6">
+      <c r="J22" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -4860,16 +4899,18 @@
       <c r="E23" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="7">
+        <v>9</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.6">
+      <c r="J23" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -4885,16 +4926,18 @@
       <c r="E24" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="7">
+        <v>10</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.6">
+      <c r="J24" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -4910,16 +4953,18 @@
       <c r="E25" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="7">
+        <v>9</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.6">
+      <c r="J25" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -4935,16 +4980,18 @@
       <c r="E26" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="7">
+        <v>10</v>
+      </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.6">
+      <c r="J26" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -4960,16 +5007,18 @@
       <c r="E27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="7">
+        <v>10</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.6">
+      <c r="J27" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -4985,16 +5034,18 @@
       <c r="E28" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="7">
+        <v>9</v>
+      </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.6">
+      <c r="J28" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -5010,16 +5061,18 @@
       <c r="E29" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="7">
+        <v>10</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.6">
+      <c r="J29" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -5035,16 +5088,18 @@
       <c r="E30" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="F30" s="7"/>
+      <c r="F30" s="7">
+        <v>8</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.6">
+      <c r="J30" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -5060,16 +5115,18 @@
       <c r="E31" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F31" s="7"/>
+      <c r="F31" s="7">
+        <v>9</v>
+      </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.6">
+      <c r="J31" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -5085,16 +5142,18 @@
       <c r="E32" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7">
+        <v>8</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15.6">
+      <c r="J32" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -5110,16 +5169,18 @@
       <c r="E33" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="7">
+        <v>9</v>
+      </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15.6">
+      <c r="J33" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -5135,16 +5196,18 @@
       <c r="E34" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="7">
+        <v>10</v>
+      </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.6">
+      <c r="J34" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -5160,16 +5223,18 @@
       <c r="E35" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="7">
+        <v>10</v>
+      </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.6">
+      <c r="J35" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -5185,16 +5250,18 @@
       <c r="E36" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="F36" s="7">
+        <v>9</v>
+      </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.6">
+      <c r="J36" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -5210,16 +5277,18 @@
       <c r="E37" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F37" s="7"/>
+      <c r="F37" s="7">
+        <v>10</v>
+      </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.6">
+      <c r="J37" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -5235,16 +5304,18 @@
       <c r="E38" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="F38" s="7"/>
+      <c r="F38" s="7">
+        <v>9</v>
+      </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15.6">
+      <c r="J38" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -5260,16 +5331,18 @@
       <c r="E39" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="F39" s="7"/>
+      <c r="F39" s="7">
+        <v>10</v>
+      </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15.6">
+      <c r="J39" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -5285,16 +5358,18 @@
       <c r="E40" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="F40" s="7"/>
+      <c r="F40" s="7">
+        <v>8</v>
+      </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15.6">
+      <c r="J40" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -5310,16 +5385,18 @@
       <c r="E41" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="F41" s="7"/>
+      <c r="F41" s="7">
+        <v>8</v>
+      </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15.6">
+      <c r="J41" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -5335,16 +5412,18 @@
       <c r="E42" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="7"/>
+      <c r="F42" s="7">
+        <v>9</v>
+      </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="15.6">
+      <c r="J42" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -5360,16 +5439,18 @@
       <c r="E43" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F43" s="7"/>
+      <c r="F43" s="7">
+        <v>10</v>
+      </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
-      <c r="J43" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15.6">
+      <c r="J43" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -5385,16 +5466,18 @@
       <c r="E44" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="F44" s="7"/>
+      <c r="F44" s="7">
+        <v>8</v>
+      </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
-      <c r="J44" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15.6">
+      <c r="J44" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -5410,16 +5493,18 @@
       <c r="E45" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="F45" s="7"/>
+      <c r="F45" s="7">
+        <v>10</v>
+      </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
-      <c r="J45" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.6">
+      <c r="J45" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -5435,16 +5520,18 @@
       <c r="E46" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="F46" s="7"/>
+      <c r="F46" s="7">
+        <v>10</v>
+      </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
-      <c r="J46" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15.6">
+      <c r="J46" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -5460,16 +5547,18 @@
       <c r="E47" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="F47" s="7"/>
+      <c r="F47" s="7">
+        <v>10</v>
+      </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
-      <c r="J47" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15.6">
+      <c r="J47" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -5485,16 +5574,18 @@
       <c r="E48" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F48" s="7"/>
+      <c r="F48" s="7">
+        <v>10</v>
+      </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
-      <c r="J48" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15.6">
+      <c r="J48" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -5510,16 +5601,18 @@
       <c r="E49" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="F49" s="7"/>
+      <c r="F49" s="7">
+        <v>7</v>
+      </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
-      <c r="J49" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="15.6">
+      <c r="J49" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -5535,16 +5628,18 @@
       <c r="E50" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="F50" s="7"/>
+      <c r="F50" s="7">
+        <v>10</v>
+      </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
-      <c r="J50" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="15.6">
+      <c r="J50" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -5560,13 +5655,15 @@
       <c r="E51" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F51" s="7"/>
+      <c r="F51" s="7">
+        <v>8</v>
+      </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
-      <c r="J51" s="6" t="e">
+      <c r="J51" s="6">
         <f t="shared" ref="J51" si="1">AVERAGE(F51:I51)</f>
-        <v>#DIV/0!</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -5585,6 +5682,7 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="J2:J3"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2" xr:uid="{BE99A159-1EF3-4BB4-B0E6-731B59428136}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3" xr:uid="{91DCA2A1-A619-4D6E-9057-C193606F5535}"/>
@@ -5598,24 +5696,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71A6A0A-D35A-46D3-AE05-F9914FF9FBE0}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="4" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -5631,7 +5729,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -5663,14 +5761,14 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="14"/>
       <c r="E3" s="17"/>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
+      <c r="F3" s="3">
+        <v>44096</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>12</v>
@@ -5683,7 +5781,7 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="15.6">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -5699,16 +5797,18 @@
       <c r="E4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7">
+        <v>8</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="6" t="e">
+      <c r="J4" s="6">
         <f>AVERAGE(F4:I4)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -5724,16 +5824,18 @@
       <c r="E5" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7">
+        <v>7</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="6" t="e">
+      <c r="J5" s="6">
         <f>AVERAGE(F5:I5)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -5749,16 +5851,18 @@
       <c r="E6" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7">
+        <v>8</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="6" t="e">
+      <c r="J6" s="6">
         <f>AVERAGE(F6:I6)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -5774,16 +5878,18 @@
       <c r="E7" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7">
+        <v>9</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="6" t="e">
+      <c r="J7" s="6">
         <f>AVERAGE(F7:I7)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -5799,16 +5905,18 @@
       <c r="E8" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7">
+        <v>8</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="6" t="e">
+      <c r="J8" s="6">
         <f>AVERAGE(F8,G8)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -5824,16 +5932,18 @@
       <c r="E9" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7">
+        <v>9</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="6" t="e">
+      <c r="J9" s="6">
         <f>AVERAGE(F9:I9)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -5849,16 +5959,18 @@
       <c r="E10" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7">
+        <v>9</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="6" t="e">
+      <c r="J10" s="6">
         <f>AVERAGE(F10:I10)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -5874,16 +5986,18 @@
       <c r="E11" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7">
+        <v>7</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="6" t="e">
+      <c r="J11" s="6">
         <f>AVERAGE(F11:I11)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -5899,16 +6013,18 @@
       <c r="E12" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7">
+        <v>9</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="6" t="e">
+      <c r="J12" s="6">
         <f>AVERAGE(F12:I12)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -5924,16 +6040,18 @@
       <c r="E13" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7">
+        <v>8</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="6" t="e">
+      <c r="J13" s="6">
         <f t="shared" ref="J13:J51" si="0">AVERAGE(F13:I13)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -5949,16 +6067,18 @@
       <c r="E14" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7">
+        <v>7</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.6">
+      <c r="J14" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -5974,16 +6094,18 @@
       <c r="E15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7">
+        <v>10</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.6">
+      <c r="J15" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -5999,16 +6121,18 @@
       <c r="E16" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7">
+        <v>6</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.6">
+      <c r="J16" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -6024,16 +6148,18 @@
       <c r="E17" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7">
+        <v>7</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.6">
+      <c r="J17" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -6049,16 +6175,18 @@
       <c r="E18" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7">
+        <v>9</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.6">
+      <c r="J18" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -6074,16 +6202,18 @@
       <c r="E19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="7">
+        <v>8</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.6">
+      <c r="J19" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -6099,16 +6229,18 @@
       <c r="E20" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="7">
+        <v>8</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.6">
+      <c r="J20" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -6124,16 +6256,18 @@
       <c r="E21" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="7">
+        <v>9</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.6">
+      <c r="J21" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -6149,16 +6283,18 @@
       <c r="E22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7">
+        <v>9</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.6">
+      <c r="J22" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -6174,16 +6310,18 @@
       <c r="E23" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="7">
+        <v>7</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.6">
+      <c r="J23" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -6199,16 +6337,18 @@
       <c r="E24" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="7">
+        <v>9</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.6">
+      <c r="J24" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -6224,16 +6364,18 @@
       <c r="E25" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="7">
+        <v>9</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.6">
+      <c r="J25" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -6249,16 +6391,18 @@
       <c r="E26" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="7">
+        <v>8</v>
+      </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.6">
+      <c r="J26" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -6274,16 +6418,18 @@
       <c r="E27" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="7">
+        <v>9</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.6">
+      <c r="J27" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -6299,16 +6445,18 @@
       <c r="E28" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="7">
+        <v>8</v>
+      </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.6">
+      <c r="J28" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -6324,16 +6472,18 @@
       <c r="E29" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="7">
+        <v>9</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.6">
+      <c r="J29" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -6349,16 +6499,18 @@
       <c r="E30" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="7"/>
+      <c r="F30" s="7">
+        <v>9</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.6">
+      <c r="J30" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -6374,16 +6526,18 @@
       <c r="E31" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="F31" s="7"/>
+      <c r="F31" s="7">
+        <v>10</v>
+      </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.6">
+      <c r="J31" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -6399,16 +6553,18 @@
       <c r="E32" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7">
+        <v>6</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15.6">
+      <c r="J32" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -6424,16 +6580,18 @@
       <c r="E33" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="7">
+        <v>9</v>
+      </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15.6">
+      <c r="J33" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -6449,16 +6607,18 @@
       <c r="E34" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="7">
+        <v>8</v>
+      </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.6">
+      <c r="J34" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -6474,16 +6634,18 @@
       <c r="E35" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="7">
+        <v>8</v>
+      </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.6">
+      <c r="J35" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -6499,16 +6661,18 @@
       <c r="E36" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="F36" s="7">
+        <v>10</v>
+      </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.6">
+      <c r="J36" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -6524,16 +6688,18 @@
       <c r="E37" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="F37" s="7"/>
+      <c r="F37" s="7">
+        <v>9</v>
+      </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.6">
+      <c r="J37" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -6549,16 +6715,18 @@
       <c r="E38" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="F38" s="7"/>
+      <c r="F38" s="7">
+        <v>9</v>
+      </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15.6">
+      <c r="J38" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -6574,16 +6742,18 @@
       <c r="E39" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="F39" s="7"/>
+      <c r="F39" s="7">
+        <v>9</v>
+      </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15.6">
+      <c r="J39" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -6599,16 +6769,18 @@
       <c r="E40" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="7"/>
+      <c r="F40" s="7">
+        <v>8</v>
+      </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15.6">
+      <c r="J40" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -6624,16 +6796,18 @@
       <c r="E41" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="F41" s="7"/>
+      <c r="F41" s="7">
+        <v>6</v>
+      </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15.6">
+      <c r="J41" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -6649,16 +6823,18 @@
       <c r="E42" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="F42" s="7"/>
+      <c r="F42" s="7">
+        <v>8</v>
+      </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="15.6">
+      <c r="J42" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -6674,16 +6850,18 @@
       <c r="E43" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F43" s="7"/>
+      <c r="F43" s="7">
+        <v>8</v>
+      </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
-      <c r="J43" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15.6">
+      <c r="J43" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -6699,16 +6877,18 @@
       <c r="E44" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="F44" s="7"/>
+      <c r="F44" s="7">
+        <v>9</v>
+      </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
-      <c r="J44" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15.6">
+      <c r="J44" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -6724,16 +6904,18 @@
       <c r="E45" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F45" s="7"/>
+      <c r="F45" s="7">
+        <v>7</v>
+      </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
-      <c r="J45" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.6">
+      <c r="J45" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -6749,16 +6931,18 @@
       <c r="E46" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="F46" s="7"/>
+      <c r="F46" s="7">
+        <v>8</v>
+      </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
-      <c r="J46" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15.6">
+      <c r="J46" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -6774,16 +6958,18 @@
       <c r="E47" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F47" s="7"/>
+      <c r="F47" s="7">
+        <v>9</v>
+      </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
-      <c r="J47" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15.6">
+      <c r="J47" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -6799,16 +6985,18 @@
       <c r="E48" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="F48" s="7"/>
+      <c r="F48" s="7">
+        <v>9</v>
+      </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
-      <c r="J48" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15.6">
+      <c r="J48" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -6824,16 +7012,18 @@
       <c r="E49" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="F49" s="7"/>
+      <c r="F49" s="7">
+        <v>7</v>
+      </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
-      <c r="J49" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="15.6">
+      <c r="J49" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -6849,16 +7039,18 @@
       <c r="E50" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="F50" s="7"/>
+      <c r="F50" s="7">
+        <v>9</v>
+      </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
-      <c r="J50" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="15.6">
+      <c r="J50" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -6874,13 +7066,15 @@
       <c r="E51" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="F51" s="7"/>
+      <c r="F51" s="7">
+        <v>9</v>
+      </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
-      <c r="J51" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J51" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -6899,6 +7093,7 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="J2:J3"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3" xr:uid="{72437432-EAB7-41A1-8A3D-F4D1EF05A484}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2" xr:uid="{CE85343B-4101-49A3-B993-D9A56BA44C5E}"/>

--- a/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
+++ b/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\Class Test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D876AFA-BC2C-4BEB-8A8D-808B7AD34324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="2" r:id="rId1"/>
@@ -19,12 +13,12 @@
     <sheet name="NE" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CS1'!$A$2:$J$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CS2'!$A$2:$J$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CS1'!$A$2:$J$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CS2'!$A$2:$J$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NE!$A$2:$J$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SE!$A$2:$J$48</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="381">
   <si>
     <t>No</t>
   </si>
@@ -468,721 +462,724 @@
     <t>郭政玺</t>
   </si>
   <si>
+    <t>杜蓉蓉</t>
+  </si>
+  <si>
+    <t>杨国义</t>
+  </si>
+  <si>
+    <t>马福龙</t>
+  </si>
+  <si>
+    <t>田瑞良</t>
+  </si>
+  <si>
+    <t>伏剑</t>
+  </si>
+  <si>
+    <t>马雨洁</t>
+  </si>
+  <si>
+    <t>何羽萱</t>
+  </si>
+  <si>
+    <t>李舒玲</t>
+  </si>
+  <si>
+    <t>黄梓琪</t>
+  </si>
+  <si>
+    <t>王耀兴</t>
+  </si>
+  <si>
+    <t>李玉</t>
+  </si>
+  <si>
+    <t>夏禹</t>
+  </si>
+  <si>
+    <t>王正航</t>
+  </si>
+  <si>
+    <t>周子豪</t>
+  </si>
+  <si>
+    <t>李泽奇</t>
+  </si>
+  <si>
+    <t>Sophia</t>
+  </si>
+  <si>
+    <t>Vera</t>
+  </si>
+  <si>
+    <t>Dilyar</t>
+  </si>
+  <si>
+    <t>Boris</t>
+  </si>
+  <si>
+    <t>Amir</t>
+  </si>
+  <si>
+    <t>Aubrey</t>
+  </si>
+  <si>
+    <t>Molly</t>
+  </si>
+  <si>
+    <t>Heidi</t>
+  </si>
+  <si>
+    <t>Yuki</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>Tsubaki</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>Wallace</t>
+  </si>
+  <si>
+    <t>Renata</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
+    <t>Angel</t>
+  </si>
+  <si>
+    <t>Amiel</t>
+  </si>
+  <si>
+    <t>Shirley</t>
+  </si>
+  <si>
+    <t>Polk</t>
+  </si>
+  <si>
+    <t>Betty</t>
+  </si>
+  <si>
+    <t>Kuck</t>
+  </si>
+  <si>
+    <t>Jess</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>Carrie</t>
+  </si>
+  <si>
+    <t>Samant</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Sherry</t>
+  </si>
+  <si>
+    <t>Gerrard</t>
+  </si>
+  <si>
+    <t>Nina</t>
+  </si>
+  <si>
+    <t>Bert</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>孜拉拉·吐尔逊江</t>
+  </si>
+  <si>
+    <t>王廷强</t>
+  </si>
+  <si>
+    <t>吴薇</t>
+  </si>
+  <si>
+    <t>王磊</t>
+  </si>
+  <si>
+    <t>李小妹</t>
+  </si>
+  <si>
+    <t>马海燕</t>
+  </si>
+  <si>
+    <t>田彦奇</t>
+  </si>
+  <si>
+    <t>姬亚丽</t>
+  </si>
+  <si>
+    <t>马东</t>
+  </si>
+  <si>
+    <t>杨伟龙</t>
+  </si>
+  <si>
+    <t>李子成</t>
+  </si>
+  <si>
+    <t>杨子瑜</t>
+  </si>
+  <si>
+    <t>吴鹏飞</t>
+  </si>
+  <si>
+    <t>田培</t>
+  </si>
+  <si>
+    <t>黄剑桥</t>
+  </si>
+  <si>
+    <t>魏龙飞</t>
+  </si>
+  <si>
+    <t>马小博</t>
+  </si>
+  <si>
+    <t>马晓峰</t>
+  </si>
+  <si>
+    <t>郭峰</t>
+  </si>
+  <si>
+    <t>任煜瀛</t>
+  </si>
+  <si>
+    <t>詹鑫宁</t>
+  </si>
+  <si>
+    <t>高成瑞</t>
+  </si>
+  <si>
+    <t>丁晓倩</t>
+  </si>
+  <si>
+    <t>刘嘉玮</t>
+  </si>
+  <si>
+    <t>李亚卓</t>
+  </si>
+  <si>
+    <t>倪明慧</t>
+  </si>
+  <si>
+    <t>罗发悔</t>
+  </si>
+  <si>
+    <t>马永娟</t>
+  </si>
+  <si>
+    <t>李晓燕</t>
+  </si>
+  <si>
+    <t>蔡建华</t>
+  </si>
+  <si>
+    <t>余雪莲</t>
+  </si>
+  <si>
+    <t>密文明</t>
+  </si>
+  <si>
+    <t>路建华</t>
+  </si>
+  <si>
+    <t>王辰洋</t>
+  </si>
+  <si>
+    <t>张杰</t>
+  </si>
+  <si>
+    <t>陈雯琪</t>
+  </si>
+  <si>
+    <t>艾拉帕提·吾不力</t>
+  </si>
+  <si>
+    <t>阿孜依娜·阿克木哈买提</t>
+  </si>
+  <si>
+    <t>余涛</t>
+  </si>
+  <si>
+    <t>李哲旭</t>
+  </si>
+  <si>
+    <t>段逸轩</t>
+  </si>
+  <si>
+    <t>胡兵</t>
+  </si>
+  <si>
+    <t>余雅静</t>
+  </si>
+  <si>
+    <t>朱涵江</t>
+  </si>
+  <si>
+    <t>Kiki</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Asha</t>
+  </si>
+  <si>
+    <t>Lvy</t>
+  </si>
+  <si>
+    <t>Deanna</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Abner</t>
+  </si>
+  <si>
+    <t>Charity</t>
+  </si>
+  <si>
+    <t>Jone</t>
+  </si>
+  <si>
+    <t>Marxiall</t>
+  </si>
+  <si>
+    <t>Hassan</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Lucky</t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <t>Clover</t>
+  </si>
+  <si>
+    <t>Danica</t>
+  </si>
+  <si>
+    <t>Beata</t>
+  </si>
+  <si>
+    <t>Troye</t>
+  </si>
+  <si>
+    <t>Jacqueline</t>
+  </si>
+  <si>
+    <t>Myles</t>
+  </si>
+  <si>
+    <t>Clement</t>
+  </si>
+  <si>
+    <t>Alonso</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>Clown</t>
+  </si>
+  <si>
+    <t>Eddie</t>
+  </si>
+  <si>
+    <t>Hachi</t>
+  </si>
+  <si>
+    <t>Kimi</t>
+  </si>
+  <si>
+    <t>Lova</t>
+  </si>
+  <si>
+    <t>Irene</t>
+  </si>
+  <si>
+    <t>Jam</t>
+  </si>
+  <si>
+    <t>海濛</t>
+  </si>
+  <si>
+    <t>尤娜</t>
+  </si>
+  <si>
+    <t>王佳惠</t>
+  </si>
+  <si>
+    <t>刘心梦</t>
+  </si>
+  <si>
+    <t>卡祖铭</t>
+  </si>
+  <si>
+    <t>罗林</t>
+  </si>
+  <si>
+    <t>汤宁</t>
+  </si>
+  <si>
+    <t>樊芸璇</t>
+  </si>
+  <si>
+    <t>李洋</t>
+  </si>
+  <si>
+    <t>蒙雪云</t>
+  </si>
+  <si>
+    <t>马乔过</t>
+  </si>
+  <si>
+    <t>马开成</t>
+  </si>
+  <si>
+    <t>马金芬</t>
+  </si>
+  <si>
+    <t>魏澳澳</t>
+  </si>
+  <si>
+    <t>周甲元</t>
+  </si>
+  <si>
+    <t>郑昊</t>
+  </si>
+  <si>
+    <t>马宝玉</t>
+  </si>
+  <si>
+    <t>李震</t>
+  </si>
+  <si>
+    <t>郑晨</t>
+  </si>
+  <si>
+    <t>俞忻旺</t>
+  </si>
+  <si>
+    <t>申冰鑫</t>
+  </si>
+  <si>
+    <t>赵星楠</t>
+  </si>
+  <si>
+    <t>马国军</t>
+  </si>
+  <si>
+    <t>穆琴</t>
+  </si>
+  <si>
+    <t>张婧</t>
+  </si>
+  <si>
+    <t>张家旺</t>
+  </si>
+  <si>
+    <t>柳浩</t>
+  </si>
+  <si>
+    <t>史丽媛</t>
+  </si>
+  <si>
+    <t>吴亚玫</t>
+  </si>
+  <si>
+    <t>姜嘉龙</t>
+  </si>
+  <si>
+    <t>梁永强</t>
+  </si>
+  <si>
+    <t>李娜</t>
+  </si>
+  <si>
+    <t>高敏</t>
+  </si>
+  <si>
+    <t>穆秉甡</t>
+  </si>
+  <si>
+    <t>牟岩松</t>
+  </si>
+  <si>
+    <t>孙迪龙</t>
+  </si>
+  <si>
+    <t>崔松</t>
+  </si>
+  <si>
+    <t>张国竟</t>
+  </si>
+  <si>
+    <t>周文</t>
+  </si>
+  <si>
+    <t>刘新培</t>
+  </si>
+  <si>
+    <t>许思垚</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
+    <t>Cara</t>
+  </si>
+  <si>
+    <t>Gloria</t>
+  </si>
+  <si>
+    <t>Careen</t>
+  </si>
+  <si>
+    <t>Iverson</t>
+  </si>
+  <si>
+    <t>Mia</t>
+  </si>
+  <si>
+    <t>Novice</t>
+  </si>
+  <si>
+    <t>Well</t>
+  </si>
+  <si>
+    <t>Hades</t>
+  </si>
+  <si>
+    <t>Poole</t>
+  </si>
+  <si>
+    <t>Gerry</t>
+  </si>
+  <si>
+    <t>Zola</t>
+  </si>
+  <si>
+    <t>Thiago</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
+    <t>Arno</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Hailey</t>
+  </si>
+  <si>
+    <t>Vic</t>
+  </si>
+  <si>
+    <t>Tina</t>
+  </si>
+  <si>
+    <t>Joie</t>
+  </si>
+  <si>
+    <t>Angus</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>Marian</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Gennady</t>
+  </si>
+  <si>
+    <t>Marcy</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>Dwyane</t>
+  </si>
+  <si>
+    <t>CT1</t>
+  </si>
+  <si>
+    <t>CT2</t>
+  </si>
+  <si>
+    <t>CT3</t>
+  </si>
+  <si>
+    <t>Class Test</t>
+  </si>
+  <si>
+    <t>Average CT</t>
+  </si>
+  <si>
+    <t>CT4</t>
+  </si>
+  <si>
+    <t>王安廷</t>
+  </si>
+  <si>
+    <t>Watt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Frank</t>
+  </si>
+  <si>
+    <t>Malcoln</t>
+  </si>
+  <si>
+    <t>Ed. Sheeran</t>
+  </si>
+  <si>
+    <t>Lili</t>
+  </si>
+  <si>
+    <t>Devison</t>
+  </si>
+  <si>
+    <t>Helen Li</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adolph</t>
+  </si>
+  <si>
+    <t>刘子津</t>
+  </si>
+  <si>
+    <t>王七武</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Cher</t>
+  </si>
+  <si>
+    <t>Tian Qi</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>刘宇扬</t>
+  </si>
+  <si>
+    <t>阿力木江·赛都勒</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Clarance</t>
+  </si>
+  <si>
+    <t>Vivian</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Luffy</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>简瑞</t>
+  </si>
+  <si>
+    <t>冯欢生</t>
+  </si>
+  <si>
+    <t>Jay</t>
+  </si>
+  <si>
+    <t>Lantern</t>
+  </si>
+  <si>
+    <t>Geoge</t>
+  </si>
+  <si>
+    <t>Yinchuan- CS1</t>
+  </si>
+  <si>
+    <t>Yinchuan- CS2</t>
+  </si>
+  <si>
+    <t>Yinchuan- SE</t>
+  </si>
+  <si>
+    <t>Yinchuan- NE</t>
+  </si>
+  <si>
+    <t>Anne</t>
+  </si>
+  <si>
     <t>马利秀</t>
-  </si>
-  <si>
-    <t>杜蓉蓉</t>
-  </si>
-  <si>
-    <t>杨国义</t>
-  </si>
-  <si>
-    <t>马福龙</t>
-  </si>
-  <si>
-    <t>田瑞良</t>
-  </si>
-  <si>
-    <t>伏剑</t>
-  </si>
-  <si>
-    <t>马雨洁</t>
-  </si>
-  <si>
-    <t>何羽萱</t>
-  </si>
-  <si>
-    <t>李舒玲</t>
-  </si>
-  <si>
-    <t>黄梓琪</t>
-  </si>
-  <si>
-    <t>王耀兴</t>
-  </si>
-  <si>
-    <t>李玉</t>
-  </si>
-  <si>
-    <t>夏禹</t>
-  </si>
-  <si>
-    <t>王正航</t>
-  </si>
-  <si>
-    <t>周子豪</t>
-  </si>
-  <si>
-    <t>李泽奇</t>
-  </si>
-  <si>
-    <t>Sophia</t>
-  </si>
-  <si>
-    <t>Vera</t>
-  </si>
-  <si>
-    <t>Dilyar</t>
-  </si>
-  <si>
-    <t>Boris</t>
-  </si>
-  <si>
-    <t>Amir</t>
-  </si>
-  <si>
-    <t>Aubrey</t>
-  </si>
-  <si>
-    <t>Molly</t>
-  </si>
-  <si>
-    <t>Heidi</t>
-  </si>
-  <si>
-    <t>Yuki</t>
-  </si>
-  <si>
-    <t>Ricardo</t>
-  </si>
-  <si>
-    <t>Tsubaki</t>
-  </si>
-  <si>
-    <t>Jeff</t>
-  </si>
-  <si>
-    <t>Wallace</t>
-  </si>
-  <si>
-    <t>Renata</t>
-  </si>
-  <si>
-    <t>Sunny</t>
-  </si>
-  <si>
-    <t>Angel</t>
-  </si>
-  <si>
-    <t>Amiel</t>
-  </si>
-  <si>
-    <t>Shirley</t>
-  </si>
-  <si>
-    <t>Polk</t>
-  </si>
-  <si>
-    <t>Betty</t>
-  </si>
-  <si>
-    <t>Kuck</t>
-  </si>
-  <si>
-    <t>Jess</t>
-  </si>
-  <si>
-    <t>Susan</t>
-  </si>
-  <si>
-    <t>Fred</t>
-  </si>
-  <si>
-    <t>Carrie</t>
-  </si>
-  <si>
-    <t>Samant</t>
-  </si>
-  <si>
-    <t>Amanda</t>
-  </si>
-  <si>
-    <t>Sherry</t>
-  </si>
-  <si>
-    <t>Gerrard</t>
-  </si>
-  <si>
-    <t>Nina</t>
-  </si>
-  <si>
-    <t>Bert</t>
-  </si>
-  <si>
-    <t>Nick</t>
-  </si>
-  <si>
-    <t>孜拉拉·吐尔逊江</t>
-  </si>
-  <si>
-    <t>王廷强</t>
-  </si>
-  <si>
-    <t>吴薇</t>
-  </si>
-  <si>
-    <t>王磊</t>
-  </si>
-  <si>
-    <t>李小妹</t>
-  </si>
-  <si>
-    <t>马海燕</t>
-  </si>
-  <si>
-    <t>田彦奇</t>
-  </si>
-  <si>
-    <t>姬亚丽</t>
-  </si>
-  <si>
-    <t>马东</t>
-  </si>
-  <si>
-    <t>杨伟龙</t>
-  </si>
-  <si>
-    <t>李子成</t>
-  </si>
-  <si>
-    <t>杨子瑜</t>
-  </si>
-  <si>
-    <t>吴鹏飞</t>
-  </si>
-  <si>
-    <t>田培</t>
-  </si>
-  <si>
-    <t>黄剑桥</t>
-  </si>
-  <si>
-    <t>魏龙飞</t>
-  </si>
-  <si>
-    <t>马小博</t>
-  </si>
-  <si>
-    <t>马晓峰</t>
-  </si>
-  <si>
-    <t>郭峰</t>
-  </si>
-  <si>
-    <t>任煜瀛</t>
-  </si>
-  <si>
-    <t>詹鑫宁</t>
-  </si>
-  <si>
-    <t>高成瑞</t>
-  </si>
-  <si>
-    <t>丁晓倩</t>
-  </si>
-  <si>
-    <t>刘嘉玮</t>
-  </si>
-  <si>
-    <t>李亚卓</t>
-  </si>
-  <si>
-    <t>倪明慧</t>
-  </si>
-  <si>
-    <t>罗发悔</t>
-  </si>
-  <si>
-    <t>马永娟</t>
-  </si>
-  <si>
-    <t>李晓燕</t>
-  </si>
-  <si>
-    <t>蔡建华</t>
-  </si>
-  <si>
-    <t>余雪莲</t>
-  </si>
-  <si>
-    <t>密文明</t>
-  </si>
-  <si>
-    <t>路建华</t>
-  </si>
-  <si>
-    <t>王辰洋</t>
-  </si>
-  <si>
-    <t>张杰</t>
-  </si>
-  <si>
-    <t>陈雯琪</t>
-  </si>
-  <si>
-    <t>艾拉帕提·吾不力</t>
-  </si>
-  <si>
-    <t>阿孜依娜·阿克木哈买提</t>
-  </si>
-  <si>
-    <t>余涛</t>
-  </si>
-  <si>
-    <t>李哲旭</t>
-  </si>
-  <si>
-    <t>段逸轩</t>
-  </si>
-  <si>
-    <t>胡兵</t>
-  </si>
-  <si>
-    <t>余雅静</t>
-  </si>
-  <si>
-    <t>朱涵江</t>
-  </si>
-  <si>
-    <t>Kiki</t>
-  </si>
-  <si>
-    <t>Tim</t>
-  </si>
-  <si>
-    <t>Asha</t>
-  </si>
-  <si>
-    <t>Lvy</t>
-  </si>
-  <si>
-    <t>Deanna</t>
-  </si>
-  <si>
-    <t>Sean</t>
-  </si>
-  <si>
-    <t>Gary</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Abner</t>
-  </si>
-  <si>
-    <t>Charity</t>
-  </si>
-  <si>
-    <t>Jone</t>
-  </si>
-  <si>
-    <t>Marxiall</t>
-  </si>
-  <si>
-    <t>Hassan</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>Lucky</t>
-  </si>
-  <si>
-    <t>Grey</t>
-  </si>
-  <si>
-    <t>Clover</t>
-  </si>
-  <si>
-    <t>Danica</t>
-  </si>
-  <si>
-    <t>Beata</t>
-  </si>
-  <si>
-    <t>Troye</t>
-  </si>
-  <si>
-    <t>Jacqueline</t>
-  </si>
-  <si>
-    <t>Myles</t>
-  </si>
-  <si>
-    <t>Clement</t>
-  </si>
-  <si>
-    <t>Alonso</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Christopher</t>
-  </si>
-  <si>
-    <t>Clown</t>
-  </si>
-  <si>
-    <t>Eddie</t>
-  </si>
-  <si>
-    <t>Hachi</t>
-  </si>
-  <si>
-    <t>Kimi</t>
-  </si>
-  <si>
-    <t>Lova</t>
-  </si>
-  <si>
-    <t>Irene</t>
-  </si>
-  <si>
-    <t>Jam</t>
-  </si>
-  <si>
-    <t>海濛</t>
-  </si>
-  <si>
-    <t>尤娜</t>
-  </si>
-  <si>
-    <t>王佳惠</t>
-  </si>
-  <si>
-    <t>刘心梦</t>
-  </si>
-  <si>
-    <t>卡祖铭</t>
-  </si>
-  <si>
-    <t>罗林</t>
-  </si>
-  <si>
-    <t>汤宁</t>
-  </si>
-  <si>
-    <t>樊芸璇</t>
-  </si>
-  <si>
-    <t>李洋</t>
-  </si>
-  <si>
-    <t>蒙雪云</t>
-  </si>
-  <si>
-    <t>马乔过</t>
-  </si>
-  <si>
-    <t>马开成</t>
-  </si>
-  <si>
-    <t>马金芬</t>
-  </si>
-  <si>
-    <t>魏澳澳</t>
-  </si>
-  <si>
-    <t>周甲元</t>
-  </si>
-  <si>
-    <t>郑昊</t>
-  </si>
-  <si>
-    <t>马宝玉</t>
-  </si>
-  <si>
-    <t>李震</t>
-  </si>
-  <si>
-    <t>郑晨</t>
-  </si>
-  <si>
-    <t>俞忻旺</t>
-  </si>
-  <si>
-    <t>申冰鑫</t>
-  </si>
-  <si>
-    <t>赵星楠</t>
-  </si>
-  <si>
-    <t>马国军</t>
-  </si>
-  <si>
-    <t>穆琴</t>
-  </si>
-  <si>
-    <t>张婧</t>
-  </si>
-  <si>
-    <t>张家旺</t>
-  </si>
-  <si>
-    <t>柳浩</t>
-  </si>
-  <si>
-    <t>史丽媛</t>
-  </si>
-  <si>
-    <t>吴亚玫</t>
-  </si>
-  <si>
-    <t>姜嘉龙</t>
-  </si>
-  <si>
-    <t>梁永强</t>
-  </si>
-  <si>
-    <t>李娜</t>
-  </si>
-  <si>
-    <t>高敏</t>
-  </si>
-  <si>
-    <t>穆秉甡</t>
-  </si>
-  <si>
-    <t>牟岩松</t>
-  </si>
-  <si>
-    <t>孙迪龙</t>
-  </si>
-  <si>
-    <t>崔松</t>
-  </si>
-  <si>
-    <t>张国竟</t>
-  </si>
-  <si>
-    <t>周文</t>
-  </si>
-  <si>
-    <t>刘新培</t>
-  </si>
-  <si>
-    <t>许思垚</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>鲜伊社</t>
-  </si>
-  <si>
-    <t>Ann</t>
-  </si>
-  <si>
-    <t>Cara</t>
-  </si>
-  <si>
-    <t>Gloria</t>
-  </si>
-  <si>
-    <t>Careen</t>
-  </si>
-  <si>
-    <t>Iverson</t>
-  </si>
-  <si>
-    <t>Mia</t>
-  </si>
-  <si>
-    <t>Novice</t>
-  </si>
-  <si>
-    <t>Well</t>
-  </si>
-  <si>
-    <t>Hades</t>
-  </si>
-  <si>
-    <t>Poole</t>
-  </si>
-  <si>
-    <t>Gerry</t>
-  </si>
-  <si>
-    <t>Zola</t>
-  </si>
-  <si>
-    <t>Thiago</t>
-  </si>
-  <si>
-    <t>Jerry</t>
-  </si>
-  <si>
-    <t>Arno</t>
-  </si>
-  <si>
-    <t>Andy</t>
-  </si>
-  <si>
-    <t>Andrea</t>
-  </si>
-  <si>
-    <t>Jane</t>
-  </si>
-  <si>
-    <t>Hailey</t>
-  </si>
-  <si>
-    <t>Vic</t>
-  </si>
-  <si>
-    <t>Tina</t>
-  </si>
-  <si>
-    <t>Joie</t>
-  </si>
-  <si>
-    <t>Angus</t>
-  </si>
-  <si>
-    <t>Tony</t>
-  </si>
-  <si>
-    <t>Marian</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Gennady</t>
-  </si>
-  <si>
-    <t>Marcy</t>
-  </si>
-  <si>
-    <t>Ethan</t>
-  </si>
-  <si>
-    <t>Dwyane</t>
-  </si>
-  <si>
-    <t>CT1</t>
-  </si>
-  <si>
-    <t>CT2</t>
-  </si>
-  <si>
-    <t>CT3</t>
-  </si>
-  <si>
-    <t>Class Test</t>
-  </si>
-  <si>
-    <t>Average CT</t>
-  </si>
-  <si>
-    <t>CT4</t>
-  </si>
-  <si>
-    <t>王安廷</t>
-  </si>
-  <si>
-    <t>Watt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Frank</t>
-  </si>
-  <si>
-    <t>Malcoln</t>
-  </si>
-  <si>
-    <t>Ed. Sheeran</t>
-  </si>
-  <si>
-    <t>Lili</t>
-  </si>
-  <si>
-    <t>Devison</t>
-  </si>
-  <si>
-    <t>Helen Li</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Adolph</t>
-  </si>
-  <si>
-    <t>刘子津</t>
-  </si>
-  <si>
-    <t>王七武</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Cher</t>
-  </si>
-  <si>
-    <t>Tian Qi</t>
-  </si>
-  <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>刘宇扬</t>
-  </si>
-  <si>
-    <t>阿力木江·赛都勒</t>
-  </si>
-  <si>
-    <t>Rock</t>
-  </si>
-  <si>
-    <t>Clarance</t>
-  </si>
-  <si>
-    <t>Vivian</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Luffy</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>简瑞</t>
-  </si>
-  <si>
-    <t>冯欢生</t>
-  </si>
-  <si>
-    <t>Jay</t>
-  </si>
-  <si>
-    <t>Lantern</t>
-  </si>
-  <si>
-    <t>Geoge</t>
-  </si>
-  <si>
-    <t>Yinchuan- CS1</t>
-  </si>
-  <si>
-    <t>Yinchuan- CS2</t>
-  </si>
-  <si>
-    <t>Yinchuan- SE</t>
-  </si>
-  <si>
-    <t>Yinchuan- NE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>司喜绢</t>
-  </si>
-  <si>
-    <t>Anne</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1397,9 +1394,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 2 3" xfId="1"/>
+    <cellStyle name="常规 3" xfId="3"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1669,35 +1666,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" style="4" customWidth="1"/>
-    <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="9" width="11.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59" style="4" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1706,14 +1703,14 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1730,29 +1727,29 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="14"/>
       <c r="E3" s="17"/>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
+      <c r="F3" s="3">
+        <v>47016</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>12</v>
@@ -1765,62 +1762,66 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D4" s="9">
         <v>12016242362</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="F4" s="7"/>
+        <v>346</v>
+      </c>
+      <c r="F4" s="7">
+        <v>20</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="6" t="e">
+      <c r="J4" s="6">
         <f>AVERAGE(F4:I4)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D5" s="9">
         <v>12018241691</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="F5" s="7"/>
+        <v>347</v>
+      </c>
+      <c r="F5" s="7">
+        <v>54</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="6" t="e">
+      <c r="J5" s="6">
         <f>AVERAGE(F5:I5)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>34</v>
@@ -1831,21 +1832,23 @@
       <c r="E6" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7">
+        <v>74</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="6" t="e">
+      <c r="J6" s="6">
         <f>AVERAGE(F6:I6)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>35</v>
@@ -1856,21 +1859,23 @@
       <c r="E7" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7">
+        <v>80</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="6" t="e">
+      <c r="J7" s="6">
         <f>AVERAGE(F7:I7)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>114</v>
@@ -1879,23 +1884,25 @@
         <v>12018242204</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="F8" s="7"/>
+        <v>159</v>
+      </c>
+      <c r="F8" s="7">
+        <v>74</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="6" t="e">
+      <c r="J8" s="6">
         <f>AVERAGE(F8,G8)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>36</v>
@@ -1906,21 +1913,23 @@
       <c r="E9" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7">
+        <v>54</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="6" t="e">
+      <c r="J9" s="6">
         <f>AVERAGE(F9:I9)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>118</v>
@@ -1929,23 +1938,25 @@
         <v>12018242219</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="F10" s="7"/>
+        <v>348</v>
+      </c>
+      <c r="F10" s="7">
+        <v>87</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="6" t="e">
+      <c r="J10" s="6">
         <f>AVERAGE(F10:I10)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>119</v>
@@ -1954,23 +1965,25 @@
         <v>12018242221</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="F11" s="7"/>
+        <v>163</v>
+      </c>
+      <c r="F11" s="7">
+        <v>94</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="6" t="e">
+      <c r="J11" s="6">
         <f>AVERAGE(F11:I11)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>42</v>
@@ -1981,21 +1994,23 @@
       <c r="E12" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7">
+        <v>80</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="6" t="e">
+      <c r="J12" s="6">
         <f>AVERAGE(F12:I12)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>46</v>
@@ -2006,21 +2021,23 @@
       <c r="E13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7">
+        <v>94</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="6" t="e">
+      <c r="J13" s="6">
         <f t="shared" ref="J13:J14" si="0">AVERAGE(F13:I13)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>121</v>
@@ -2031,21 +2048,23 @@
       <c r="E14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7">
+        <v>87</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J14" s="6">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>122</v>
@@ -2054,23 +2073,25 @@
         <v>12018242241</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F15" s="7"/>
+        <v>165</v>
+      </c>
+      <c r="F15" s="7">
+        <v>87</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="6" t="e">
+      <c r="J15" s="6">
         <f t="shared" ref="J15:J28" si="1">AVERAGE(F15:I15)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>50</v>
@@ -2081,21 +2102,23 @@
       <c r="E16" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7">
+        <v>60</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="6" t="e">
+      <c r="J16" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>52</v>
@@ -2106,21 +2129,23 @@
       <c r="E17" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7">
+        <v>80</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="6" t="e">
+      <c r="J17" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>124</v>
@@ -2129,23 +2154,25 @@
         <v>12018242252</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="F18" s="7"/>
+        <v>167</v>
+      </c>
+      <c r="F18" s="7">
+        <v>74</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="6" t="e">
+      <c r="J18" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>53</v>
@@ -2156,21 +2183,23 @@
       <c r="E19" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="7">
+        <v>87</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="6" t="e">
+      <c r="J19" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>127</v>
@@ -2179,23 +2208,25 @@
         <v>12018242268</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F20" s="7"/>
+        <v>169</v>
+      </c>
+      <c r="F20" s="7">
+        <v>74</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="6" t="e">
+      <c r="J20" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>58</v>
@@ -2206,21 +2237,23 @@
       <c r="E21" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="7">
+        <v>94</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="6" t="e">
+      <c r="J21" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>59</v>
@@ -2231,21 +2264,23 @@
       <c r="E22" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7">
+        <v>67</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="6" t="e">
+      <c r="J22" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>60</v>
@@ -2256,21 +2291,23 @@
       <c r="E23" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="7">
+        <v>94</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="6" t="e">
+      <c r="J23" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>134</v>
@@ -2279,23 +2316,25 @@
         <v>12018242304</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="F24" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="F24" s="7">
+        <v>60</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="6" t="e">
+      <c r="J24" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>136</v>
@@ -2304,23 +2343,25 @@
         <v>12018242307</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F25" s="7"/>
+        <v>176</v>
+      </c>
+      <c r="F25" s="7">
+        <v>94</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="6" t="e">
+      <c r="J25" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>63</v>
@@ -2331,21 +2372,23 @@
       <c r="E26" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="7">
+        <v>80</v>
+      </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="6" t="e">
+      <c r="J26" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>64</v>
@@ -2354,23 +2397,25 @@
         <v>12018242312</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="F27" s="7"/>
+        <v>349</v>
+      </c>
+      <c r="F27" s="7">
+        <v>60</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="6" t="e">
+      <c r="J27" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>65</v>
@@ -2381,21 +2426,23 @@
       <c r="E28" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="7">
+        <v>27</v>
+      </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="6" t="e">
+      <c r="J28" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>66</v>
@@ -2406,21 +2453,23 @@
       <c r="E29" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="7">
+        <v>60</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="6" t="e">
+      <c r="J29" s="6">
         <f t="shared" ref="J29:J50" si="2">AVERAGE(F29:I29)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>67</v>
@@ -2431,21 +2480,23 @@
       <c r="E30" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F30" s="7"/>
+      <c r="F30" s="7">
+        <v>60</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="6" t="e">
+      <c r="J30" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>69</v>
@@ -2456,21 +2507,23 @@
       <c r="E31" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F31" s="7"/>
+      <c r="F31" s="7">
+        <v>60</v>
+      </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="6" t="e">
+      <c r="J31" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>70</v>
@@ -2481,21 +2534,23 @@
       <c r="E32" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7">
+        <v>54</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="6" t="e">
+      <c r="J32" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>140</v>
@@ -2506,21 +2561,23 @@
       <c r="E33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="7">
+        <v>74</v>
+      </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="6" t="e">
+      <c r="J33" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>141</v>
@@ -2529,23 +2586,25 @@
         <v>12018242334</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="F34" s="7"/>
+        <v>350</v>
+      </c>
+      <c r="F34" s="7">
+        <v>74</v>
+      </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="6" t="e">
+      <c r="J34" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>143</v>
@@ -2556,24 +2615,26 @@
       <c r="E35" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="7">
+        <v>0</v>
+      </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="6" t="e">
+      <c r="J35" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>144</v>
+        <v>378</v>
       </c>
       <c r="D36" s="9">
         <v>12018242339</v>
@@ -2581,24 +2642,26 @@
       <c r="E36" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="F36" s="7">
+        <v>94</v>
+      </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="6" t="e">
+      <c r="J36" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D37" s="9">
         <v>12018242341</v>
@@ -2606,21 +2669,23 @@
       <c r="E37" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="7"/>
+      <c r="F37" s="7">
+        <v>94</v>
+      </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="6" t="e">
+      <c r="J37" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>25</v>
@@ -2629,48 +2694,52 @@
         <v>12018242349</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="F38" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="F38" s="7">
+        <v>54</v>
+      </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="6" t="e">
+      <c r="J38" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D39" s="9">
         <v>12018242350</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="F39" s="7"/>
+        <v>351</v>
+      </c>
+      <c r="F39" s="7">
+        <v>87</v>
+      </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="6" t="e">
+      <c r="J39" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>73</v>
@@ -2679,98 +2748,106 @@
         <v>12018242357</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="F40" s="7"/>
+        <v>352</v>
+      </c>
+      <c r="F40" s="7">
+        <v>80</v>
+      </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="6" t="e">
+      <c r="J40" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D41" s="9">
         <v>12018242362</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="F41" s="7"/>
+        <v>185</v>
+      </c>
+      <c r="F41" s="7">
+        <v>74</v>
+      </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="6" t="e">
+      <c r="J41" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D42" s="9">
         <v>12018242363</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="F42" s="7"/>
+        <v>186</v>
+      </c>
+      <c r="F42" s="7">
+        <v>60</v>
+      </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="6" t="e">
+      <c r="J42" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D43" s="9">
         <v>12018242365</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="F43" s="7"/>
+        <v>187</v>
+      </c>
+      <c r="F43" s="7">
+        <v>87</v>
+      </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
-      <c r="J43" s="6" t="e">
+      <c r="J43" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>75</v>
@@ -2781,71 +2858,77 @@
       <c r="E44" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F44" s="7"/>
+      <c r="F44" s="7">
+        <v>80</v>
+      </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
-      <c r="J44" s="6" t="e">
+      <c r="J44" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D45" s="9">
         <v>12018242374</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="F45" s="7"/>
+        <v>189</v>
+      </c>
+      <c r="F45" s="7">
+        <v>87</v>
+      </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
-      <c r="J45" s="6" t="e">
+      <c r="J45" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D46" s="9">
         <v>12018242381</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="F46" s="7"/>
+        <v>190</v>
+      </c>
+      <c r="F46" s="7">
+        <v>87</v>
+      </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
-      <c r="J46" s="6" t="e">
+      <c r="J46" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>77</v>
@@ -2856,21 +2939,23 @@
       <c r="E47" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F47" s="7"/>
+      <c r="F47" s="7">
+        <v>60</v>
+      </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
-      <c r="J47" s="6" t="e">
+      <c r="J47" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>78</v>
@@ -2881,46 +2966,50 @@
       <c r="E48" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F48" s="7"/>
+      <c r="F48" s="7">
+        <v>47</v>
+      </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
-      <c r="J48" s="6" t="e">
+      <c r="J48" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D49" s="9">
         <v>12018243877</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="F49" s="7"/>
+        <v>353</v>
+      </c>
+      <c r="F49" s="7">
+        <v>67</v>
+      </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
-      <c r="J49" s="6" t="e">
+      <c r="J49" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>47</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>80</v>
@@ -2931,18 +3020,20 @@
       <c r="E50" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F50" s="7"/>
+      <c r="F50" s="7">
+        <v>80</v>
+      </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
-      <c r="J50" s="6" t="e">
+      <c r="J50" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J48" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:L44">
+  <autoFilter ref="A2:J50">
+    <sortState ref="A5:L44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -2958,8 +3049,8 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations xWindow="519" yWindow="339" count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2967,27 +3058,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488FA7F9-9F7A-4180-BEDB-684F5DC61CD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="9" width="11.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="4" customWidth="1"/>
-    <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -2996,14 +3087,14 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -3020,29 +3111,29 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="14"/>
       <c r="E3" s="17"/>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
+      <c r="F3" s="3">
+        <v>47016</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>12</v>
@@ -3055,40 +3146,42 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D4" s="9">
         <v>12018241690</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="F4" s="7"/>
+        <v>264</v>
+      </c>
+      <c r="F4" s="7">
+        <v>67</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="6" t="e">
+      <c r="J4" s="6">
         <f>AVERAGE(F4:I4)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D5" s="9">
         <v>12018242201</v>
@@ -3096,149 +3189,161 @@
       <c r="E5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7">
+        <v>74</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="6" t="e">
+      <c r="J5" s="6">
         <f>AVERAGE(F5:I5)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D6" s="9">
         <v>12018242205</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="F6" s="7"/>
+        <v>261</v>
+      </c>
+      <c r="F6" s="7">
+        <v>54</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="6" t="e">
+      <c r="J6" s="6">
         <f>AVERAGE(F6:I6)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D7" s="9">
         <v>12018242207</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="F7" s="7"/>
+        <v>309</v>
+      </c>
+      <c r="F7" s="7">
+        <v>67</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="6" t="e">
+      <c r="J7" s="6">
         <f>AVERAGE(F7:I7)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D8" s="9">
         <v>12018242208</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="F8" s="7"/>
+        <v>310</v>
+      </c>
+      <c r="F8" s="7">
+        <v>80</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="6" t="e">
+      <c r="J8" s="6">
         <f>AVERAGE(F8,G8)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D9" s="9">
         <v>12018242217</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="F9" s="7"/>
+        <v>311</v>
+      </c>
+      <c r="F9" s="7">
+        <v>67</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="6" t="e">
+      <c r="J9" s="6">
         <f>AVERAGE(F9:I9)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D10" s="9">
         <v>12018242226</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="F10" s="7"/>
+        <v>236</v>
+      </c>
+      <c r="F10" s="7">
+        <v>60</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="6" t="e">
+      <c r="J10" s="6">
         <f>AVERAGE(F10:I10)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D11" s="9">
         <v>12018242231</v>
@@ -3246,124 +3351,134 @@
       <c r="E11" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7">
+        <v>80</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="6" t="e">
+      <c r="J11" s="6">
         <f>AVERAGE(F11:I11)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D12" s="9">
         <v>12018242232</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="F12" s="7"/>
+        <v>314</v>
+      </c>
+      <c r="F12" s="7">
+        <v>67</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="6" t="e">
+      <c r="J12" s="6">
         <f>AVERAGE(F12:I12)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D13" s="9">
         <v>12018242246</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="F13" s="7"/>
+        <v>356</v>
+      </c>
+      <c r="F13" s="7">
+        <v>80</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="6" t="e">
+      <c r="J13" s="6">
         <f t="shared" ref="J13:J50" si="0">AVERAGE(F13:I13)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D14" s="9">
         <v>12018242249</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="F14" s="7"/>
+        <v>315</v>
+      </c>
+      <c r="F14" s="7">
+        <v>80</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J14" s="6">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D15" s="9">
         <v>12018242251</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="F15" s="7"/>
+        <v>239</v>
+      </c>
+      <c r="F15" s="7">
+        <v>74</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J15" s="6">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D16" s="9">
         <v>12018242255</v>
@@ -3371,49 +3486,53 @@
       <c r="E16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7">
+        <v>54</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J16" s="6">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D17" s="9">
         <v>12018242256</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="F17" s="7"/>
+        <v>241</v>
+      </c>
+      <c r="F17" s="7">
+        <v>47</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J17" s="6">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D18" s="9">
         <v>12018242258</v>
@@ -3421,46 +3540,50 @@
       <c r="E18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7">
+        <v>94</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J18" s="6">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D19" s="9">
         <v>12018242260</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="F19" s="7"/>
+        <v>357</v>
+      </c>
+      <c r="F19" s="7">
+        <v>80</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J19" s="6">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>6</v>
@@ -3471,49 +3594,53 @@
       <c r="E20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="7">
+        <v>40</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J20" s="6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D21" s="9">
         <v>12018242266</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="F21" s="7"/>
+        <v>316</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J21" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D22" s="9">
         <v>12018242267</v>
@@ -3521,24 +3648,26 @@
       <c r="E22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7">
+        <v>54</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J22" s="6">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D23" s="9">
         <v>12018242271</v>
@@ -3546,149 +3675,161 @@
       <c r="E23" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="7">
+        <v>40</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J23" s="6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D24" s="9">
         <v>12018242277</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="F24" s="7"/>
+        <v>244</v>
+      </c>
+      <c r="F24" s="7">
+        <v>94</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J24" s="6">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D25" s="9">
         <v>12018242281</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="F25" s="7"/>
+        <v>245</v>
+      </c>
+      <c r="F25" s="7">
+        <v>27</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J25" s="6">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D26" s="9">
         <v>12018242296</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="F26" s="7"/>
+        <v>320</v>
+      </c>
+      <c r="F26" s="7">
+        <v>47</v>
+      </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J26" s="6">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D27" s="9">
         <v>12018242297</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F27" s="7"/>
+        <v>182</v>
+      </c>
+      <c r="F27" s="7">
+        <v>54</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J27" s="6">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D28" s="9">
         <v>12018242298</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="F28" s="7"/>
+        <v>321</v>
+      </c>
+      <c r="F28" s="7">
+        <v>94</v>
+      </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J28" s="6">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D29" s="9">
         <v>12018242313</v>
@@ -3696,71 +3837,77 @@
       <c r="E29" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="7">
+        <v>47</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J29" s="6">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D30" s="9">
         <v>12018242323</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="F30" s="7"/>
+        <v>325</v>
+      </c>
+      <c r="F30" s="7">
+        <v>54</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J30" s="6">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D31" s="9">
         <v>12018242325</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="F31" s="7"/>
+        <v>326</v>
+      </c>
+      <c r="F31" s="7">
+        <v>67</v>
+      </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J31" s="6">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>13</v>
@@ -3769,151 +3916,163 @@
         <v>12018242328</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="F32" s="7"/>
+        <v>263</v>
+      </c>
+      <c r="F32" s="7">
+        <v>67</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J32" s="6">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D33" s="9">
         <v>12018242330</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F33" s="7"/>
+        <v>250</v>
+      </c>
+      <c r="F33" s="7">
+        <v>40</v>
+      </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J33" s="6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D34" s="9">
         <v>12018242333</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="F34" s="7"/>
+        <v>328</v>
+      </c>
+      <c r="F34" s="7">
+        <v>94</v>
+      </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J34" s="6">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D35" s="9">
         <v>12018242338</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="F35" s="7"/>
+        <v>329</v>
+      </c>
+      <c r="F35" s="7">
+        <v>74</v>
+      </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J35" s="6">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D36" s="9">
         <v>12018242347</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="F36" s="7"/>
+        <v>254</v>
+      </c>
+      <c r="F36" s="7">
+        <v>54</v>
+      </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J36" s="6">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D37" s="9">
         <v>12018242348</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="F37" s="7"/>
+        <v>255</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0</v>
+      </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J37" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D38" s="9">
         <v>12018242351</v>
@@ -3921,24 +4080,26 @@
       <c r="E38" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F38" s="7"/>
+      <c r="F38" s="7">
+        <v>54</v>
+      </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J38" s="6">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D39" s="9">
         <v>12018242360</v>
@@ -3946,124 +4107,134 @@
       <c r="E39" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F39" s="7"/>
+      <c r="F39" s="7">
+        <v>80</v>
+      </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J39" s="6">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D40" s="9">
         <v>12018242366</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="F40" s="7"/>
+        <v>259</v>
+      </c>
+      <c r="F40" s="7">
+        <v>94</v>
+      </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J40" s="6">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D41" s="9">
         <v>12018242375</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="F41" s="7"/>
+        <v>358</v>
+      </c>
+      <c r="F41" s="7">
+        <v>47</v>
+      </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J41" s="6">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D42" s="9">
         <v>12018242377</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="F42" s="7"/>
+        <v>334</v>
+      </c>
+      <c r="F42" s="7">
+        <v>94</v>
+      </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J42" s="6">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D43" s="9">
         <v>12018243351</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="F43" s="7"/>
+        <v>337</v>
+      </c>
+      <c r="F43" s="7">
+        <v>94</v>
+      </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
-      <c r="J43" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J43" s="6">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D44" s="9">
         <v>12018243476</v>
@@ -4071,99 +4242,107 @@
       <c r="E44" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="7"/>
+      <c r="F44" s="7">
+        <v>74</v>
+      </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
-      <c r="J44" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J44" s="6">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D45" s="9">
         <v>12018243578</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="F45" s="7"/>
+        <v>336</v>
+      </c>
+      <c r="F45" s="7">
+        <v>80</v>
+      </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
-      <c r="J45" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J45" s="6">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D46" s="9">
         <v>12018243864</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="F46" s="7"/>
+        <v>265</v>
+      </c>
+      <c r="F46" s="7">
+        <v>54</v>
+      </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
-      <c r="J46" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J46" s="6">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D47" s="9">
         <v>12018244410</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="F47" s="7"/>
+        <v>335</v>
+      </c>
+      <c r="F47" s="7">
+        <v>67</v>
+      </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
-      <c r="J47" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J47" s="6">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>310</v>
+        <v>379</v>
       </c>
       <c r="D48" s="9">
         <v>12018247887</v>
@@ -4171,93 +4350,101 @@
       <c r="E48" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F48" s="7"/>
+      <c r="F48" s="7">
+        <v>0</v>
+      </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
-      <c r="J48" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J48" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D49" s="9">
         <v>12018247890</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="F49" s="7"/>
+        <v>266</v>
+      </c>
+      <c r="F49" s="7">
+        <v>54</v>
+      </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
-      <c r="J49" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J49" s="6">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>47</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D50" s="9">
         <v>12018250064</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="F50" s="7"/>
+        <v>359</v>
+      </c>
+      <c r="F50" s="7">
+        <v>80</v>
+      </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
-      <c r="J50" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J50" s="6">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>48</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D51" s="9">
         <v>12015242813</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="F51" s="7"/>
+        <v>377</v>
+      </c>
+      <c r="F51" s="7">
+        <v>54</v>
+      </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
-      <c r="J51" s="6" t="e">
+      <c r="J51" s="6">
         <f t="shared" ref="J51" si="1">AVERAGE(F51:I51)</f>
-        <v>#DIV/0!</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J48" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:L44">
+  <autoFilter ref="A2:J51">
+    <sortState ref="A5:L44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -4273,8 +4460,8 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3" xr:uid="{81C00A40-4F2D-4136-BF81-A1B2E8DFE4A3}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2" xr:uid="{DE98AF91-576A-42A1-8A5B-99C85F357990}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4282,27 +4469,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DDB66F-D270-42E2-B6F1-6326C25DE7DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="4" customWidth="1"/>
-    <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -4311,14 +4498,14 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -4335,22 +4522,22 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -4370,15 +4557,15 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D4" s="9">
         <v>12014244255</v>
@@ -4397,12 +4584,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>115</v>
@@ -4411,7 +4598,7 @@
         <v>12018242212</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F5" s="7">
         <v>8</v>
@@ -4424,12 +4611,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>40</v>
@@ -4451,21 +4638,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D7" s="9">
         <v>12018242214</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F7" s="7">
         <v>10</v>
@@ -4478,21 +4665,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D8" s="9">
         <v>12018242215</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F8" s="7">
         <v>10</v>
@@ -4505,12 +4692,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>116</v>
@@ -4519,7 +4706,7 @@
         <v>12018242216</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F9" s="7">
         <v>10</v>
@@ -4532,21 +4719,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D10" s="9">
         <v>12018242220</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F10" s="7">
         <v>9</v>
@@ -4559,12 +4746,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>43</v>
@@ -4586,12 +4773,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>45</v>
@@ -4613,21 +4800,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D13" s="9">
         <v>12018242230</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F13" s="7">
         <v>10</v>
@@ -4640,21 +4827,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D14" s="9">
         <v>12018242233</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F14" s="7">
         <v>10</v>
@@ -4667,21 +4854,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D15" s="9">
         <v>12018242253</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F15" s="7">
         <v>8</v>
@@ -4694,21 +4881,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D16" s="9">
         <v>12018242261</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F16" s="7">
         <v>9</v>
@@ -4721,12 +4908,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>54</v>
@@ -4748,12 +4935,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>55</v>
@@ -4775,21 +4962,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D19" s="9">
         <v>12018242270</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F19" s="7">
         <v>9</v>
@@ -4802,21 +4989,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D20" s="9">
         <v>12018242274</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7">
         <v>10</v>
@@ -4829,12 +5016,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>129</v>
@@ -4843,7 +5030,7 @@
         <v>12018242276</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F21" s="7">
         <v>9</v>
@@ -4856,21 +5043,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D22" s="9">
         <v>12018242278</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F22" s="7">
         <v>10</v>
@@ -4883,15 +5070,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D23" s="9">
         <v>12018242284</v>
@@ -4910,12 +5097,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>131</v>
@@ -4924,7 +5111,7 @@
         <v>12018242287</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F24" s="7">
         <v>10</v>
@@ -4937,12 +5124,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>61</v>
@@ -4964,12 +5151,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>62</v>
@@ -4991,12 +5178,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>133</v>
@@ -5018,21 +5205,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D28" s="9">
         <v>12018242308</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F28" s="7">
         <v>9</v>
@@ -5045,12 +5232,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>137</v>
@@ -5059,7 +5246,7 @@
         <v>12018242310</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F29" s="7">
         <v>10</v>
@@ -5072,21 +5259,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D30" s="9">
         <v>12018242311</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F30" s="7">
         <v>8</v>
@@ -5099,12 +5286,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>68</v>
@@ -5126,12 +5313,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>71</v>
@@ -5153,21 +5340,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D33" s="9">
         <v>12018242329</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F33" s="7">
         <v>9</v>
@@ -5180,21 +5367,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D34" s="9">
         <v>12018242335</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F34" s="7">
         <v>10</v>
@@ -5207,21 +5394,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D35" s="9">
         <v>12018242340</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F35" s="7">
         <v>10</v>
@@ -5234,15 +5421,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D36" s="9">
         <v>12018242342</v>
@@ -5261,21 +5448,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D37" s="9">
         <v>12018242343</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F37" s="7">
         <v>10</v>
@@ -5288,21 +5475,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D38" s="9">
         <v>12018242353</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F38" s="7">
         <v>9</v>
@@ -5315,21 +5502,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D39" s="9">
         <v>12018242354</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F39" s="7">
         <v>10</v>
@@ -5342,21 +5529,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D40" s="9">
         <v>12018242356</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F40" s="7">
         <v>8</v>
@@ -5369,21 +5556,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D41" s="9">
         <v>12018242359</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F41" s="7">
         <v>8</v>
@@ -5396,12 +5583,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>74</v>
@@ -5423,15 +5610,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D43" s="9">
         <v>12018242367</v>
@@ -5450,12 +5637,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>76</v>
@@ -5464,7 +5651,7 @@
         <v>12018242370</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F44" s="7">
         <v>8</v>
@@ -5477,21 +5664,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D45" s="9">
         <v>12018242371</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F45" s="7">
         <v>10</v>
@@ -5504,21 +5691,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D46" s="9">
         <v>12018242372</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F46" s="7">
         <v>10</v>
@@ -5531,21 +5718,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D47" s="9">
         <v>12018242373</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F47" s="7">
         <v>10</v>
@@ -5558,15 +5745,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D48" s="9">
         <v>12018242380</v>
@@ -5585,21 +5772,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D49" s="9">
         <v>12018242827</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F49" s="7">
         <v>7</v>
@@ -5612,21 +5799,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>47</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D50" s="9">
         <v>12018243559</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F50" s="7">
         <v>10</v>
@@ -5639,12 +5826,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>48</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>79</v>
@@ -5667,8 +5854,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J48" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:L44">
+  <autoFilter ref="A2:J48">
+    <sortState ref="A5:L44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -5684,8 +5871,8 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2" xr:uid="{BE99A159-1EF3-4BB4-B0E6-731B59428136}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3" xr:uid="{91DCA2A1-A619-4D6E-9057-C193606F5535}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5693,27 +5880,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71A6A0A-D35A-46D3-AE05-F9914FF9FBE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="4" customWidth="1"/>
-    <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -5722,14 +5909,14 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -5746,22 +5933,22 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -5781,12 +5968,12 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>37</v>
@@ -5808,12 +5995,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>38</v>
@@ -5835,12 +6022,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>39</v>
@@ -5862,12 +6049,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>117</v>
@@ -5876,7 +6063,7 @@
         <v>12018242218</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7">
         <v>9</v>
@@ -5889,12 +6076,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>41</v>
@@ -5903,7 +6090,7 @@
         <v>12018242222</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F8" s="7">
         <v>8</v>
@@ -5916,21 +6103,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D9" s="9">
         <v>12018242225</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F9" s="7">
         <v>9</v>
@@ -5943,12 +6130,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>120</v>
@@ -5957,7 +6144,7 @@
         <v>12018242227</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F10" s="7">
         <v>9</v>
@@ -5970,12 +6157,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>44</v>
@@ -5984,7 +6171,7 @@
         <v>12018242228</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F11" s="7">
         <v>7</v>
@@ -5997,21 +6184,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D12" s="9">
         <v>12018242234</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F12" s="7">
         <v>9</v>
@@ -6024,12 +6211,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>47</v>
@@ -6051,12 +6238,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>48</v>
@@ -6078,12 +6265,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>49</v>
@@ -6105,12 +6292,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>26</v>
@@ -6119,7 +6306,7 @@
         <v>12018242242</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7">
         <v>6</v>
@@ -6132,15 +6319,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D17" s="9">
         <v>12018242244</v>
@@ -6159,12 +6346,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>123</v>
@@ -6173,7 +6360,7 @@
         <v>12018242245</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F18" s="7">
         <v>9</v>
@@ -6186,12 +6373,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>51</v>
@@ -6213,21 +6400,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D20" s="9">
         <v>12018242250</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F20" s="7">
         <v>8</v>
@@ -6240,12 +6427,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>125</v>
@@ -6254,7 +6441,7 @@
         <v>12018242259</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F21" s="7">
         <v>9</v>
@@ -6267,12 +6454,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>126</v>
@@ -6294,12 +6481,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>56</v>
@@ -6321,12 +6508,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>128</v>
@@ -6335,7 +6522,7 @@
         <v>12018242275</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F24" s="7">
         <v>9</v>
@@ -6348,15 +6535,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D25" s="9">
         <v>12018242279</v>
@@ -6375,12 +6562,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>57</v>
@@ -6402,12 +6589,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>130</v>
@@ -6429,21 +6616,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D28" s="9">
         <v>12018242285</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F28" s="7">
         <v>8</v>
@@ -6456,21 +6643,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D29" s="9">
         <v>12018242286</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F29" s="7">
         <v>9</v>
@@ -6483,15 +6670,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D30" s="9">
         <v>12018242289</v>
@@ -6510,21 +6697,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D31" s="9">
         <v>12018242290</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F31" s="7">
         <v>10</v>
@@ -6537,12 +6724,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>132</v>
@@ -6551,7 +6738,7 @@
         <v>12018242293</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F32" s="7">
         <v>6</v>
@@ -6564,21 +6751,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D33" s="9">
         <v>12018242294</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F33" s="7">
         <v>9</v>
@@ -6591,21 +6778,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D34" s="9">
         <v>12018242300</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F34" s="7">
         <v>8</v>
@@ -6618,12 +6805,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>135</v>
@@ -6632,7 +6819,7 @@
         <v>12018242305</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F35" s="7">
         <v>8</v>
@@ -6645,21 +6832,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D36" s="9">
         <v>12018242306</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F36" s="7">
         <v>10</v>
@@ -6672,12 +6859,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>138</v>
@@ -6686,7 +6873,7 @@
         <v>12018242314</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F37" s="7">
         <v>9</v>
@@ -6699,21 +6886,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D38" s="9">
         <v>12018242317</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F38" s="7">
         <v>9</v>
@@ -6726,21 +6913,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D39" s="9">
         <v>12018242319</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F39" s="7">
         <v>9</v>
@@ -6753,12 +6940,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>139</v>
@@ -6780,21 +6967,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D41" s="9">
         <v>12018242322</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F41" s="7">
         <v>6</v>
@@ -6807,21 +6994,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D42" s="9">
         <v>12018242331</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F42" s="7">
         <v>8</v>
@@ -6834,12 +7021,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>142</v>
@@ -6848,7 +7035,7 @@
         <v>12018242336</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F43" s="7">
         <v>8</v>
@@ -6861,21 +7048,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D44" s="9">
         <v>12018242344</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F44" s="7">
         <v>9</v>
@@ -6888,12 +7075,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>72</v>
@@ -6915,21 +7102,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D46" s="9">
         <v>12018242346</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F46" s="7">
         <v>8</v>
@@ -6942,15 +7129,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="9">
         <v>12018242352</v>
@@ -6969,21 +7156,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D48" s="9">
         <v>12018242355</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F48" s="7">
         <v>9</v>
@@ -6996,21 +7183,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="9">
         <v>12018242358</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F49" s="7">
         <v>7</v>
@@ -7023,21 +7210,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>47</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D50" s="9">
         <v>12018242364</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F50" s="7">
         <v>9</v>
@@ -7050,21 +7237,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>48</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D51" s="9">
         <v>12018242369</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F51" s="7">
         <v>9</v>
@@ -7078,8 +7265,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J48" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:L44">
+  <autoFilter ref="A2:J48">
+    <sortState ref="A5:L44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -7095,8 +7282,8 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3" xr:uid="{72437432-EAB7-41A1-8A3D-F4D1EF05A484}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2" xr:uid="{CE85343B-4101-49A3-B993-D9A56BA44C5E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
+++ b/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\Class Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAC2587-697D-4C17-AAC1-8914A72A7395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7BB4F1-950F-4C32-8C2C-AB1D02590E6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="20490" windowHeight="10125" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="381">
   <si>
     <t>No</t>
   </si>
@@ -4478,7 +4478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
@@ -5889,8 +5889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="B31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5963,8 +5963,8 @@
       <c r="F3" s="3">
         <v>44096</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
+      <c r="G3" s="3">
+        <v>44131</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>12</v>
@@ -5993,12 +5993,14 @@
       <c r="F4" s="7">
         <v>80</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7">
+        <v>87</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="6">
         <f>AVERAGE(F4:I4)</f>
-        <v>80</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6020,12 +6022,14 @@
       <c r="F5" s="7">
         <v>70</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7">
+        <v>69</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="6">
         <f>AVERAGE(F5:I5)</f>
-        <v>70</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6047,12 +6051,14 @@
       <c r="F6" s="7">
         <v>80</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <v>69</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="6">
         <f>AVERAGE(F6:I6)</f>
-        <v>80</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6074,12 +6080,14 @@
       <c r="F7" s="7">
         <v>90</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7">
+        <v>80</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="6">
         <f>AVERAGE(F7:I7)</f>
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6101,7 +6109,9 @@
       <c r="F8" s="7">
         <v>80</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7">
+        <v>80</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="6">
@@ -6128,12 +6138,14 @@
       <c r="F9" s="7">
         <v>90</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7">
+        <v>87</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="6">
         <f>AVERAGE(F9:I9)</f>
-        <v>90</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6155,12 +6167,14 @@
       <c r="F10" s="7">
         <v>90</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7">
+        <v>69</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="6">
         <f>AVERAGE(F10:I10)</f>
-        <v>90</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6182,12 +6196,14 @@
       <c r="F11" s="7">
         <v>70</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7">
+        <v>69</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="6">
         <f>AVERAGE(F11:I11)</f>
-        <v>70</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6209,12 +6225,14 @@
       <c r="F12" s="7">
         <v>90</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7">
+        <v>80</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="6">
         <f>AVERAGE(F12:I12)</f>
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6236,12 +6254,14 @@
       <c r="F13" s="7">
         <v>80</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7">
+        <v>69</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="6">
         <f t="shared" ref="J13:J51" si="0">AVERAGE(F13:I13)</f>
-        <v>80</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6263,12 +6283,14 @@
       <c r="F14" s="7">
         <v>70</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7">
+        <v>87</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="6">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6290,12 +6312,14 @@
       <c r="F15" s="7">
         <v>100</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7">
+        <v>69</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6317,12 +6341,14 @@
       <c r="F16" s="7">
         <v>60</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7">
+        <v>87</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="6">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6344,12 +6370,14 @@
       <c r="F17" s="7">
         <v>70</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="7">
+        <v>80</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="6">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6371,12 +6399,14 @@
       <c r="F18" s="7">
         <v>90</v>
       </c>
-      <c r="G18" s="7"/>
+      <c r="G18" s="7">
+        <v>93</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6398,12 +6428,14 @@
       <c r="F19" s="7">
         <v>80</v>
       </c>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7">
+        <v>69</v>
+      </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="6">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6425,12 +6457,14 @@
       <c r="F20" s="7">
         <v>80</v>
       </c>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7">
+        <v>75</v>
+      </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="6">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6452,12 +6486,14 @@
       <c r="F21" s="7">
         <v>90</v>
       </c>
-      <c r="G21" s="7"/>
+      <c r="G21" s="7">
+        <v>87</v>
+      </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6479,12 +6515,14 @@
       <c r="F22" s="7">
         <v>90</v>
       </c>
-      <c r="G22" s="7"/>
+      <c r="G22" s="7">
+        <v>87</v>
+      </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6506,12 +6544,14 @@
       <c r="F23" s="7">
         <v>70</v>
       </c>
-      <c r="G23" s="7"/>
+      <c r="G23" s="7">
+        <v>87</v>
+      </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="6">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6533,12 +6573,14 @@
       <c r="F24" s="7">
         <v>90</v>
       </c>
-      <c r="G24" s="7"/>
+      <c r="G24" s="7">
+        <v>93</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6560,12 +6602,14 @@
       <c r="F25" s="7">
         <v>90</v>
       </c>
-      <c r="G25" s="7"/>
+      <c r="G25" s="7">
+        <v>87</v>
+      </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6587,12 +6631,14 @@
       <c r="F26" s="7">
         <v>80</v>
       </c>
-      <c r="G26" s="7"/>
+      <c r="G26" s="7">
+        <v>87</v>
+      </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="6">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6614,12 +6660,14 @@
       <c r="F27" s="7">
         <v>90</v>
       </c>
-      <c r="G27" s="7"/>
+      <c r="G27" s="7">
+        <v>80</v>
+      </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6641,7 +6689,9 @@
       <c r="F28" s="7">
         <v>80</v>
       </c>
-      <c r="G28" s="7"/>
+      <c r="G28" s="7">
+        <v>80</v>
+      </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="6">
@@ -6668,12 +6718,14 @@
       <c r="F29" s="7">
         <v>90</v>
       </c>
-      <c r="G29" s="7"/>
+      <c r="G29" s="7">
+        <v>87</v>
+      </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6695,12 +6747,14 @@
       <c r="F30" s="7">
         <v>90</v>
       </c>
-      <c r="G30" s="7"/>
+      <c r="G30" s="7">
+        <v>87</v>
+      </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6722,12 +6776,14 @@
       <c r="F31" s="7">
         <v>100</v>
       </c>
-      <c r="G31" s="7"/>
+      <c r="G31" s="7">
+        <v>87</v>
+      </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6749,12 +6805,14 @@
       <c r="F32" s="7">
         <v>60</v>
       </c>
-      <c r="G32" s="7"/>
+      <c r="G32" s="7">
+        <v>56</v>
+      </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="6">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6776,12 +6834,14 @@
       <c r="F33" s="7">
         <v>90</v>
       </c>
-      <c r="G33" s="7"/>
+      <c r="G33" s="7">
+        <v>87</v>
+      </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6803,7 +6863,9 @@
       <c r="F34" s="7">
         <v>80</v>
       </c>
-      <c r="G34" s="7"/>
+      <c r="G34" s="7">
+        <v>80</v>
+      </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="6">
@@ -6830,12 +6892,14 @@
       <c r="F35" s="7">
         <v>80</v>
       </c>
-      <c r="G35" s="7"/>
+      <c r="G35" s="7">
+        <v>62</v>
+      </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="6">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6857,12 +6921,14 @@
       <c r="F36" s="7">
         <v>100</v>
       </c>
-      <c r="G36" s="7"/>
+      <c r="G36" s="7">
+        <v>75</v>
+      </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6884,12 +6950,14 @@
       <c r="F37" s="7">
         <v>90</v>
       </c>
-      <c r="G37" s="7"/>
+      <c r="G37" s="7">
+        <v>93</v>
+      </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6911,12 +6979,14 @@
       <c r="F38" s="7">
         <v>90</v>
       </c>
-      <c r="G38" s="7"/>
+      <c r="G38" s="7">
+        <v>75</v>
+      </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6938,12 +7008,14 @@
       <c r="F39" s="7">
         <v>90</v>
       </c>
-      <c r="G39" s="7"/>
+      <c r="G39" s="7">
+        <v>87</v>
+      </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6965,12 +7037,14 @@
       <c r="F40" s="7">
         <v>80</v>
       </c>
-      <c r="G40" s="7"/>
+      <c r="G40" s="7">
+        <v>62</v>
+      </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="6">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6992,12 +7066,14 @@
       <c r="F41" s="7">
         <v>60</v>
       </c>
-      <c r="G41" s="7"/>
+      <c r="G41" s="7">
+        <v>87</v>
+      </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="6">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7019,12 +7095,14 @@
       <c r="F42" s="7">
         <v>80</v>
       </c>
-      <c r="G42" s="7"/>
+      <c r="G42" s="7">
+        <v>75</v>
+      </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="6">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7046,12 +7124,14 @@
       <c r="F43" s="7">
         <v>80</v>
       </c>
-      <c r="G43" s="7"/>
+      <c r="G43" s="7">
+        <v>93</v>
+      </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="6">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7073,12 +7153,14 @@
       <c r="F44" s="7">
         <v>90</v>
       </c>
-      <c r="G44" s="7"/>
+      <c r="G44" s="7">
+        <v>56</v>
+      </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7100,12 +7182,14 @@
       <c r="F45" s="7">
         <v>70</v>
       </c>
-      <c r="G45" s="7"/>
+      <c r="G45" s="7">
+        <v>75</v>
+      </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="6">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7127,12 +7211,14 @@
       <c r="F46" s="7">
         <v>80</v>
       </c>
-      <c r="G46" s="7"/>
+      <c r="G46" s="7">
+        <v>87</v>
+      </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="6">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7154,12 +7240,14 @@
       <c r="F47" s="7">
         <v>90</v>
       </c>
-      <c r="G47" s="7"/>
+      <c r="G47" s="7">
+        <v>62</v>
+      </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7181,12 +7269,14 @@
       <c r="F48" s="7">
         <v>90</v>
       </c>
-      <c r="G48" s="7"/>
+      <c r="G48" s="7">
+        <v>87</v>
+      </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7208,12 +7298,14 @@
       <c r="F49" s="7">
         <v>70</v>
       </c>
-      <c r="G49" s="7"/>
+      <c r="G49" s="7">
+        <v>80</v>
+      </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="6">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7235,12 +7327,14 @@
       <c r="F50" s="7">
         <v>90</v>
       </c>
-      <c r="G50" s="7"/>
+      <c r="G50" s="7">
+        <v>87</v>
+      </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7262,12 +7356,14 @@
       <c r="F51" s="7">
         <v>90</v>
       </c>
-      <c r="G51" s="7"/>
+      <c r="G51" s="7">
+        <v>80</v>
+      </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
+++ b/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\Class Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7BB4F1-950F-4C32-8C2C-AB1D02590E6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E574715-F9F1-4348-AAC6-6065DE310D6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="20490" windowHeight="10125" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="12435" windowHeight="10125" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="381">
   <si>
     <t>No</t>
   </si>
@@ -4478,8 +4478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4552,8 +4552,8 @@
       <c r="F3" s="3">
         <v>44096</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
+      <c r="G3" s="3">
+        <v>44131</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>12</v>
@@ -4582,12 +4582,14 @@
       <c r="F4" s="7">
         <v>0</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7">
+        <v>60</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="6">
         <f>AVERAGE(F4:I4)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4609,12 +4611,14 @@
       <c r="F5" s="7">
         <v>80</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7">
+        <v>73</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="6">
         <f>AVERAGE(F5:I5)</f>
-        <v>80</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4636,12 +4640,14 @@
       <c r="F6" s="7">
         <v>80</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <v>73</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="6">
         <f>AVERAGE(F6:I6)</f>
-        <v>80</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4663,12 +4669,14 @@
       <c r="F7" s="7">
         <v>100</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7">
+        <v>73</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="6">
         <f>AVERAGE(F7:I7)</f>
-        <v>100</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4690,12 +4698,14 @@
       <c r="F8" s="7">
         <v>100</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7">
+        <v>60</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="6">
         <f>AVERAGE(F8,G8)</f>
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4717,12 +4727,14 @@
       <c r="F9" s="7">
         <v>100</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7">
+        <v>80</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="6">
         <f>AVERAGE(F9:I9)</f>
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4744,12 +4756,14 @@
       <c r="F10" s="7">
         <v>90</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7">
+        <v>87</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="6">
         <f>AVERAGE(F10:I10)</f>
-        <v>90</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4771,12 +4785,14 @@
       <c r="F11" s="7">
         <v>90</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7">
+        <v>87</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="6">
         <f>AVERAGE(F11:I11)</f>
-        <v>90</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4798,12 +4814,14 @@
       <c r="F12" s="7">
         <v>90</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7">
+        <v>80</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="6">
         <f>AVERAGE(F12:I12)</f>
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4825,12 +4843,14 @@
       <c r="F13" s="7">
         <v>100</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7">
+        <v>57</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="6">
         <f t="shared" ref="J13:J50" si="0">AVERAGE(F13:I13)</f>
-        <v>100</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4852,12 +4872,14 @@
       <c r="F14" s="7">
         <v>100</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7">
+        <v>87</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4879,12 +4901,14 @@
       <c r="F15" s="7">
         <v>80</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7">
+        <v>87</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="6">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4906,12 +4930,14 @@
       <c r="F16" s="7">
         <v>90</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7">
+        <v>87</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4933,12 +4959,14 @@
       <c r="F17" s="7">
         <v>80</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="7">
+        <v>93</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="6">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4960,12 +4988,14 @@
       <c r="F18" s="7">
         <v>90</v>
       </c>
-      <c r="G18" s="7"/>
+      <c r="G18" s="7">
+        <v>87</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4987,12 +5017,14 @@
       <c r="F19" s="7">
         <v>90</v>
       </c>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7">
+        <v>73</v>
+      </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5014,12 +5046,14 @@
       <c r="F20" s="7">
         <v>100</v>
       </c>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7">
+        <v>80</v>
+      </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5041,12 +5075,14 @@
       <c r="F21" s="7">
         <v>90</v>
       </c>
-      <c r="G21" s="7"/>
+      <c r="G21" s="7">
+        <v>80</v>
+      </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5068,12 +5104,14 @@
       <c r="F22" s="7">
         <v>100</v>
       </c>
-      <c r="G22" s="7"/>
+      <c r="G22" s="7">
+        <v>80</v>
+      </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5095,12 +5133,14 @@
       <c r="F23" s="7">
         <v>90</v>
       </c>
-      <c r="G23" s="7"/>
+      <c r="G23" s="7">
+        <v>87</v>
+      </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5122,12 +5162,14 @@
       <c r="F24" s="7">
         <v>100</v>
       </c>
-      <c r="G24" s="7"/>
+      <c r="G24" s="7">
+        <v>87</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5149,12 +5191,14 @@
       <c r="F25" s="7">
         <v>90</v>
       </c>
-      <c r="G25" s="7"/>
+      <c r="G25" s="7">
+        <v>87</v>
+      </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5176,12 +5220,14 @@
       <c r="F26" s="7">
         <v>100</v>
       </c>
-      <c r="G26" s="7"/>
+      <c r="G26" s="7">
+        <v>80</v>
+      </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5203,12 +5249,14 @@
       <c r="F27" s="7">
         <v>100</v>
       </c>
-      <c r="G27" s="7"/>
+      <c r="G27" s="7">
+        <v>87</v>
+      </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5230,12 +5278,14 @@
       <c r="F28" s="7">
         <v>90</v>
       </c>
-      <c r="G28" s="7"/>
+      <c r="G28" s="7">
+        <v>87</v>
+      </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5257,12 +5307,14 @@
       <c r="F29" s="7">
         <v>100</v>
       </c>
-      <c r="G29" s="7"/>
+      <c r="G29" s="7">
+        <v>93</v>
+      </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5284,7 +5336,9 @@
       <c r="F30" s="7">
         <v>80</v>
       </c>
-      <c r="G30" s="7"/>
+      <c r="G30" s="7">
+        <v>80</v>
+      </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="6">
@@ -5311,12 +5365,14 @@
       <c r="F31" s="7">
         <v>90</v>
       </c>
-      <c r="G31" s="7"/>
+      <c r="G31" s="7">
+        <v>87</v>
+      </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5338,12 +5394,14 @@
       <c r="F32" s="7">
         <v>80</v>
       </c>
-      <c r="G32" s="7"/>
+      <c r="G32" s="7">
+        <v>60</v>
+      </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="6">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5365,12 +5423,14 @@
       <c r="F33" s="7">
         <v>90</v>
       </c>
-      <c r="G33" s="7"/>
+      <c r="G33" s="7">
+        <v>87</v>
+      </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5392,12 +5452,14 @@
       <c r="F34" s="7">
         <v>100</v>
       </c>
-      <c r="G34" s="7"/>
+      <c r="G34" s="7">
+        <v>87</v>
+      </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5419,12 +5481,14 @@
       <c r="F35" s="7">
         <v>100</v>
       </c>
-      <c r="G35" s="7"/>
+      <c r="G35" s="7">
+        <v>67</v>
+      </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5446,12 +5510,14 @@
       <c r="F36" s="7">
         <v>90</v>
       </c>
-      <c r="G36" s="7"/>
+      <c r="G36" s="7">
+        <v>87</v>
+      </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5473,12 +5539,14 @@
       <c r="F37" s="7">
         <v>100</v>
       </c>
-      <c r="G37" s="7"/>
+      <c r="G37" s="7">
+        <v>73</v>
+      </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5500,12 +5568,14 @@
       <c r="F38" s="7">
         <v>90</v>
       </c>
-      <c r="G38" s="7"/>
+      <c r="G38" s="7">
+        <v>67</v>
+      </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5527,12 +5597,14 @@
       <c r="F39" s="7">
         <v>100</v>
       </c>
-      <c r="G39" s="7"/>
+      <c r="G39" s="7">
+        <v>73</v>
+      </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5554,12 +5626,14 @@
       <c r="F40" s="7">
         <v>80</v>
       </c>
-      <c r="G40" s="7"/>
+      <c r="G40" s="7">
+        <v>67</v>
+      </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="6">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5581,7 +5655,9 @@
       <c r="F41" s="7">
         <v>80</v>
       </c>
-      <c r="G41" s="7"/>
+      <c r="G41" s="7">
+        <v>80</v>
+      </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="6">
@@ -5608,12 +5684,14 @@
       <c r="F42" s="7">
         <v>90</v>
       </c>
-      <c r="G42" s="7"/>
+      <c r="G42" s="7">
+        <v>73</v>
+      </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5635,12 +5713,14 @@
       <c r="F43" s="7">
         <v>100</v>
       </c>
-      <c r="G43" s="7"/>
+      <c r="G43" s="7">
+        <v>73</v>
+      </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5662,12 +5742,14 @@
       <c r="F44" s="7">
         <v>80</v>
       </c>
-      <c r="G44" s="7"/>
+      <c r="G44" s="7">
+        <v>60</v>
+      </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="6">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5689,12 +5771,14 @@
       <c r="F45" s="7">
         <v>100</v>
       </c>
-      <c r="G45" s="7"/>
+      <c r="G45" s="7">
+        <v>87</v>
+      </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5716,12 +5800,14 @@
       <c r="F46" s="7">
         <v>100</v>
       </c>
-      <c r="G46" s="7"/>
+      <c r="G46" s="7">
+        <v>80</v>
+      </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5743,12 +5829,14 @@
       <c r="F47" s="7">
         <v>100</v>
       </c>
-      <c r="G47" s="7"/>
+      <c r="G47" s="7">
+        <v>87</v>
+      </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5770,12 +5858,14 @@
       <c r="F48" s="7">
         <v>100</v>
       </c>
-      <c r="G48" s="7"/>
+      <c r="G48" s="7">
+        <v>80</v>
+      </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5797,12 +5887,14 @@
       <c r="F49" s="7">
         <v>70</v>
       </c>
-      <c r="G49" s="7"/>
+      <c r="G49" s="7">
+        <v>80</v>
+      </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="6">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5824,12 +5916,14 @@
       <c r="F50" s="7">
         <v>100</v>
       </c>
-      <c r="G50" s="7"/>
+      <c r="G50" s="7">
+        <v>87</v>
+      </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5851,12 +5945,14 @@
       <c r="F51" s="7">
         <v>80</v>
       </c>
-      <c r="G51" s="7"/>
+      <c r="G51" s="7">
+        <v>60</v>
+      </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="6">
         <f t="shared" ref="J51" si="1">AVERAGE(F51:I51)</f>
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -5889,7 +5985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>

--- a/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
+++ b/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\Class Test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAC2587-697D-4C17-AAC1-8914A72A7395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="2" r:id="rId1"/>
@@ -24,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NE!$A$2:$J$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SE!$A$2:$J$48</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="381">
   <si>
     <t>No</t>
   </si>
@@ -1185,7 +1179,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1400,9 +1394,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 2 3" xfId="1"/>
+    <cellStyle name="常规 3" xfId="3"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1672,35 +1666,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="19.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" style="4" customWidth="1"/>
+    <col min="8" max="9" width="11.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="59" style="4" customWidth="1"/>
-    <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1716,7 +1711,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1748,7 +1743,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1757,8 +1752,8 @@
       <c r="F3" s="3">
         <v>47016</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
+      <c r="G3" s="3">
+        <v>44133</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>12</v>
@@ -1768,7 +1763,7 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1787,15 +1782,17 @@
       <c r="F4" s="7">
         <v>20</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7">
+        <v>50</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="6">
         <f>AVERAGE(F4:I4)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1814,15 +1811,17 @@
       <c r="F5" s="7">
         <v>54</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7">
+        <v>60</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="6">
         <f>AVERAGE(F5:I5)</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1841,15 +1840,17 @@
       <c r="F6" s="7">
         <v>74</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <v>70</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="6">
         <f>AVERAGE(F6:I6)</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1868,15 +1869,17 @@
       <c r="F7" s="7">
         <v>80</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7">
+        <v>70</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="6">
         <f>AVERAGE(F7:I7)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1895,15 +1898,17 @@
       <c r="F8" s="7">
         <v>74</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7">
+        <v>100</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="6">
         <f>AVERAGE(F8,G8)</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1922,15 +1927,17 @@
       <c r="F9" s="7">
         <v>54</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7">
+        <v>50</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="6">
         <f>AVERAGE(F9:I9)</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1949,15 +1956,17 @@
       <c r="F10" s="7">
         <v>87</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7">
+        <v>100</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="6">
         <f>AVERAGE(F10:I10)</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -1976,15 +1985,17 @@
       <c r="F11" s="7">
         <v>94</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7">
+        <v>100</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="6">
         <f>AVERAGE(F11:I11)</f>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -2003,15 +2014,17 @@
       <c r="F12" s="7">
         <v>80</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7">
+        <v>60</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="6">
         <f>AVERAGE(F12:I12)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2030,15 +2043,17 @@
       <c r="F13" s="7">
         <v>94</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7">
+        <v>90</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="6">
         <f t="shared" ref="J13:J14" si="0">AVERAGE(F13:I13)</f>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -2057,15 +2072,17 @@
       <c r="F14" s="7">
         <v>87</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7">
+        <v>100</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="6">
         <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -2084,15 +2101,17 @@
       <c r="F15" s="7">
         <v>87</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7">
+        <v>100</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="6">
         <f t="shared" ref="J15:J28" si="1">AVERAGE(F15:I15)</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -2111,15 +2130,17 @@
       <c r="F16" s="7">
         <v>60</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7">
+        <v>70</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="6">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -2138,15 +2159,17 @@
       <c r="F17" s="7">
         <v>80</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="7">
+        <v>70</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="6">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -2165,15 +2188,17 @@
       <c r="F18" s="7">
         <v>74</v>
       </c>
-      <c r="G18" s="7"/>
+      <c r="G18" s="7">
+        <v>100</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="6">
         <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -2192,15 +2217,17 @@
       <c r="F19" s="7">
         <v>87</v>
       </c>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7">
+        <v>10</v>
+      </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="6">
         <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -2219,15 +2246,17 @@
       <c r="F20" s="7">
         <v>74</v>
       </c>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7">
+        <v>100</v>
+      </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="6">
         <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -2246,15 +2275,17 @@
       <c r="F21" s="7">
         <v>94</v>
       </c>
-      <c r="G21" s="7"/>
+      <c r="G21" s="7">
+        <v>70</v>
+      </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="6">
         <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -2273,15 +2304,17 @@
       <c r="F22" s="7">
         <v>67</v>
       </c>
-      <c r="G22" s="7"/>
+      <c r="G22" s="7">
+        <v>70</v>
+      </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="6">
         <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -2300,15 +2333,17 @@
       <c r="F23" s="7">
         <v>94</v>
       </c>
-      <c r="G23" s="7"/>
+      <c r="G23" s="7">
+        <v>90</v>
+      </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="6">
         <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -2327,15 +2362,17 @@
       <c r="F24" s="7">
         <v>60</v>
       </c>
-      <c r="G24" s="7"/>
+      <c r="G24" s="7">
+        <v>70</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="6">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -2354,15 +2391,17 @@
       <c r="F25" s="7">
         <v>94</v>
       </c>
-      <c r="G25" s="7"/>
+      <c r="G25" s="7">
+        <v>90</v>
+      </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="6">
         <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -2381,15 +2420,17 @@
       <c r="F26" s="7">
         <v>80</v>
       </c>
-      <c r="G26" s="7"/>
+      <c r="G26" s="7">
+        <v>50</v>
+      </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="6">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -2408,15 +2449,17 @@
       <c r="F27" s="7">
         <v>60</v>
       </c>
-      <c r="G27" s="7"/>
+      <c r="G27" s="7">
+        <v>70</v>
+      </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="6">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -2435,15 +2478,17 @@
       <c r="F28" s="7">
         <v>27</v>
       </c>
-      <c r="G28" s="7"/>
+      <c r="G28" s="7">
+        <v>80</v>
+      </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="6">
         <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -2462,15 +2507,17 @@
       <c r="F29" s="7">
         <v>60</v>
       </c>
-      <c r="G29" s="7"/>
+      <c r="G29" s="7">
+        <v>50</v>
+      </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="6">
         <f t="shared" ref="J29:J50" si="2">AVERAGE(F29:I29)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -2489,15 +2536,17 @@
       <c r="F30" s="7">
         <v>60</v>
       </c>
-      <c r="G30" s="7"/>
+      <c r="G30" s="7">
+        <v>80</v>
+      </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="6">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -2516,15 +2565,17 @@
       <c r="F31" s="7">
         <v>60</v>
       </c>
-      <c r="G31" s="7"/>
+      <c r="G31" s="7">
+        <v>40</v>
+      </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="6">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -2543,15 +2594,17 @@
       <c r="F32" s="7">
         <v>54</v>
       </c>
-      <c r="G32" s="7"/>
+      <c r="G32" s="7">
+        <v>80</v>
+      </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="6">
         <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -2570,15 +2623,17 @@
       <c r="F33" s="7">
         <v>74</v>
       </c>
-      <c r="G33" s="7"/>
+      <c r="G33" s="7">
+        <v>50</v>
+      </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="6">
         <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -2597,15 +2652,17 @@
       <c r="F34" s="7">
         <v>74</v>
       </c>
-      <c r="G34" s="7"/>
+      <c r="G34" s="7">
+        <v>50</v>
+      </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="6">
         <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -2624,15 +2681,17 @@
       <c r="F35" s="7">
         <v>0</v>
       </c>
-      <c r="G35" s="7"/>
+      <c r="G35" s="7">
+        <v>90</v>
+      </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -2651,15 +2710,17 @@
       <c r="F36" s="7">
         <v>94</v>
       </c>
-      <c r="G36" s="7"/>
+      <c r="G36" s="7">
+        <v>90</v>
+      </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="6">
         <f t="shared" si="2"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -2678,15 +2739,17 @@
       <c r="F37" s="7">
         <v>94</v>
       </c>
-      <c r="G37" s="7"/>
+      <c r="G37" s="7">
+        <v>90</v>
+      </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="6">
         <f t="shared" si="2"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -2705,15 +2768,17 @@
       <c r="F38" s="7">
         <v>54</v>
       </c>
-      <c r="G38" s="7"/>
+      <c r="G38" s="7">
+        <v>50</v>
+      </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="6">
         <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -2732,15 +2797,17 @@
       <c r="F39" s="7">
         <v>87</v>
       </c>
-      <c r="G39" s="7"/>
+      <c r="G39" s="7">
+        <v>70</v>
+      </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="6">
         <f t="shared" si="2"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -2759,15 +2826,17 @@
       <c r="F40" s="7">
         <v>80</v>
       </c>
-      <c r="G40" s="7"/>
+      <c r="G40" s="7">
+        <v>70</v>
+      </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="6">
         <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -2786,15 +2855,17 @@
       <c r="F41" s="7">
         <v>74</v>
       </c>
-      <c r="G41" s="7"/>
+      <c r="G41" s="7">
+        <v>100</v>
+      </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="6">
         <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -2813,15 +2884,17 @@
       <c r="F42" s="7">
         <v>60</v>
       </c>
-      <c r="G42" s="7"/>
+      <c r="G42" s="7">
+        <v>80</v>
+      </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="6">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -2840,15 +2913,17 @@
       <c r="F43" s="7">
         <v>87</v>
       </c>
-      <c r="G43" s="7"/>
+      <c r="G43" s="7">
+        <v>100</v>
+      </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="6">
         <f t="shared" si="2"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -2867,7 +2942,9 @@
       <c r="F44" s="7">
         <v>80</v>
       </c>
-      <c r="G44" s="7"/>
+      <c r="G44" s="7">
+        <v>80</v>
+      </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="6">
@@ -2875,7 +2952,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -2894,15 +2971,17 @@
       <c r="F45" s="7">
         <v>87</v>
       </c>
-      <c r="G45" s="7"/>
+      <c r="G45" s="7">
+        <v>100</v>
+      </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="6">
         <f t="shared" si="2"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -2921,15 +3000,17 @@
       <c r="F46" s="7">
         <v>87</v>
       </c>
-      <c r="G46" s="7"/>
+      <c r="G46" s="7">
+        <v>90</v>
+      </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="6">
         <f t="shared" si="2"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -2948,15 +3029,17 @@
       <c r="F47" s="7">
         <v>60</v>
       </c>
-      <c r="G47" s="7"/>
+      <c r="G47" s="7">
+        <v>70</v>
+      </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="6">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -2975,15 +3058,17 @@
       <c r="F48" s="7">
         <v>47</v>
       </c>
-      <c r="G48" s="7"/>
+      <c r="G48" s="7">
+        <v>70</v>
+      </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="6">
         <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -3002,15 +3087,17 @@
       <c r="F49" s="7">
         <v>67</v>
       </c>
-      <c r="G49" s="7"/>
+      <c r="G49" s="7">
+        <v>70</v>
+      </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="6">
         <f t="shared" si="2"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -3029,7 +3116,9 @@
       <c r="F50" s="7">
         <v>80</v>
       </c>
-      <c r="G50" s="7"/>
+      <c r="G50" s="7">
+        <v>80</v>
+      </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="6">
@@ -3038,8 +3127,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J50" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:L44">
+  <autoFilter ref="A2:J50">
+    <sortState ref="A5:L44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -3055,8 +3144,8 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations xWindow="519" yWindow="339" count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3064,27 +3153,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" style="4" customWidth="1"/>
+    <col min="8" max="9" width="11.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="4" customWidth="1"/>
-    <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -3100,7 +3190,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -3132,7 +3222,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -3141,8 +3231,8 @@
       <c r="F3" s="3">
         <v>47016</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
+      <c r="G3" s="3">
+        <v>44134</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>12</v>
@@ -3152,7 +3242,7 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -3171,15 +3261,17 @@
       <c r="F4" s="7">
         <v>67</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7">
+        <v>90</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="6">
         <f>AVERAGE(F4:I4)</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -3198,15 +3290,17 @@
       <c r="F5" s="7">
         <v>74</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7">
+        <v>100</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="6">
         <f>AVERAGE(F5:I5)</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -3225,15 +3319,17 @@
       <c r="F6" s="7">
         <v>54</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <v>70</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="6">
         <f>AVERAGE(F6:I6)</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -3252,15 +3348,17 @@
       <c r="F7" s="7">
         <v>67</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7">
+        <v>100</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="6">
         <f>AVERAGE(F7:I7)</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -3279,15 +3377,17 @@
       <c r="F8" s="7">
         <v>80</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7">
+        <v>100</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="6">
         <f>AVERAGE(F8,G8)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -3306,15 +3406,17 @@
       <c r="F9" s="7">
         <v>67</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7">
+        <v>100</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="6">
         <f>AVERAGE(F9:I9)</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -3333,15 +3435,17 @@
       <c r="F10" s="7">
         <v>60</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7">
+        <v>90</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="6">
         <f>AVERAGE(F10:I10)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -3360,15 +3464,17 @@
       <c r="F11" s="7">
         <v>80</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7">
+        <v>100</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="6">
         <f>AVERAGE(F11:I11)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3387,15 +3493,17 @@
       <c r="F12" s="7">
         <v>67</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7">
+        <v>100</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="6">
         <f>AVERAGE(F12:I12)</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3414,15 +3522,17 @@
       <c r="F13" s="7">
         <v>80</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7">
+        <v>100</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="6">
         <f t="shared" ref="J13:J50" si="0">AVERAGE(F13:I13)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3441,15 +3551,17 @@
       <c r="F14" s="7">
         <v>80</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7">
+        <v>90</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="6">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3468,15 +3580,17 @@
       <c r="F15" s="7">
         <v>74</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7">
+        <v>90</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="6">
         <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -3495,15 +3609,17 @@
       <c r="F16" s="7">
         <v>54</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7">
+        <v>70</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="6">
         <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -3522,15 +3638,17 @@
       <c r="F17" s="7">
         <v>47</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="7">
+        <v>80</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="6">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -3549,15 +3667,17 @@
       <c r="F18" s="7">
         <v>94</v>
       </c>
-      <c r="G18" s="7"/>
+      <c r="G18" s="7">
+        <v>90</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="6">
         <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -3576,7 +3696,9 @@
       <c r="F19" s="7">
         <v>80</v>
       </c>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7">
+        <v>80</v>
+      </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="6">
@@ -3584,7 +3706,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -3603,15 +3725,17 @@
       <c r="F20" s="7">
         <v>40</v>
       </c>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7">
+        <v>80</v>
+      </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="6">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -3630,15 +3754,17 @@
       <c r="F21" s="7">
         <v>0</v>
       </c>
-      <c r="G21" s="7"/>
+      <c r="G21" s="7">
+        <v>100</v>
+      </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -3657,15 +3783,17 @@
       <c r="F22" s="7">
         <v>54</v>
       </c>
-      <c r="G22" s="7"/>
+      <c r="G22" s="7">
+        <v>90</v>
+      </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="6">
         <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -3684,15 +3812,17 @@
       <c r="F23" s="7">
         <v>40</v>
       </c>
-      <c r="G23" s="7"/>
+      <c r="G23" s="7">
+        <v>90</v>
+      </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="6">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -3711,15 +3841,17 @@
       <c r="F24" s="7">
         <v>94</v>
       </c>
-      <c r="G24" s="7"/>
+      <c r="G24" s="7">
+        <v>100</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="6">
         <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -3738,15 +3870,17 @@
       <c r="F25" s="7">
         <v>27</v>
       </c>
-      <c r="G25" s="7"/>
+      <c r="G25" s="7">
+        <v>60</v>
+      </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="6">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -3765,15 +3899,17 @@
       <c r="F26" s="7">
         <v>47</v>
       </c>
-      <c r="G26" s="7"/>
+      <c r="G26" s="7">
+        <v>100</v>
+      </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="6">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -3792,15 +3928,17 @@
       <c r="F27" s="7">
         <v>54</v>
       </c>
-      <c r="G27" s="7"/>
+      <c r="G27" s="7">
+        <v>50</v>
+      </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="6">
         <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -3819,15 +3957,17 @@
       <c r="F28" s="7">
         <v>94</v>
       </c>
-      <c r="G28" s="7"/>
+      <c r="G28" s="7">
+        <v>100</v>
+      </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="6">
         <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -3846,15 +3986,17 @@
       <c r="F29" s="7">
         <v>47</v>
       </c>
-      <c r="G29" s="7"/>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="6">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -3873,15 +4015,17 @@
       <c r="F30" s="7">
         <v>54</v>
       </c>
-      <c r="G30" s="7"/>
+      <c r="G30" s="7">
+        <v>100</v>
+      </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="6">
         <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -3900,15 +4044,17 @@
       <c r="F31" s="7">
         <v>67</v>
       </c>
-      <c r="G31" s="7"/>
+      <c r="G31" s="7">
+        <v>90</v>
+      </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="6">
         <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -3927,15 +4073,17 @@
       <c r="F32" s="7">
         <v>67</v>
       </c>
-      <c r="G32" s="7"/>
+      <c r="G32" s="7">
+        <v>100</v>
+      </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="6">
         <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -3954,15 +4102,17 @@
       <c r="F33" s="7">
         <v>40</v>
       </c>
-      <c r="G33" s="7"/>
+      <c r="G33" s="7">
+        <v>80</v>
+      </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="6">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -3981,15 +4131,17 @@
       <c r="F34" s="7">
         <v>94</v>
       </c>
-      <c r="G34" s="7"/>
+      <c r="G34" s="7">
+        <v>90</v>
+      </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="6">
         <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -4008,15 +4160,17 @@
       <c r="F35" s="7">
         <v>74</v>
       </c>
-      <c r="G35" s="7"/>
+      <c r="G35" s="7">
+        <v>100</v>
+      </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="6">
         <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -4035,15 +4189,17 @@
       <c r="F36" s="7">
         <v>54</v>
       </c>
-      <c r="G36" s="7"/>
+      <c r="G36" s="7">
+        <v>60</v>
+      </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="6">
         <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -4062,15 +4218,17 @@
       <c r="F37" s="7">
         <v>0</v>
       </c>
-      <c r="G37" s="7"/>
+      <c r="G37" s="7">
+        <v>100</v>
+      </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -4089,15 +4247,17 @@
       <c r="F38" s="7">
         <v>54</v>
       </c>
-      <c r="G38" s="7"/>
+      <c r="G38" s="7">
+        <v>60</v>
+      </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="6">
         <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -4116,15 +4276,17 @@
       <c r="F39" s="7">
         <v>80</v>
       </c>
-      <c r="G39" s="7"/>
+      <c r="G39" s="7">
+        <v>100</v>
+      </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="6">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -4143,15 +4305,17 @@
       <c r="F40" s="7">
         <v>94</v>
       </c>
-      <c r="G40" s="7"/>
+      <c r="G40" s="7">
+        <v>100</v>
+      </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="6">
         <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -4170,15 +4334,17 @@
       <c r="F41" s="7">
         <v>47</v>
       </c>
-      <c r="G41" s="7"/>
+      <c r="G41" s="7">
+        <v>90</v>
+      </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="6">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -4197,15 +4363,17 @@
       <c r="F42" s="7">
         <v>94</v>
       </c>
-      <c r="G42" s="7"/>
+      <c r="G42" s="7">
+        <v>100</v>
+      </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="6">
         <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -4224,15 +4392,17 @@
       <c r="F43" s="7">
         <v>94</v>
       </c>
-      <c r="G43" s="7"/>
+      <c r="G43" s="7">
+        <v>90</v>
+      </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="6">
         <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -4251,15 +4421,17 @@
       <c r="F44" s="7">
         <v>74</v>
       </c>
-      <c r="G44" s="7"/>
+      <c r="G44" s="7">
+        <v>90</v>
+      </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="6">
         <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -4278,15 +4450,17 @@
       <c r="F45" s="7">
         <v>80</v>
       </c>
-      <c r="G45" s="7"/>
+      <c r="G45" s="7">
+        <v>40</v>
+      </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="6">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -4305,15 +4479,17 @@
       <c r="F46" s="7">
         <v>54</v>
       </c>
-      <c r="G46" s="7"/>
+      <c r="G46" s="7">
+        <v>80</v>
+      </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="6">
         <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -4332,15 +4508,17 @@
       <c r="F47" s="7">
         <v>67</v>
       </c>
-      <c r="G47" s="7"/>
+      <c r="G47" s="7">
+        <v>80</v>
+      </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="6">
         <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -4359,15 +4537,17 @@
       <c r="F48" s="7">
         <v>0</v>
       </c>
-      <c r="G48" s="7"/>
+      <c r="G48" s="7">
+        <v>100</v>
+      </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -4386,15 +4566,17 @@
       <c r="F49" s="7">
         <v>54</v>
       </c>
-      <c r="G49" s="7"/>
+      <c r="G49" s="7">
+        <v>100</v>
+      </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="6">
         <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -4413,15 +4595,17 @@
       <c r="F50" s="7">
         <v>80</v>
       </c>
-      <c r="G50" s="7"/>
+      <c r="G50" s="7">
+        <v>100</v>
+      </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="6">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -4440,17 +4624,19 @@
       <c r="F51" s="7">
         <v>54</v>
       </c>
-      <c r="G51" s="7"/>
+      <c r="G51" s="7">
+        <v>100</v>
+      </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="6">
         <f t="shared" ref="J51" si="1">AVERAGE(F51:I51)</f>
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J51" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:L44">
+  <autoFilter ref="A2:J51">
+    <sortState ref="A5:L44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -4466,8 +4652,8 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4475,27 +4661,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="4" customWidth="1"/>
+    <col min="8" max="9" width="11.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="4" customWidth="1"/>
-    <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -4511,7 +4698,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -4543,7 +4730,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -4563,7 +4750,7 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -4590,7 +4777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -4617,7 +4804,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -4644,7 +4831,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -4671,7 +4858,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -4698,7 +4885,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -4725,7 +4912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -4752,7 +4939,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -4779,7 +4966,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -4806,7 +4993,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -4833,7 +5020,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -4860,7 +5047,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -4887,7 +5074,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -4914,7 +5101,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -4941,7 +5128,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -4968,7 +5155,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -4995,7 +5182,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -5022,7 +5209,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -5049,7 +5236,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -5076,7 +5263,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -5103,7 +5290,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -5130,7 +5317,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -5157,7 +5344,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -5184,7 +5371,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -5211,7 +5398,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -5238,7 +5425,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -5265,7 +5452,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -5292,7 +5479,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -5319,7 +5506,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -5346,7 +5533,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -5373,7 +5560,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -5400,7 +5587,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -5427,7 +5614,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -5454,7 +5641,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -5481,7 +5668,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -5508,7 +5695,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -5535,7 +5722,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -5562,7 +5749,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -5589,7 +5776,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -5616,7 +5803,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -5643,7 +5830,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -5670,7 +5857,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -5697,7 +5884,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -5724,7 +5911,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -5751,7 +5938,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -5778,7 +5965,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -5805,7 +5992,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -5832,7 +6019,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -5860,8 +6047,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J48" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:L44">
+  <autoFilter ref="A2:J48">
+    <sortState ref="A5:L44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -5877,8 +6064,8 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5886,27 +6073,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView topLeftCell="B31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="4" customWidth="1"/>
-    <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -5922,7 +6109,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -5954,7 +6141,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -5974,7 +6161,7 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -6001,7 +6188,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -6028,7 +6215,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -6055,7 +6242,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -6082,7 +6269,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -6109,7 +6296,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -6136,7 +6323,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -6163,7 +6350,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -6190,7 +6377,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -6217,7 +6404,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -6244,7 +6431,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -6271,7 +6458,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -6298,7 +6485,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -6325,7 +6512,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -6352,7 +6539,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -6379,7 +6566,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -6406,7 +6593,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -6433,7 +6620,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -6460,7 +6647,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -6487,7 +6674,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -6514,7 +6701,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -6541,7 +6728,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -6568,7 +6755,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -6595,7 +6782,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -6622,7 +6809,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -6649,7 +6836,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -6676,7 +6863,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -6703,7 +6890,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -6730,7 +6917,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -6757,7 +6944,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -6784,7 +6971,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -6811,7 +6998,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -6838,7 +7025,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -6865,7 +7052,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -6892,7 +7079,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -6919,7 +7106,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -6946,7 +7133,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -6973,7 +7160,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -7000,7 +7187,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -7027,7 +7214,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -7054,7 +7241,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -7081,7 +7268,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -7108,7 +7295,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -7135,7 +7322,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -7162,7 +7349,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -7189,7 +7376,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -7216,7 +7403,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -7243,7 +7430,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -7271,8 +7458,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J48" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:L44">
+  <autoFilter ref="A2:J48">
+    <sortState ref="A5:L44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -7288,8 +7475,8 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
+++ b/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\Class Test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E574715-F9F1-4348-AAC6-6065DE310D6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="12435" windowHeight="10125" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="12432" windowHeight="10128" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="2" r:id="rId1"/>
@@ -24,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NE!$A$2:$J$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SE!$A$2:$J$48</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="381">
   <si>
     <t>No</t>
   </si>
@@ -1185,7 +1179,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1400,9 +1394,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 2 3" xfId="1"/>
+    <cellStyle name="常规 3" xfId="3"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1672,35 +1666,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="19.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="59" style="4" customWidth="1"/>
-    <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1716,7 +1710,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1748,7 +1742,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1757,8 +1751,8 @@
       <c r="F3" s="3">
         <v>47016</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
+      <c r="G3" s="3">
+        <v>44133</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>12</v>
@@ -1768,7 +1762,7 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1785,17 +1779,19 @@
         <v>346</v>
       </c>
       <c r="F4" s="7">
-        <v>20</v>
-      </c>
-      <c r="G4" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="G4" s="7">
+        <v>60</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="6">
         <f>AVERAGE(F4:I4)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1814,15 +1810,17 @@
       <c r="F5" s="7">
         <v>54</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7">
+        <v>60</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="6">
         <f>AVERAGE(F5:I5)</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1841,15 +1839,17 @@
       <c r="F6" s="7">
         <v>74</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <v>70</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="6">
         <f>AVERAGE(F6:I6)</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1868,15 +1868,17 @@
       <c r="F7" s="7">
         <v>80</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7">
+        <v>70</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="6">
         <f>AVERAGE(F7:I7)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1895,15 +1897,17 @@
       <c r="F8" s="7">
         <v>74</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7">
+        <v>100</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="6">
         <f>AVERAGE(F8,G8)</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1922,15 +1926,17 @@
       <c r="F9" s="7">
         <v>54</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7">
+        <v>50</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="6">
         <f>AVERAGE(F9:I9)</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1949,15 +1955,17 @@
       <c r="F10" s="7">
         <v>87</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7">
+        <v>100</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="6">
         <f>AVERAGE(F10:I10)</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -1976,15 +1984,17 @@
       <c r="F11" s="7">
         <v>94</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7">
+        <v>100</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="6">
         <f>AVERAGE(F11:I11)</f>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -2003,15 +2013,17 @@
       <c r="F12" s="7">
         <v>80</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7">
+        <v>60</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="6">
         <f>AVERAGE(F12:I12)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2030,15 +2042,17 @@
       <c r="F13" s="7">
         <v>94</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7">
+        <v>90</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="6">
         <f t="shared" ref="J13:J14" si="0">AVERAGE(F13:I13)</f>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -2057,15 +2071,17 @@
       <c r="F14" s="7">
         <v>87</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7">
+        <v>100</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="6">
         <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -2084,15 +2100,17 @@
       <c r="F15" s="7">
         <v>87</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7">
+        <v>100</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="6">
         <f t="shared" ref="J15:J28" si="1">AVERAGE(F15:I15)</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -2111,15 +2129,17 @@
       <c r="F16" s="7">
         <v>60</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7">
+        <v>70</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="6">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -2138,15 +2158,17 @@
       <c r="F17" s="7">
         <v>80</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="7">
+        <v>70</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="6">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -2165,15 +2187,17 @@
       <c r="F18" s="7">
         <v>74</v>
       </c>
-      <c r="G18" s="7"/>
+      <c r="G18" s="7">
+        <v>100</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="6">
         <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -2192,15 +2216,17 @@
       <c r="F19" s="7">
         <v>87</v>
       </c>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7">
+        <v>10</v>
+      </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="6">
         <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -2219,15 +2245,17 @@
       <c r="F20" s="7">
         <v>74</v>
       </c>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7">
+        <v>100</v>
+      </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="6">
         <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -2246,15 +2274,17 @@
       <c r="F21" s="7">
         <v>94</v>
       </c>
-      <c r="G21" s="7"/>
+      <c r="G21" s="7">
+        <v>70</v>
+      </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="6">
         <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -2273,15 +2303,17 @@
       <c r="F22" s="7">
         <v>67</v>
       </c>
-      <c r="G22" s="7"/>
+      <c r="G22" s="7">
+        <v>70</v>
+      </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="6">
         <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -2300,15 +2332,17 @@
       <c r="F23" s="7">
         <v>94</v>
       </c>
-      <c r="G23" s="7"/>
+      <c r="G23" s="7">
+        <v>90</v>
+      </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="6">
         <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -2327,15 +2361,17 @@
       <c r="F24" s="7">
         <v>60</v>
       </c>
-      <c r="G24" s="7"/>
+      <c r="G24" s="7">
+        <v>70</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="6">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -2354,15 +2390,17 @@
       <c r="F25" s="7">
         <v>94</v>
       </c>
-      <c r="G25" s="7"/>
+      <c r="G25" s="7">
+        <v>90</v>
+      </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="6">
         <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -2381,15 +2419,17 @@
       <c r="F26" s="7">
         <v>80</v>
       </c>
-      <c r="G26" s="7"/>
+      <c r="G26" s="7">
+        <v>50</v>
+      </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="6">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -2408,15 +2448,17 @@
       <c r="F27" s="7">
         <v>60</v>
       </c>
-      <c r="G27" s="7"/>
+      <c r="G27" s="7">
+        <v>70</v>
+      </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="6">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -2435,15 +2477,17 @@
       <c r="F28" s="7">
         <v>27</v>
       </c>
-      <c r="G28" s="7"/>
+      <c r="G28" s="7">
+        <v>80</v>
+      </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="6">
         <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -2462,15 +2506,17 @@
       <c r="F29" s="7">
         <v>60</v>
       </c>
-      <c r="G29" s="7"/>
+      <c r="G29" s="7">
+        <v>50</v>
+      </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="6">
         <f t="shared" ref="J29:J50" si="2">AVERAGE(F29:I29)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -2489,15 +2535,17 @@
       <c r="F30" s="7">
         <v>60</v>
       </c>
-      <c r="G30" s="7"/>
+      <c r="G30" s="7">
+        <v>80</v>
+      </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="6">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -2516,15 +2564,17 @@
       <c r="F31" s="7">
         <v>60</v>
       </c>
-      <c r="G31" s="7"/>
+      <c r="G31" s="7">
+        <v>40</v>
+      </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="6">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -2543,15 +2593,17 @@
       <c r="F32" s="7">
         <v>54</v>
       </c>
-      <c r="G32" s="7"/>
+      <c r="G32" s="7">
+        <v>80</v>
+      </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="6">
         <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -2570,15 +2622,17 @@
       <c r="F33" s="7">
         <v>74</v>
       </c>
-      <c r="G33" s="7"/>
+      <c r="G33" s="7">
+        <v>50</v>
+      </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="6">
         <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -2597,15 +2651,17 @@
       <c r="F34" s="7">
         <v>74</v>
       </c>
-      <c r="G34" s="7"/>
+      <c r="G34" s="7">
+        <v>50</v>
+      </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="6">
         <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -2624,15 +2680,17 @@
       <c r="F35" s="7">
         <v>0</v>
       </c>
-      <c r="G35" s="7"/>
+      <c r="G35" s="7">
+        <v>90</v>
+      </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -2651,15 +2709,17 @@
       <c r="F36" s="7">
         <v>94</v>
       </c>
-      <c r="G36" s="7"/>
+      <c r="G36" s="7">
+        <v>90</v>
+      </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="6">
         <f t="shared" si="2"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -2678,15 +2738,17 @@
       <c r="F37" s="7">
         <v>94</v>
       </c>
-      <c r="G37" s="7"/>
+      <c r="G37" s="7">
+        <v>90</v>
+      </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="6">
         <f t="shared" si="2"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -2705,15 +2767,17 @@
       <c r="F38" s="7">
         <v>54</v>
       </c>
-      <c r="G38" s="7"/>
+      <c r="G38" s="7">
+        <v>50</v>
+      </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="6">
         <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -2732,15 +2796,17 @@
       <c r="F39" s="7">
         <v>87</v>
       </c>
-      <c r="G39" s="7"/>
+      <c r="G39" s="7">
+        <v>70</v>
+      </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="6">
         <f t="shared" si="2"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -2759,15 +2825,17 @@
       <c r="F40" s="7">
         <v>80</v>
       </c>
-      <c r="G40" s="7"/>
+      <c r="G40" s="7">
+        <v>70</v>
+      </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="6">
         <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -2786,15 +2854,17 @@
       <c r="F41" s="7">
         <v>74</v>
       </c>
-      <c r="G41" s="7"/>
+      <c r="G41" s="7">
+        <v>100</v>
+      </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="6">
         <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -2813,15 +2883,17 @@
       <c r="F42" s="7">
         <v>60</v>
       </c>
-      <c r="G42" s="7"/>
+      <c r="G42" s="7">
+        <v>80</v>
+      </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="6">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -2840,15 +2912,17 @@
       <c r="F43" s="7">
         <v>87</v>
       </c>
-      <c r="G43" s="7"/>
+      <c r="G43" s="7">
+        <v>100</v>
+      </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="6">
         <f t="shared" si="2"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -2867,7 +2941,9 @@
       <c r="F44" s="7">
         <v>80</v>
       </c>
-      <c r="G44" s="7"/>
+      <c r="G44" s="7">
+        <v>80</v>
+      </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="6">
@@ -2875,7 +2951,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -2894,15 +2970,17 @@
       <c r="F45" s="7">
         <v>87</v>
       </c>
-      <c r="G45" s="7"/>
+      <c r="G45" s="7">
+        <v>100</v>
+      </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="6">
         <f t="shared" si="2"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -2921,15 +2999,17 @@
       <c r="F46" s="7">
         <v>87</v>
       </c>
-      <c r="G46" s="7"/>
+      <c r="G46" s="7">
+        <v>90</v>
+      </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="6">
         <f t="shared" si="2"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -2948,15 +3028,17 @@
       <c r="F47" s="7">
         <v>60</v>
       </c>
-      <c r="G47" s="7"/>
+      <c r="G47" s="7">
+        <v>70</v>
+      </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="6">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -2975,15 +3057,17 @@
       <c r="F48" s="7">
         <v>47</v>
       </c>
-      <c r="G48" s="7"/>
+      <c r="G48" s="7">
+        <v>70</v>
+      </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="6">
         <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -3002,15 +3086,17 @@
       <c r="F49" s="7">
         <v>67</v>
       </c>
-      <c r="G49" s="7"/>
+      <c r="G49" s="7">
+        <v>70</v>
+      </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="6">
         <f t="shared" si="2"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -3029,7 +3115,9 @@
       <c r="F50" s="7">
         <v>80</v>
       </c>
-      <c r="G50" s="7"/>
+      <c r="G50" s="7">
+        <v>80</v>
+      </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="6">
@@ -3038,8 +3126,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J50" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:L44">
+  <autoFilter ref="A2:J50">
+    <sortState ref="A5:L44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -3055,8 +3143,8 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations xWindow="519" yWindow="339" count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3064,27 +3152,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="9" width="11.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="4" customWidth="1"/>
-    <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -3100,7 +3188,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -3132,7 +3220,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -3141,8 +3229,8 @@
       <c r="F3" s="3">
         <v>47016</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
+      <c r="G3" s="3">
+        <v>44134</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>12</v>
@@ -3152,7 +3240,7 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -3171,15 +3259,17 @@
       <c r="F4" s="7">
         <v>67</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7">
+        <v>90</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="6">
         <f>AVERAGE(F4:I4)</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -3198,15 +3288,17 @@
       <c r="F5" s="7">
         <v>74</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7">
+        <v>100</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="6">
         <f>AVERAGE(F5:I5)</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -3225,15 +3317,17 @@
       <c r="F6" s="7">
         <v>54</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <v>70</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="6">
         <f>AVERAGE(F6:I6)</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -3252,15 +3346,17 @@
       <c r="F7" s="7">
         <v>67</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7">
+        <v>100</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="6">
         <f>AVERAGE(F7:I7)</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -3279,15 +3375,17 @@
       <c r="F8" s="7">
         <v>80</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7">
+        <v>100</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="6">
         <f>AVERAGE(F8,G8)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -3306,15 +3404,17 @@
       <c r="F9" s="7">
         <v>67</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7">
+        <v>100</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="6">
         <f>AVERAGE(F9:I9)</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -3333,15 +3433,17 @@
       <c r="F10" s="7">
         <v>60</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7">
+        <v>90</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="6">
         <f>AVERAGE(F10:I10)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -3360,15 +3462,17 @@
       <c r="F11" s="7">
         <v>80</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7">
+        <v>100</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="6">
         <f>AVERAGE(F11:I11)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3387,15 +3491,17 @@
       <c r="F12" s="7">
         <v>67</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7">
+        <v>100</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="6">
         <f>AVERAGE(F12:I12)</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3414,15 +3520,17 @@
       <c r="F13" s="7">
         <v>80</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7">
+        <v>100</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="6">
         <f t="shared" ref="J13:J50" si="0">AVERAGE(F13:I13)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3441,15 +3549,17 @@
       <c r="F14" s="7">
         <v>80</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7">
+        <v>90</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="6">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3468,15 +3578,17 @@
       <c r="F15" s="7">
         <v>74</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7">
+        <v>90</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="6">
         <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -3495,15 +3607,17 @@
       <c r="F16" s="7">
         <v>54</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7">
+        <v>70</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="6">
         <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -3522,15 +3636,17 @@
       <c r="F17" s="7">
         <v>47</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="7">
+        <v>80</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="6">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -3549,15 +3665,17 @@
       <c r="F18" s="7">
         <v>94</v>
       </c>
-      <c r="G18" s="7"/>
+      <c r="G18" s="7">
+        <v>90</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="6">
         <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -3576,7 +3694,9 @@
       <c r="F19" s="7">
         <v>80</v>
       </c>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7">
+        <v>80</v>
+      </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="6">
@@ -3584,7 +3704,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -3603,15 +3723,17 @@
       <c r="F20" s="7">
         <v>40</v>
       </c>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7">
+        <v>80</v>
+      </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="6">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -3628,17 +3750,19 @@
         <v>316</v>
       </c>
       <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="G21" s="7">
+        <v>100</v>
+      </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -3657,15 +3781,17 @@
       <c r="F22" s="7">
         <v>54</v>
       </c>
-      <c r="G22" s="7"/>
+      <c r="G22" s="7">
+        <v>90</v>
+      </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="6">
         <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -3684,15 +3810,17 @@
       <c r="F23" s="7">
         <v>40</v>
       </c>
-      <c r="G23" s="7"/>
+      <c r="G23" s="7">
+        <v>90</v>
+      </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="6">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -3711,15 +3839,17 @@
       <c r="F24" s="7">
         <v>94</v>
       </c>
-      <c r="G24" s="7"/>
+      <c r="G24" s="7">
+        <v>100</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="6">
         <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -3738,15 +3868,17 @@
       <c r="F25" s="7">
         <v>27</v>
       </c>
-      <c r="G25" s="7"/>
+      <c r="G25" s="7">
+        <v>60</v>
+      </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="6">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -3765,15 +3897,17 @@
       <c r="F26" s="7">
         <v>47</v>
       </c>
-      <c r="G26" s="7"/>
+      <c r="G26" s="7">
+        <v>100</v>
+      </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="6">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -3792,15 +3926,17 @@
       <c r="F27" s="7">
         <v>54</v>
       </c>
-      <c r="G27" s="7"/>
+      <c r="G27" s="7">
+        <v>50</v>
+      </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="6">
         <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -3819,15 +3955,17 @@
       <c r="F28" s="7">
         <v>94</v>
       </c>
-      <c r="G28" s="7"/>
+      <c r="G28" s="7">
+        <v>100</v>
+      </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="6">
         <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -3846,15 +3984,17 @@
       <c r="F29" s="7">
         <v>47</v>
       </c>
-      <c r="G29" s="7"/>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="6">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -3873,15 +4013,17 @@
       <c r="F30" s="7">
         <v>54</v>
       </c>
-      <c r="G30" s="7"/>
+      <c r="G30" s="7">
+        <v>100</v>
+      </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="6">
         <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -3900,15 +4042,17 @@
       <c r="F31" s="7">
         <v>67</v>
       </c>
-      <c r="G31" s="7"/>
+      <c r="G31" s="7">
+        <v>90</v>
+      </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="6">
         <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -3927,15 +4071,17 @@
       <c r="F32" s="7">
         <v>67</v>
       </c>
-      <c r="G32" s="7"/>
+      <c r="G32" s="7">
+        <v>100</v>
+      </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="6">
         <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -3954,15 +4100,17 @@
       <c r="F33" s="7">
         <v>40</v>
       </c>
-      <c r="G33" s="7"/>
+      <c r="G33" s="7">
+        <v>80</v>
+      </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="6">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -3981,15 +4129,17 @@
       <c r="F34" s="7">
         <v>94</v>
       </c>
-      <c r="G34" s="7"/>
+      <c r="G34" s="7">
+        <v>90</v>
+      </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="6">
         <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -4008,15 +4158,17 @@
       <c r="F35" s="7">
         <v>74</v>
       </c>
-      <c r="G35" s="7"/>
+      <c r="G35" s="7">
+        <v>100</v>
+      </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="6">
         <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -4035,15 +4187,17 @@
       <c r="F36" s="7">
         <v>54</v>
       </c>
-      <c r="G36" s="7"/>
+      <c r="G36" s="7">
+        <v>60</v>
+      </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="6">
         <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -4060,17 +4214,19 @@
         <v>255</v>
       </c>
       <c r="F37" s="7">
-        <v>0</v>
-      </c>
-      <c r="G37" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="G37" s="7">
+        <v>100</v>
+      </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -4089,15 +4245,17 @@
       <c r="F38" s="7">
         <v>54</v>
       </c>
-      <c r="G38" s="7"/>
+      <c r="G38" s="7">
+        <v>60</v>
+      </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="6">
         <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -4116,15 +4274,17 @@
       <c r="F39" s="7">
         <v>80</v>
       </c>
-      <c r="G39" s="7"/>
+      <c r="G39" s="7">
+        <v>100</v>
+      </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="6">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -4143,15 +4303,17 @@
       <c r="F40" s="7">
         <v>94</v>
       </c>
-      <c r="G40" s="7"/>
+      <c r="G40" s="7">
+        <v>100</v>
+      </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="6">
         <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -4170,15 +4332,17 @@
       <c r="F41" s="7">
         <v>47</v>
       </c>
-      <c r="G41" s="7"/>
+      <c r="G41" s="7">
+        <v>90</v>
+      </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="6">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -4197,15 +4361,17 @@
       <c r="F42" s="7">
         <v>94</v>
       </c>
-      <c r="G42" s="7"/>
+      <c r="G42" s="7">
+        <v>100</v>
+      </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="6">
         <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -4224,15 +4390,17 @@
       <c r="F43" s="7">
         <v>94</v>
       </c>
-      <c r="G43" s="7"/>
+      <c r="G43" s="7">
+        <v>90</v>
+      </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="6">
         <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -4251,15 +4419,17 @@
       <c r="F44" s="7">
         <v>74</v>
       </c>
-      <c r="G44" s="7"/>
+      <c r="G44" s="7">
+        <v>90</v>
+      </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="6">
         <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -4278,15 +4448,17 @@
       <c r="F45" s="7">
         <v>80</v>
       </c>
-      <c r="G45" s="7"/>
+      <c r="G45" s="7">
+        <v>40</v>
+      </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="6">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -4305,15 +4477,17 @@
       <c r="F46" s="7">
         <v>54</v>
       </c>
-      <c r="G46" s="7"/>
+      <c r="G46" s="7">
+        <v>80</v>
+      </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="6">
         <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -4332,15 +4506,17 @@
       <c r="F47" s="7">
         <v>67</v>
       </c>
-      <c r="G47" s="7"/>
+      <c r="G47" s="7">
+        <v>80</v>
+      </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="6">
         <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -4357,17 +4533,19 @@
         <v>99</v>
       </c>
       <c r="F48" s="7">
-        <v>0</v>
-      </c>
-      <c r="G48" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="G48" s="7">
+        <v>100</v>
+      </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -4386,15 +4564,17 @@
       <c r="F49" s="7">
         <v>54</v>
       </c>
-      <c r="G49" s="7"/>
+      <c r="G49" s="7">
+        <v>100</v>
+      </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="6">
         <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -4413,15 +4593,17 @@
       <c r="F50" s="7">
         <v>80</v>
       </c>
-      <c r="G50" s="7"/>
+      <c r="G50" s="7">
+        <v>100</v>
+      </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="6">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -4440,17 +4622,19 @@
       <c r="F51" s="7">
         <v>54</v>
       </c>
-      <c r="G51" s="7"/>
+      <c r="G51" s="7">
+        <v>100</v>
+      </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="6">
         <f t="shared" ref="J51" si="1">AVERAGE(F51:I51)</f>
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J51" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:L44">
+  <autoFilter ref="A2:J51">
+    <sortState ref="A5:L44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -4466,8 +4650,8 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4475,27 +4659,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="4" customWidth="1"/>
-    <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -4511,7 +4695,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -4543,7 +4727,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -4563,7 +4747,7 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -4592,7 +4776,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -4621,7 +4805,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -4650,7 +4834,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -4679,7 +4863,7 @@
         <v>86.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -4708,7 +4892,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -4737,7 +4921,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -4766,7 +4950,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -4795,7 +4979,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -4824,7 +5008,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -4853,7 +5037,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -4882,7 +5066,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -4911,7 +5095,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -4940,7 +5124,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -4969,7 +5153,7 @@
         <v>86.5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -4998,7 +5182,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -5027,7 +5211,7 @@
         <v>81.5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -5056,7 +5240,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -5085,7 +5269,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -5114,7 +5298,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -5143,7 +5327,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -5172,7 +5356,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -5201,7 +5385,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -5230,7 +5414,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -5259,7 +5443,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -5288,7 +5472,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -5317,7 +5501,7 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -5346,7 +5530,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -5375,7 +5559,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -5404,7 +5588,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -5433,7 +5617,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -5462,7 +5646,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -5491,7 +5675,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -5520,7 +5704,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -5549,7 +5733,7 @@
         <v>86.5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -5578,7 +5762,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -5607,7 +5791,7 @@
         <v>86.5</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -5636,7 +5820,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -5665,7 +5849,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -5694,7 +5878,7 @@
         <v>81.5</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -5723,7 +5907,7 @@
         <v>86.5</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -5752,7 +5936,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -5781,7 +5965,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -5810,7 +5994,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -5839,7 +6023,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -5868,7 +6052,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -5897,7 +6081,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -5926,7 +6110,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -5956,8 +6140,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J48" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:L44">
+  <autoFilter ref="A2:J48">
+    <sortState ref="A5:L44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -5973,8 +6157,8 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5982,27 +6166,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="4" customWidth="1"/>
-    <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -6018,7 +6202,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -6050,7 +6234,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -6070,7 +6254,7 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -6099,7 +6283,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -6128,7 +6312,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -6157,7 +6341,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -6186,7 +6370,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -6215,7 +6399,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -6244,7 +6428,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -6273,7 +6457,7 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -6302,7 +6486,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -6331,7 +6515,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -6360,7 +6544,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -6389,7 +6573,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -6418,7 +6602,7 @@
         <v>84.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -6447,7 +6631,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -6476,7 +6660,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -6505,7 +6689,7 @@
         <v>91.5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -6534,7 +6718,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -6563,7 +6747,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -6592,7 +6776,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -6621,7 +6805,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -6650,7 +6834,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -6679,7 +6863,7 @@
         <v>91.5</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -6708,7 +6892,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -6737,7 +6921,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -6766,7 +6950,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -6795,7 +6979,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -6824,7 +7008,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -6853,7 +7037,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -6882,7 +7066,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -6911,7 +7095,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -6940,7 +7124,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -6969,7 +7153,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -6998,7 +7182,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -7027,7 +7211,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -7056,7 +7240,7 @@
         <v>91.5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -7085,7 +7269,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -7114,7 +7298,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -7143,7 +7327,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -7172,7 +7356,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -7201,7 +7385,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -7230,7 +7414,7 @@
         <v>86.5</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -7259,7 +7443,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -7288,7 +7472,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -7317,7 +7501,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -7346,7 +7530,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -7375,7 +7559,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -7404,7 +7588,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -7433,7 +7617,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -7463,8 +7647,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J48" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:L44">
+  <autoFilter ref="A2:J48">
+    <sortState ref="A5:L44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -7480,8 +7664,8 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
+++ b/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\Class Test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E32A80-3D85-4951-8EDF-A67E6F954C61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="12432" windowHeight="10128" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="2" r:id="rId1"/>
@@ -18,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NE!$A$2:$J$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SE!$A$2:$J$48</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="381">
   <si>
     <t>No</t>
   </si>
@@ -1179,7 +1185,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1394,9 +1400,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 3" xfId="1"/>
-    <cellStyle name="常规 3" xfId="3"/>
-    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="常规 2 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1666,14 +1672,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J50"/>
   <sheetViews>
@@ -1681,20 +1687,20 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="19.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="9" width="11.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="59" style="4" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1710,7 +1716,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1742,7 +1748,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1762,7 +1768,7 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1791,7 +1797,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1820,7 +1826,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1849,7 +1855,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1878,7 +1884,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1907,7 +1913,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1936,7 +1942,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1965,7 +1971,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -1994,7 +2000,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -2023,7 +2029,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2052,7 +2058,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -2081,7 +2087,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -2110,7 +2116,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -2139,7 +2145,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -2168,7 +2174,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -2197,7 +2203,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -2226,7 +2232,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -2255,7 +2261,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -2284,7 +2290,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -2313,7 +2319,7 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -2342,7 +2348,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -2371,7 +2377,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -2400,7 +2406,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -2429,7 +2435,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -2458,7 +2464,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -2487,7 +2493,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -2516,7 +2522,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -2545,7 +2551,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -2574,7 +2580,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -2603,7 +2609,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -2632,7 +2638,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -2661,7 +2667,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -2690,7 +2696,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -2719,7 +2725,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -2748,7 +2754,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -2777,7 +2783,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -2806,7 +2812,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -2835,7 +2841,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -2864,7 +2870,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -2893,7 +2899,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -2922,7 +2928,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -2951,7 +2957,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -2980,7 +2986,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -3009,7 +3015,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -3038,7 +3044,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -3067,7 +3073,7 @@
         <v>58.5</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -3096,7 +3102,7 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -3126,8 +3132,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J50">
-    <sortState ref="A5:L44">
+  <autoFilter ref="A2:J50" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:L44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -3143,8 +3149,8 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations xWindow="519" yWindow="339" count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3152,27 +3158,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="7" max="9" width="11.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="4" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -3188,7 +3194,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -3220,7 +3226,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -3240,7 +3246,7 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -3269,7 +3275,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -3298,7 +3304,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -3327,7 +3333,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -3356,7 +3362,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -3385,7 +3391,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -3414,7 +3420,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -3443,7 +3449,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -3472,7 +3478,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3501,7 +3507,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3530,7 +3536,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3559,7 +3565,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3588,7 +3594,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -3617,7 +3623,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -3646,7 +3652,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -3675,7 +3681,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -3704,7 +3710,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -3733,7 +3739,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -3762,7 +3768,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -3791,7 +3797,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -3820,7 +3826,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -3849,7 +3855,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -3878,7 +3884,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -3907,7 +3913,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -3936,7 +3942,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -3965,7 +3971,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -3994,7 +4000,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -4023,7 +4029,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -4052,7 +4058,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -4081,7 +4087,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -4110,7 +4116,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -4139,7 +4145,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -4168,7 +4174,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -4197,7 +4203,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -4226,7 +4232,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -4255,7 +4261,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -4284,7 +4290,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -4313,7 +4319,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -4342,7 +4348,7 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -4371,7 +4377,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -4400,7 +4406,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -4429,7 +4435,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -4458,7 +4464,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -4487,7 +4493,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -4516,7 +4522,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -4545,7 +4551,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -4574,7 +4580,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -4603,7 +4609,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -4633,8 +4639,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J51">
-    <sortState ref="A5:L44">
+  <autoFilter ref="A2:J51" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:L44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -4650,8 +4656,8 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4659,27 +4665,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="4" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -4695,7 +4701,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -4727,7 +4733,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -4747,7 +4753,7 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -4776,7 +4782,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -4805,7 +4811,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -4834,7 +4840,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -4863,7 +4869,7 @@
         <v>86.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -4892,7 +4898,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -4921,7 +4927,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -4950,7 +4956,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -4979,7 +4985,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -5008,7 +5014,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -5037,7 +5043,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -5066,7 +5072,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -5095,7 +5101,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -5124,7 +5130,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -5153,7 +5159,7 @@
         <v>86.5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -5182,7 +5188,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -5211,7 +5217,7 @@
         <v>81.5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -5240,7 +5246,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -5269,7 +5275,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -5298,7 +5304,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -5327,7 +5333,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -5356,7 +5362,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -5385,7 +5391,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -5414,7 +5420,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -5443,7 +5449,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -5472,7 +5478,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -5501,7 +5507,7 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -5530,7 +5536,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -5559,7 +5565,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -5588,7 +5594,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -5617,7 +5623,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -5646,7 +5652,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -5675,7 +5681,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -5704,7 +5710,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -5733,7 +5739,7 @@
         <v>86.5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -5762,7 +5768,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -5791,7 +5797,7 @@
         <v>86.5</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -5820,7 +5826,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -5849,7 +5855,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -5878,7 +5884,7 @@
         <v>81.5</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -5907,7 +5913,7 @@
         <v>86.5</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -5936,7 +5942,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -5965,7 +5971,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -5994,7 +6000,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -6023,7 +6029,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -6052,7 +6058,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -6081,7 +6087,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -6110,7 +6116,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -6140,8 +6146,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J48">
-    <sortState ref="A5:L44">
+  <autoFilter ref="A2:J48" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:L44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -6157,8 +6163,8 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6166,27 +6172,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="4" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -6202,7 +6208,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -6234,7 +6240,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -6246,15 +6252,15 @@
       <c r="G3" s="3">
         <v>44131</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>12</v>
+      <c r="H3" s="3">
+        <v>44169</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -6276,14 +6282,16 @@
       <c r="G4" s="7">
         <v>87</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7">
+        <v>92</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="6">
         <f>AVERAGE(F4:I4)</f>
-        <v>83.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>86.333333333333329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -6305,14 +6313,16 @@
       <c r="G5" s="7">
         <v>69</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7">
+        <v>87</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="J5" s="6">
         <f>AVERAGE(F5:I5)</f>
-        <v>69.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>75.333333333333329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -6334,14 +6344,16 @@
       <c r="G6" s="7">
         <v>69</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7">
+        <v>86</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="6">
         <f>AVERAGE(F6:I6)</f>
-        <v>74.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>78.333333333333329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -6363,14 +6375,16 @@
       <c r="G7" s="7">
         <v>80</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7">
+        <v>86</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="6">
         <f>AVERAGE(F7:I7)</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>85.333333333333329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -6392,14 +6406,16 @@
       <c r="G8" s="7">
         <v>80</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7">
+        <v>90</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="6">
         <f>AVERAGE(F8,G8)</f>
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -6421,14 +6437,16 @@
       <c r="G9" s="7">
         <v>87</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7">
+        <v>91</v>
+      </c>
       <c r="I9" s="7"/>
       <c r="J9" s="6">
         <f>AVERAGE(F9:I9)</f>
-        <v>88.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>89.333333333333329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -6450,14 +6468,16 @@
       <c r="G10" s="7">
         <v>69</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7">
+        <v>89</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="6">
         <f>AVERAGE(F10:I10)</f>
-        <v>79.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>82.666666666666671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -6479,14 +6499,16 @@
       <c r="G11" s="7">
         <v>69</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7">
+        <v>84</v>
+      </c>
       <c r="I11" s="7"/>
       <c r="J11" s="6">
         <f>AVERAGE(F11:I11)</f>
-        <v>69.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>74.333333333333329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -6508,14 +6530,16 @@
       <c r="G12" s="7">
         <v>80</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7">
+        <v>64</v>
+      </c>
       <c r="I12" s="7"/>
       <c r="J12" s="6">
         <f>AVERAGE(F12:I12)</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -6537,14 +6561,16 @@
       <c r="G13" s="7">
         <v>69</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7">
+        <v>85</v>
+      </c>
       <c r="I13" s="7"/>
       <c r="J13" s="6">
         <f t="shared" ref="J13:J51" si="0">AVERAGE(F13:I13)</f>
-        <v>74.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -6566,14 +6592,16 @@
       <c r="G14" s="7">
         <v>87</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7">
+        <v>91</v>
+      </c>
       <c r="I14" s="7"/>
       <c r="J14" s="6">
         <f t="shared" si="0"/>
-        <v>78.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>82.666666666666671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -6595,14 +6623,16 @@
       <c r="G15" s="7">
         <v>69</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7">
+        <v>87</v>
+      </c>
       <c r="I15" s="7"/>
       <c r="J15" s="6">
         <f t="shared" si="0"/>
-        <v>84.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>85.333333333333329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -6624,14 +6654,16 @@
       <c r="G16" s="7">
         <v>87</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="7">
+        <v>79</v>
+      </c>
       <c r="I16" s="7"/>
       <c r="J16" s="6">
         <f t="shared" si="0"/>
-        <v>73.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>75.333333333333329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -6653,14 +6685,16 @@
       <c r="G17" s="7">
         <v>80</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="7">
+        <v>84</v>
+      </c>
       <c r="I17" s="7"/>
       <c r="J17" s="6">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -6682,14 +6716,16 @@
       <c r="G18" s="7">
         <v>93</v>
       </c>
-      <c r="H18" s="7"/>
+      <c r="H18" s="7">
+        <v>88</v>
+      </c>
       <c r="I18" s="7"/>
       <c r="J18" s="6">
         <f t="shared" si="0"/>
-        <v>91.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>90.333333333333329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -6711,14 +6747,16 @@
       <c r="G19" s="7">
         <v>69</v>
       </c>
-      <c r="H19" s="7"/>
+      <c r="H19" s="7">
+        <v>82</v>
+      </c>
       <c r="I19" s="7"/>
       <c r="J19" s="6">
         <f t="shared" si="0"/>
-        <v>74.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -6740,14 +6778,16 @@
       <c r="G20" s="7">
         <v>75</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="H20" s="7">
+        <v>75</v>
+      </c>
       <c r="I20" s="7"/>
       <c r="J20" s="6">
         <f t="shared" si="0"/>
-        <v>77.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>76.666666666666671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -6769,14 +6809,16 @@
       <c r="G21" s="7">
         <v>87</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="7">
+        <v>85</v>
+      </c>
       <c r="I21" s="7"/>
       <c r="J21" s="6">
         <f t="shared" si="0"/>
-        <v>88.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>87.333333333333329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -6798,14 +6840,16 @@
       <c r="G22" s="7">
         <v>87</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="7">
+        <v>80</v>
+      </c>
       <c r="I22" s="7"/>
       <c r="J22" s="6">
         <f t="shared" si="0"/>
-        <v>88.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>85.666666666666671</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -6827,14 +6871,16 @@
       <c r="G23" s="7">
         <v>87</v>
       </c>
-      <c r="H23" s="7"/>
+      <c r="H23" s="7">
+        <v>91</v>
+      </c>
       <c r="I23" s="7"/>
       <c r="J23" s="6">
         <f t="shared" si="0"/>
-        <v>78.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>82.666666666666671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -6856,14 +6902,16 @@
       <c r="G24" s="7">
         <v>93</v>
       </c>
-      <c r="H24" s="7"/>
+      <c r="H24" s="7">
+        <v>80</v>
+      </c>
       <c r="I24" s="7"/>
       <c r="J24" s="6">
         <f t="shared" si="0"/>
-        <v>91.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>87.666666666666671</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -6885,14 +6933,16 @@
       <c r="G25" s="7">
         <v>87</v>
       </c>
-      <c r="H25" s="7"/>
+      <c r="H25" s="7">
+        <v>65</v>
+      </c>
       <c r="I25" s="7"/>
       <c r="J25" s="6">
         <f t="shared" si="0"/>
-        <v>88.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>80.666666666666671</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -6914,14 +6964,16 @@
       <c r="G26" s="7">
         <v>87</v>
       </c>
-      <c r="H26" s="7"/>
+      <c r="H26" s="7">
+        <v>83</v>
+      </c>
       <c r="I26" s="7"/>
       <c r="J26" s="6">
         <f t="shared" si="0"/>
-        <v>83.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -6943,14 +6995,16 @@
       <c r="G27" s="7">
         <v>80</v>
       </c>
-      <c r="H27" s="7"/>
+      <c r="H27" s="7">
+        <v>88</v>
+      </c>
       <c r="I27" s="7"/>
       <c r="J27" s="6">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -6972,14 +7026,16 @@
       <c r="G28" s="7">
         <v>80</v>
       </c>
-      <c r="H28" s="7"/>
+      <c r="H28" s="7">
+        <v>70</v>
+      </c>
       <c r="I28" s="7"/>
       <c r="J28" s="6">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>76.666666666666671</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -7001,14 +7057,16 @@
       <c r="G29" s="7">
         <v>87</v>
       </c>
-      <c r="H29" s="7"/>
+      <c r="H29" s="7">
+        <v>85</v>
+      </c>
       <c r="I29" s="7"/>
       <c r="J29" s="6">
         <f t="shared" si="0"/>
-        <v>88.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>87.333333333333329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -7030,14 +7088,16 @@
       <c r="G30" s="7">
         <v>87</v>
       </c>
-      <c r="H30" s="7"/>
+      <c r="H30" s="7">
+        <v>82</v>
+      </c>
       <c r="I30" s="7"/>
       <c r="J30" s="6">
         <f t="shared" si="0"/>
-        <v>88.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>86.333333333333329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -7059,14 +7119,16 @@
       <c r="G31" s="7">
         <v>87</v>
       </c>
-      <c r="H31" s="7"/>
+      <c r="H31" s="7">
+        <v>89</v>
+      </c>
       <c r="I31" s="7"/>
       <c r="J31" s="6">
         <f t="shared" si="0"/>
-        <v>93.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -7088,14 +7150,16 @@
       <c r="G32" s="7">
         <v>56</v>
       </c>
-      <c r="H32" s="7"/>
+      <c r="H32" s="7">
+        <v>93</v>
+      </c>
       <c r="I32" s="7"/>
       <c r="J32" s="6">
         <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>69.666666666666671</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -7117,14 +7181,16 @@
       <c r="G33" s="7">
         <v>87</v>
       </c>
-      <c r="H33" s="7"/>
+      <c r="H33" s="7">
+        <v>92</v>
+      </c>
       <c r="I33" s="7"/>
       <c r="J33" s="6">
         <f t="shared" si="0"/>
-        <v>88.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>89.666666666666671</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -7146,14 +7212,16 @@
       <c r="G34" s="7">
         <v>80</v>
       </c>
-      <c r="H34" s="7"/>
+      <c r="H34" s="7">
+        <v>61</v>
+      </c>
       <c r="I34" s="7"/>
       <c r="J34" s="6">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>73.666666666666671</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -7175,14 +7243,16 @@
       <c r="G35" s="7">
         <v>62</v>
       </c>
-      <c r="H35" s="7"/>
+      <c r="H35" s="7">
+        <v>79</v>
+      </c>
       <c r="I35" s="7"/>
       <c r="J35" s="6">
         <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>73.666666666666671</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -7204,14 +7274,16 @@
       <c r="G36" s="7">
         <v>75</v>
       </c>
-      <c r="H36" s="7"/>
+      <c r="H36" s="7">
+        <v>89</v>
+      </c>
       <c r="I36" s="7"/>
       <c r="J36" s="6">
         <f t="shared" si="0"/>
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -7233,14 +7305,16 @@
       <c r="G37" s="7">
         <v>93</v>
       </c>
-      <c r="H37" s="7"/>
+      <c r="H37" s="7">
+        <v>92</v>
+      </c>
       <c r="I37" s="7"/>
       <c r="J37" s="6">
         <f t="shared" si="0"/>
-        <v>91.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>91.666666666666671</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -7262,14 +7336,16 @@
       <c r="G38" s="7">
         <v>75</v>
       </c>
-      <c r="H38" s="7"/>
+      <c r="H38" s="7">
+        <v>84</v>
+      </c>
       <c r="I38" s="7"/>
       <c r="J38" s="6">
         <f t="shared" si="0"/>
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -7291,14 +7367,16 @@
       <c r="G39" s="7">
         <v>87</v>
       </c>
-      <c r="H39" s="7"/>
+      <c r="H39" s="7">
+        <v>91</v>
+      </c>
       <c r="I39" s="7"/>
       <c r="J39" s="6">
         <f t="shared" si="0"/>
-        <v>88.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>89.333333333333329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -7320,14 +7398,16 @@
       <c r="G40" s="7">
         <v>62</v>
       </c>
-      <c r="H40" s="7"/>
+      <c r="H40" s="7">
+        <v>83</v>
+      </c>
       <c r="I40" s="7"/>
       <c r="J40" s="6">
         <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -7349,14 +7429,16 @@
       <c r="G41" s="7">
         <v>87</v>
       </c>
-      <c r="H41" s="7"/>
+      <c r="H41" s="7">
+        <v>80</v>
+      </c>
       <c r="I41" s="7"/>
       <c r="J41" s="6">
         <f t="shared" si="0"/>
-        <v>73.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>75.666666666666671</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -7378,14 +7460,16 @@
       <c r="G42" s="7">
         <v>75</v>
       </c>
-      <c r="H42" s="7"/>
+      <c r="H42" s="7">
+        <v>87</v>
+      </c>
       <c r="I42" s="7"/>
       <c r="J42" s="6">
         <f t="shared" si="0"/>
-        <v>77.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>80.666666666666671</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -7407,14 +7491,16 @@
       <c r="G43" s="7">
         <v>93</v>
       </c>
-      <c r="H43" s="7"/>
+      <c r="H43" s="7">
+        <v>91</v>
+      </c>
       <c r="I43" s="7"/>
       <c r="J43" s="6">
         <f t="shared" si="0"/>
-        <v>86.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -7436,14 +7522,16 @@
       <c r="G44" s="7">
         <v>56</v>
       </c>
-      <c r="H44" s="7"/>
+      <c r="H44" s="7">
+        <v>81</v>
+      </c>
       <c r="I44" s="7"/>
       <c r="J44" s="6">
         <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>75.666666666666671</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -7465,14 +7553,16 @@
       <c r="G45" s="7">
         <v>75</v>
       </c>
-      <c r="H45" s="7"/>
+      <c r="H45" s="7">
+        <v>87</v>
+      </c>
       <c r="I45" s="7"/>
       <c r="J45" s="6">
         <f t="shared" si="0"/>
-        <v>72.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>77.333333333333329</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -7494,14 +7584,16 @@
       <c r="G46" s="7">
         <v>87</v>
       </c>
-      <c r="H46" s="7"/>
+      <c r="H46" s="7">
+        <v>85</v>
+      </c>
       <c r="I46" s="7"/>
       <c r="J46" s="6">
         <f t="shared" si="0"/>
-        <v>83.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -7523,14 +7615,16 @@
       <c r="G47" s="7">
         <v>62</v>
       </c>
-      <c r="H47" s="7"/>
+      <c r="H47" s="7">
+        <v>82</v>
+      </c>
       <c r="I47" s="7"/>
       <c r="J47" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -7552,14 +7646,16 @@
       <c r="G48" s="7">
         <v>87</v>
       </c>
-      <c r="H48" s="7"/>
+      <c r="H48" s="7">
+        <v>92</v>
+      </c>
       <c r="I48" s="7"/>
       <c r="J48" s="6">
         <f t="shared" si="0"/>
-        <v>88.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>89.666666666666671</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -7581,14 +7677,16 @@
       <c r="G49" s="7">
         <v>80</v>
       </c>
-      <c r="H49" s="7"/>
+      <c r="H49" s="7">
+        <v>80</v>
+      </c>
       <c r="I49" s="7"/>
       <c r="J49" s="6">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>76.666666666666671</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -7610,14 +7708,16 @@
       <c r="G50" s="7">
         <v>87</v>
       </c>
-      <c r="H50" s="7"/>
+      <c r="H50" s="7">
+        <v>76</v>
+      </c>
       <c r="I50" s="7"/>
       <c r="J50" s="6">
         <f t="shared" si="0"/>
-        <v>88.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>84.333333333333329</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -7639,16 +7739,18 @@
       <c r="G51" s="7">
         <v>80</v>
       </c>
-      <c r="H51" s="7"/>
+      <c r="H51" s="7">
+        <v>87</v>
+      </c>
       <c r="I51" s="7"/>
       <c r="J51" s="6">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>85.666666666666671</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J48">
-    <sortState ref="A5:L44">
+  <autoFilter ref="A2:J48" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:L44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -7664,8 +7766,8 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
+++ b/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\Class Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E32A80-3D85-4951-8EDF-A67E6F954C61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2894F3-4D06-485E-AF3E-CAB25BF03986}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6175,8 +6175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6283,12 +6283,12 @@
         <v>87</v>
       </c>
       <c r="H4" s="7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="6">
         <f>AVERAGE(F4:I4)</f>
-        <v>86.333333333333329</v>
+        <v>87.666666666666671</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6314,12 +6314,12 @@
         <v>69</v>
       </c>
       <c r="H5" s="7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="6">
         <f>AVERAGE(F5:I5)</f>
-        <v>75.333333333333329</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6376,12 +6376,12 @@
         <v>80</v>
       </c>
       <c r="H7" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="6">
         <f>AVERAGE(F7:I7)</f>
-        <v>85.333333333333329</v>
+        <v>85.666666666666671</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6407,7 +6407,7 @@
         <v>80</v>
       </c>
       <c r="H8" s="7">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="6">
@@ -6438,12 +6438,12 @@
         <v>87</v>
       </c>
       <c r="H9" s="7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="6">
         <f>AVERAGE(F9:I9)</f>
-        <v>89.333333333333329</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6469,12 +6469,12 @@
         <v>69</v>
       </c>
       <c r="H10" s="7">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="6">
         <f>AVERAGE(F10:I10)</f>
-        <v>82.666666666666671</v>
+        <v>83.666666666666671</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6500,12 +6500,12 @@
         <v>69</v>
       </c>
       <c r="H11" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="6">
         <f>AVERAGE(F11:I11)</f>
-        <v>74.333333333333329</v>
+        <v>74.666666666666671</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6531,12 +6531,12 @@
         <v>80</v>
       </c>
       <c r="H12" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="6">
         <f>AVERAGE(F12:I12)</f>
-        <v>78</v>
+        <v>78.333333333333329</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6562,12 +6562,12 @@
         <v>69</v>
       </c>
       <c r="H13" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="6">
         <f t="shared" ref="J13:J51" si="0">AVERAGE(F13:I13)</f>
-        <v>78</v>
+        <v>78.333333333333329</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6624,12 +6624,12 @@
         <v>69</v>
       </c>
       <c r="H15" s="7">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="6">
         <f t="shared" si="0"/>
-        <v>85.333333333333329</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6655,12 +6655,12 @@
         <v>87</v>
       </c>
       <c r="H16" s="7">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="6">
         <f t="shared" si="0"/>
-        <v>75.333333333333329</v>
+        <v>76.333333333333329</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6686,12 +6686,12 @@
         <v>80</v>
       </c>
       <c r="H17" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="6">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>78.333333333333329</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6717,12 +6717,12 @@
         <v>93</v>
       </c>
       <c r="H18" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="6">
         <f t="shared" si="0"/>
-        <v>90.333333333333329</v>
+        <v>91.666666666666671</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6748,12 +6748,12 @@
         <v>69</v>
       </c>
       <c r="H19" s="7">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="6">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>76.333333333333329</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6779,12 +6779,12 @@
         <v>75</v>
       </c>
       <c r="H20" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="6">
         <f t="shared" si="0"/>
-        <v>76.666666666666671</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6810,12 +6810,12 @@
         <v>87</v>
       </c>
       <c r="H21" s="7">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="6">
         <f t="shared" si="0"/>
-        <v>87.333333333333329</v>
+        <v>88.666666666666671</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6841,12 +6841,12 @@
         <v>87</v>
       </c>
       <c r="H22" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="6">
         <f t="shared" si="0"/>
-        <v>85.666666666666671</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6872,12 +6872,12 @@
         <v>87</v>
       </c>
       <c r="H23" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="6">
         <f t="shared" si="0"/>
-        <v>82.666666666666671</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6903,12 +6903,12 @@
         <v>93</v>
       </c>
       <c r="H24" s="7">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="6">
         <f t="shared" si="0"/>
-        <v>87.666666666666671</v>
+        <v>88.666666666666671</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6934,12 +6934,12 @@
         <v>87</v>
       </c>
       <c r="H25" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="6">
         <f t="shared" si="0"/>
-        <v>80.666666666666671</v>
+        <v>80.333333333333329</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6965,12 +6965,12 @@
         <v>87</v>
       </c>
       <c r="H26" s="7">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="6">
         <f t="shared" si="0"/>
-        <v>83.333333333333329</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6996,12 +6996,12 @@
         <v>80</v>
       </c>
       <c r="H27" s="7">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="6">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7058,12 +7058,12 @@
         <v>87</v>
       </c>
       <c r="H29" s="7">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="6">
         <f t="shared" si="0"/>
-        <v>87.333333333333329</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7089,12 +7089,12 @@
         <v>87</v>
       </c>
       <c r="H30" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="6">
         <f t="shared" si="0"/>
-        <v>86.333333333333329</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7120,12 +7120,12 @@
         <v>87</v>
       </c>
       <c r="H31" s="7">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>93.666666666666671</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7151,12 +7151,12 @@
         <v>56</v>
       </c>
       <c r="H32" s="7">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="6">
         <f t="shared" si="0"/>
-        <v>69.666666666666671</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7182,12 +7182,12 @@
         <v>87</v>
       </c>
       <c r="H33" s="7">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="6">
         <f t="shared" si="0"/>
-        <v>89.666666666666671</v>
+        <v>88.666666666666671</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7213,12 +7213,12 @@
         <v>80</v>
       </c>
       <c r="H34" s="7">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="6">
         <f t="shared" si="0"/>
-        <v>73.666666666666671</v>
+        <v>74.333333333333329</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7244,12 +7244,12 @@
         <v>62</v>
       </c>
       <c r="H35" s="7">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="6">
         <f t="shared" si="0"/>
-        <v>73.666666666666671</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7275,12 +7275,12 @@
         <v>75</v>
       </c>
       <c r="H36" s="7">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="6">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>88.666666666666671</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7306,12 +7306,12 @@
         <v>93</v>
       </c>
       <c r="H37" s="7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="6">
         <f t="shared" si="0"/>
-        <v>91.666666666666671</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7337,12 +7337,12 @@
         <v>75</v>
       </c>
       <c r="H38" s="7">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="6">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>84.333333333333329</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7399,12 +7399,12 @@
         <v>62</v>
       </c>
       <c r="H40" s="7">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="6">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>77.333333333333329</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7430,12 +7430,12 @@
         <v>87</v>
       </c>
       <c r="H41" s="7">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="6">
         <f t="shared" si="0"/>
-        <v>75.666666666666671</v>
+        <v>77.333333333333329</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7461,12 +7461,12 @@
         <v>75</v>
       </c>
       <c r="H42" s="7">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="6">
         <f t="shared" si="0"/>
-        <v>80.666666666666671</v>
+        <v>81.333333333333329</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7492,12 +7492,12 @@
         <v>93</v>
       </c>
       <c r="H43" s="7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="6">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>87.666666666666671</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7523,12 +7523,12 @@
         <v>56</v>
       </c>
       <c r="H44" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="6">
         <f t="shared" si="0"/>
-        <v>75.666666666666671</v>
+        <v>75.333333333333329</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7554,12 +7554,12 @@
         <v>75</v>
       </c>
       <c r="H45" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="6">
         <f t="shared" si="0"/>
-        <v>77.333333333333329</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7585,12 +7585,12 @@
         <v>87</v>
       </c>
       <c r="H46" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="6">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>84.333333333333329</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7616,12 +7616,12 @@
         <v>62</v>
       </c>
       <c r="H47" s="7">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="6">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>77.333333333333329</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7647,12 +7647,12 @@
         <v>87</v>
       </c>
       <c r="H48" s="7">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="6">
         <f t="shared" si="0"/>
-        <v>89.666666666666671</v>
+        <v>91.333333333333329</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7678,12 +7678,12 @@
         <v>80</v>
       </c>
       <c r="H49" s="7">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="6">
         <f t="shared" si="0"/>
-        <v>76.666666666666671</v>
+        <v>77.333333333333329</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7709,12 +7709,12 @@
         <v>87</v>
       </c>
       <c r="H50" s="7">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="6">
         <f t="shared" si="0"/>
-        <v>84.333333333333329</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7740,12 +7740,12 @@
         <v>80</v>
       </c>
       <c r="H51" s="7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="6">
         <f t="shared" si="0"/>
-        <v>85.666666666666671</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
+++ b/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\Class Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2894F3-4D06-485E-AF3E-CAB25BF03986}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4386CB73-5D8B-4AFF-85F8-E9A632F41A4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="2" r:id="rId1"/>
@@ -4668,8 +4668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4773,13 +4773,15 @@
         <v>0</v>
       </c>
       <c r="G4" s="7">
-        <v>60</v>
-      </c>
-      <c r="H4" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="6">
         <f>AVERAGE(F4:I4)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4804,11 +4806,13 @@
       <c r="G5" s="7">
         <v>73</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7">
+        <v>93</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="J5" s="6">
         <f>AVERAGE(F5:I5)</f>
-        <v>76.5</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4833,11 +4837,13 @@
       <c r="G6" s="7">
         <v>73</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7">
+        <v>73</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="6">
         <f>AVERAGE(F6:I6)</f>
-        <v>76.5</v>
+        <v>75.333333333333329</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4862,11 +4868,13 @@
       <c r="G7" s="7">
         <v>73</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7">
+        <v>91</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="6">
         <f>AVERAGE(F7:I7)</f>
-        <v>86.5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4891,7 +4899,9 @@
       <c r="G8" s="7">
         <v>60</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7">
+        <v>85</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="6">
         <f>AVERAGE(F8,G8)</f>
@@ -4920,11 +4930,13 @@
       <c r="G9" s="7">
         <v>80</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7">
+        <v>92</v>
+      </c>
       <c r="I9" s="7"/>
       <c r="J9" s="6">
         <f>AVERAGE(F9:I9)</f>
-        <v>90</v>
+        <v>90.666666666666671</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4949,11 +4961,13 @@
       <c r="G10" s="7">
         <v>87</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7">
+        <v>92</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="6">
         <f>AVERAGE(F10:I10)</f>
-        <v>88.5</v>
+        <v>89.666666666666671</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4978,11 +4992,13 @@
       <c r="G11" s="7">
         <v>87</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7">
+        <v>95</v>
+      </c>
       <c r="I11" s="7"/>
       <c r="J11" s="6">
         <f>AVERAGE(F11:I11)</f>
-        <v>88.5</v>
+        <v>90.666666666666671</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5007,7 +5023,9 @@
       <c r="G12" s="7">
         <v>80</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7">
+        <v>85</v>
+      </c>
       <c r="I12" s="7"/>
       <c r="J12" s="6">
         <f>AVERAGE(F12:I12)</f>
@@ -5065,11 +5083,13 @@
       <c r="G14" s="7">
         <v>87</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7">
+        <v>78</v>
+      </c>
       <c r="I14" s="7"/>
       <c r="J14" s="6">
         <f t="shared" si="0"/>
-        <v>93.5</v>
+        <v>88.333333333333329</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5094,11 +5114,13 @@
       <c r="G15" s="7">
         <v>87</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7">
+        <v>93</v>
+      </c>
       <c r="I15" s="7"/>
       <c r="J15" s="6">
         <f t="shared" si="0"/>
-        <v>83.5</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5123,11 +5145,13 @@
       <c r="G16" s="7">
         <v>87</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="7">
+        <v>83</v>
+      </c>
       <c r="I16" s="7"/>
       <c r="J16" s="6">
         <f t="shared" si="0"/>
-        <v>88.5</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5152,11 +5176,13 @@
       <c r="G17" s="7">
         <v>93</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="7">
+        <v>76</v>
+      </c>
       <c r="I17" s="7"/>
       <c r="J17" s="6">
         <f t="shared" si="0"/>
-        <v>86.5</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5181,11 +5207,13 @@
       <c r="G18" s="7">
         <v>87</v>
       </c>
-      <c r="H18" s="7"/>
+      <c r="H18" s="7">
+        <v>89</v>
+      </c>
       <c r="I18" s="7"/>
       <c r="J18" s="6">
         <f t="shared" si="0"/>
-        <v>88.5</v>
+        <v>88.666666666666671</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5210,11 +5238,13 @@
       <c r="G19" s="7">
         <v>73</v>
       </c>
-      <c r="H19" s="7"/>
+      <c r="H19" s="7">
+        <v>82</v>
+      </c>
       <c r="I19" s="7"/>
       <c r="J19" s="6">
         <f t="shared" si="0"/>
-        <v>81.5</v>
+        <v>81.666666666666671</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5239,11 +5269,13 @@
       <c r="G20" s="7">
         <v>80</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="H20" s="7">
+        <v>89</v>
+      </c>
       <c r="I20" s="7"/>
       <c r="J20" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>89.666666666666671</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5268,11 +5300,13 @@
       <c r="G21" s="7">
         <v>80</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="7">
+        <v>91</v>
+      </c>
       <c r="I21" s="7"/>
       <c r="J21" s="6">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5326,11 +5360,13 @@
       <c r="G23" s="7">
         <v>87</v>
       </c>
-      <c r="H23" s="7"/>
+      <c r="H23" s="7">
+        <v>91</v>
+      </c>
       <c r="I23" s="7"/>
       <c r="J23" s="6">
         <f t="shared" si="0"/>
-        <v>88.5</v>
+        <v>89.333333333333329</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5355,11 +5391,13 @@
       <c r="G24" s="7">
         <v>87</v>
       </c>
-      <c r="H24" s="7"/>
+      <c r="H24" s="7">
+        <v>97</v>
+      </c>
       <c r="I24" s="7"/>
       <c r="J24" s="6">
         <f t="shared" si="0"/>
-        <v>93.5</v>
+        <v>94.666666666666671</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5384,11 +5422,13 @@
       <c r="G25" s="7">
         <v>87</v>
       </c>
-      <c r="H25" s="7"/>
+      <c r="H25" s="7">
+        <v>98</v>
+      </c>
       <c r="I25" s="7"/>
       <c r="J25" s="6">
         <f t="shared" si="0"/>
-        <v>88.5</v>
+        <v>91.666666666666671</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5413,11 +5453,13 @@
       <c r="G26" s="7">
         <v>80</v>
       </c>
-      <c r="H26" s="7"/>
+      <c r="H26" s="7">
+        <v>89</v>
+      </c>
       <c r="I26" s="7"/>
       <c r="J26" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>89.666666666666671</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5442,11 +5484,13 @@
       <c r="G27" s="7">
         <v>87</v>
       </c>
-      <c r="H27" s="7"/>
+      <c r="H27" s="7">
+        <v>84</v>
+      </c>
       <c r="I27" s="7"/>
       <c r="J27" s="6">
         <f t="shared" si="0"/>
-        <v>93.5</v>
+        <v>90.333333333333329</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5471,11 +5515,13 @@
       <c r="G28" s="7">
         <v>87</v>
       </c>
-      <c r="H28" s="7"/>
+      <c r="H28" s="7">
+        <v>84</v>
+      </c>
       <c r="I28" s="7"/>
       <c r="J28" s="6">
         <f t="shared" si="0"/>
-        <v>88.5</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5558,11 +5604,13 @@
       <c r="G31" s="7">
         <v>87</v>
       </c>
-      <c r="H31" s="7"/>
+      <c r="H31" s="7">
+        <v>94</v>
+      </c>
       <c r="I31" s="7"/>
       <c r="J31" s="6">
         <f t="shared" si="0"/>
-        <v>88.5</v>
+        <v>90.333333333333329</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5587,11 +5635,13 @@
       <c r="G32" s="7">
         <v>60</v>
       </c>
-      <c r="H32" s="7"/>
+      <c r="H32" s="7">
+        <v>85</v>
+      </c>
       <c r="I32" s="7"/>
       <c r="J32" s="6">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5616,11 +5666,13 @@
       <c r="G33" s="7">
         <v>87</v>
       </c>
-      <c r="H33" s="7"/>
+      <c r="H33" s="7">
+        <v>90</v>
+      </c>
       <c r="I33" s="7"/>
       <c r="J33" s="6">
         <f t="shared" si="0"/>
-        <v>88.5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5645,11 +5697,13 @@
       <c r="G34" s="7">
         <v>87</v>
       </c>
-      <c r="H34" s="7"/>
+      <c r="H34" s="7">
+        <v>84</v>
+      </c>
       <c r="I34" s="7"/>
       <c r="J34" s="6">
         <f t="shared" si="0"/>
-        <v>93.5</v>
+        <v>90.333333333333329</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5674,11 +5728,13 @@
       <c r="G35" s="7">
         <v>67</v>
       </c>
-      <c r="H35" s="7"/>
+      <c r="H35" s="7">
+        <v>90</v>
+      </c>
       <c r="I35" s="7"/>
       <c r="J35" s="6">
         <f t="shared" si="0"/>
-        <v>83.5</v>
+        <v>85.666666666666671</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5703,11 +5759,13 @@
       <c r="G36" s="7">
         <v>87</v>
       </c>
-      <c r="H36" s="7"/>
+      <c r="H36" s="7">
+        <v>86</v>
+      </c>
       <c r="I36" s="7"/>
       <c r="J36" s="6">
         <f t="shared" si="0"/>
-        <v>88.5</v>
+        <v>87.666666666666671</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5761,11 +5819,13 @@
       <c r="G38" s="7">
         <v>67</v>
       </c>
-      <c r="H38" s="7"/>
+      <c r="H38" s="7">
+        <v>93</v>
+      </c>
       <c r="I38" s="7"/>
       <c r="J38" s="6">
         <f t="shared" si="0"/>
-        <v>78.5</v>
+        <v>83.333333333333329</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5790,11 +5850,13 @@
       <c r="G39" s="7">
         <v>73</v>
       </c>
-      <c r="H39" s="7"/>
+      <c r="H39" s="7">
+        <v>95</v>
+      </c>
       <c r="I39" s="7"/>
       <c r="J39" s="6">
         <f t="shared" si="0"/>
-        <v>86.5</v>
+        <v>89.333333333333329</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5819,11 +5881,13 @@
       <c r="G40" s="7">
         <v>67</v>
       </c>
-      <c r="H40" s="7"/>
+      <c r="H40" s="7">
+        <v>91</v>
+      </c>
       <c r="I40" s="7"/>
       <c r="J40" s="6">
         <f t="shared" si="0"/>
-        <v>73.5</v>
+        <v>79.333333333333329</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5848,11 +5912,13 @@
       <c r="G41" s="7">
         <v>80</v>
       </c>
-      <c r="H41" s="7"/>
+      <c r="H41" s="7">
+        <v>94</v>
+      </c>
       <c r="I41" s="7"/>
       <c r="J41" s="6">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>84.666666666666671</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5877,11 +5943,13 @@
       <c r="G42" s="7">
         <v>73</v>
       </c>
-      <c r="H42" s="7"/>
+      <c r="H42" s="7">
+        <v>82</v>
+      </c>
       <c r="I42" s="7"/>
       <c r="J42" s="6">
         <f t="shared" si="0"/>
-        <v>81.5</v>
+        <v>81.666666666666671</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5906,11 +5974,13 @@
       <c r="G43" s="7">
         <v>73</v>
       </c>
-      <c r="H43" s="7"/>
+      <c r="H43" s="7">
+        <v>93</v>
+      </c>
       <c r="I43" s="7"/>
       <c r="J43" s="6">
         <f t="shared" si="0"/>
-        <v>86.5</v>
+        <v>88.666666666666671</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5935,11 +6005,13 @@
       <c r="G44" s="7">
         <v>60</v>
       </c>
-      <c r="H44" s="7"/>
+      <c r="H44" s="7">
+        <v>82</v>
+      </c>
       <c r="I44" s="7"/>
       <c r="J44" s="6">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5964,11 +6036,13 @@
       <c r="G45" s="7">
         <v>87</v>
       </c>
-      <c r="H45" s="7"/>
+      <c r="H45" s="7">
+        <v>94</v>
+      </c>
       <c r="I45" s="7"/>
       <c r="J45" s="6">
         <f t="shared" si="0"/>
-        <v>93.5</v>
+        <v>93.666666666666671</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5993,11 +6067,13 @@
       <c r="G46" s="7">
         <v>80</v>
       </c>
-      <c r="H46" s="7"/>
+      <c r="H46" s="7">
+        <v>89</v>
+      </c>
       <c r="I46" s="7"/>
       <c r="J46" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>89.666666666666671</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6022,11 +6098,13 @@
       <c r="G47" s="7">
         <v>87</v>
       </c>
-      <c r="H47" s="7"/>
+      <c r="H47" s="7">
+        <v>99</v>
+      </c>
       <c r="I47" s="7"/>
       <c r="J47" s="6">
         <f t="shared" si="0"/>
-        <v>93.5</v>
+        <v>95.333333333333329</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6051,11 +6129,13 @@
       <c r="G48" s="7">
         <v>80</v>
       </c>
-      <c r="H48" s="7"/>
+      <c r="H48" s="7">
+        <v>91</v>
+      </c>
       <c r="I48" s="7"/>
       <c r="J48" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>90.333333333333329</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6080,11 +6160,13 @@
       <c r="G49" s="7">
         <v>80</v>
       </c>
-      <c r="H49" s="7"/>
+      <c r="H49" s="7">
+        <v>98</v>
+      </c>
       <c r="I49" s="7"/>
       <c r="J49" s="6">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>82.666666666666671</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6109,11 +6191,13 @@
       <c r="G50" s="7">
         <v>87</v>
       </c>
-      <c r="H50" s="7"/>
+      <c r="H50" s="7">
+        <v>95</v>
+      </c>
       <c r="I50" s="7"/>
       <c r="J50" s="6">
         <f t="shared" si="0"/>
-        <v>93.5</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6138,11 +6222,13 @@
       <c r="G51" s="7">
         <v>60</v>
       </c>
-      <c r="H51" s="7"/>
+      <c r="H51" s="7">
+        <v>79</v>
+      </c>
       <c r="I51" s="7"/>
       <c r="J51" s="6">
         <f t="shared" ref="J51" si="1">AVERAGE(F51:I51)</f>
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -6175,7 +6261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="C10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>

--- a/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
+++ b/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\Class Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4386CB73-5D8B-4AFF-85F8-E9A632F41A4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A50BA3A-5A75-48F2-B64A-85F7E18F9908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="2" r:id="rId1"/>
@@ -4668,8 +4668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4931,12 +4931,12 @@
         <v>80</v>
       </c>
       <c r="H9" s="7">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="6">
         <f>AVERAGE(F9:I9)</f>
-        <v>90.666666666666671</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5270,12 +5270,12 @@
         <v>80</v>
       </c>
       <c r="H20" s="7">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="6">
         <f t="shared" si="0"/>
-        <v>89.666666666666671</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5636,12 +5636,12 @@
         <v>60</v>
       </c>
       <c r="H32" s="7">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="6">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>70.666666666666671</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5667,12 +5667,12 @@
         <v>87</v>
       </c>
       <c r="H33" s="7">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="6">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>86.333333333333329</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5851,12 +5851,12 @@
         <v>73</v>
       </c>
       <c r="H39" s="7">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="6">
         <f t="shared" si="0"/>
-        <v>89.333333333333329</v>
+        <v>82.666666666666671</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6068,12 +6068,12 @@
         <v>80</v>
       </c>
       <c r="H46" s="7">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="6">
         <f t="shared" si="0"/>
-        <v>89.666666666666671</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6261,8 +6261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6617,12 +6617,12 @@
         <v>80</v>
       </c>
       <c r="H12" s="7">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="6">
         <f>AVERAGE(F12:I12)</f>
-        <v>78.333333333333329</v>
+        <v>80.666666666666671</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7020,12 +7020,12 @@
         <v>87</v>
       </c>
       <c r="H25" s="7">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="6">
         <f t="shared" si="0"/>
-        <v>80.333333333333329</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7299,12 +7299,12 @@
         <v>80</v>
       </c>
       <c r="H34" s="7">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="6">
-        <f t="shared" si="0"/>
-        <v>74.333333333333329</v>
+        <f>AVERAGE(F34:I34)</f>
+        <v>77.333333333333329</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">

--- a/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
+++ b/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\Class Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A50BA3A-5A75-48F2-B64A-85F7E18F9908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2DFC83-A124-4A16-93E4-09971AC80C59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="2" r:id="rId1"/>
@@ -4668,8 +4668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5054,11 +5054,13 @@
       <c r="G13" s="7">
         <v>57</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7">
+        <v>98</v>
+      </c>
       <c r="I13" s="7"/>
       <c r="J13" s="6">
         <f t="shared" ref="J13:J50" si="0">AVERAGE(F13:I13)</f>
-        <v>78.5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5331,11 +5333,13 @@
       <c r="G22" s="7">
         <v>80</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="7">
+        <v>96</v>
+      </c>
       <c r="I22" s="7"/>
       <c r="J22" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5546,11 +5550,13 @@
       <c r="G29" s="7">
         <v>93</v>
       </c>
-      <c r="H29" s="7"/>
+      <c r="H29" s="7">
+        <v>96</v>
+      </c>
       <c r="I29" s="7"/>
       <c r="J29" s="6">
         <f t="shared" si="0"/>
-        <v>96.5</v>
+        <v>96.333333333333329</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5575,11 +5581,13 @@
       <c r="G30" s="7">
         <v>80</v>
       </c>
-      <c r="H30" s="7"/>
+      <c r="H30" s="7">
+        <v>97</v>
+      </c>
       <c r="I30" s="7"/>
       <c r="J30" s="6">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>85.666666666666671</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5790,11 +5798,13 @@
       <c r="G37" s="7">
         <v>73</v>
       </c>
-      <c r="H37" s="7"/>
+      <c r="H37" s="7">
+        <v>97</v>
+      </c>
       <c r="I37" s="7"/>
       <c r="J37" s="6">
         <f t="shared" si="0"/>
-        <v>86.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6261,7 +6271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>

--- a/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
+++ b/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\Class Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2DFC83-A124-4A16-93E4-09971AC80C59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C076E4-BD05-4F08-948F-C9A925A4A03D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="2" r:id="rId1"/>
@@ -4668,7 +4668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
@@ -6271,8 +6271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7241,10 +7241,10 @@
         <v>173</v>
       </c>
       <c r="F32" s="7">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G32" s="7">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="H32" s="7">
         <v>97</v>
@@ -7252,7 +7252,7 @@
       <c r="I32" s="7"/>
       <c r="J32" s="6">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">

--- a/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
+++ b/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\Class Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C076E4-BD05-4F08-948F-C9A925A4A03D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E788EF3-B84A-4CF0-B9A3-CE3B3E99D5CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6271,8 +6271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6379,12 +6379,12 @@
         <v>87</v>
       </c>
       <c r="H4" s="7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="6">
         <f>AVERAGE(F4:I4)</f>
-        <v>87.666666666666671</v>
+        <v>87.333333333333329</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7557,12 +7557,12 @@
         <v>75</v>
       </c>
       <c r="H42" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="6">
         <f t="shared" si="0"/>
-        <v>81.333333333333329</v>
+        <v>81.666666666666671</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">

--- a/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
+++ b/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\Class Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E788EF3-B84A-4CF0-B9A3-CE3B3E99D5CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D35436-451B-4046-B9FA-733FACF90310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="2" r:id="rId1"/>
@@ -4668,8 +4668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5179,12 +5179,12 @@
         <v>93</v>
       </c>
       <c r="H17" s="7">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="6">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>84.333333333333329</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6271,7 +6271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="C25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>

--- a/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
+++ b/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\Class Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D35436-451B-4046-B9FA-733FACF90310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2247D9-4568-49E2-BE4F-0155C2B28DD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="381">
   <si>
     <t>No</t>
   </si>
@@ -1683,7 +1683,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -4669,7 +4669,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H4" sqref="H4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4677,10 +4677,11 @@
     <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="8" width="11.125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="4" customWidth="1"/>
     <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -4745,11 +4746,11 @@
       <c r="G3" s="3">
         <v>44131</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>12</v>
+      <c r="H3" s="3">
+        <v>44171</v>
+      </c>
+      <c r="I3" s="3">
+        <v>44183</v>
       </c>
       <c r="J3" s="11"/>
     </row>
@@ -4778,7 +4779,9 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="6">
         <f>AVERAGE(F4:I4)</f>
         <v>0</v>
@@ -4809,10 +4812,12 @@
       <c r="H5" s="7">
         <v>93</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>100</v>
+      </c>
       <c r="J5" s="6">
         <f>AVERAGE(F5:I5)</f>
-        <v>82</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4840,10 +4845,12 @@
       <c r="H6" s="7">
         <v>73</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>100</v>
+      </c>
       <c r="J6" s="6">
         <f>AVERAGE(F6:I6)</f>
-        <v>75.333333333333329</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4871,10 +4878,12 @@
       <c r="H7" s="7">
         <v>91</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7">
+        <v>100</v>
+      </c>
       <c r="J7" s="6">
         <f>AVERAGE(F7:I7)</f>
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4902,7 +4911,9 @@
       <c r="H8" s="7">
         <v>85</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7">
+        <v>100</v>
+      </c>
       <c r="J8" s="6">
         <f>AVERAGE(F8,G8)</f>
         <v>80</v>
@@ -4933,10 +4944,12 @@
       <c r="H9" s="7">
         <v>72</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7">
+        <v>90</v>
+      </c>
       <c r="J9" s="6">
         <f>AVERAGE(F9:I9)</f>
-        <v>84</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4964,10 +4977,12 @@
       <c r="H10" s="7">
         <v>92</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7">
+        <v>100</v>
+      </c>
       <c r="J10" s="6">
         <f>AVERAGE(F10:I10)</f>
-        <v>89.666666666666671</v>
+        <v>92.25</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -4995,10 +5010,12 @@
       <c r="H11" s="7">
         <v>95</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="7">
+        <v>100</v>
+      </c>
       <c r="J11" s="6">
         <f>AVERAGE(F11:I11)</f>
-        <v>90.666666666666671</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5026,10 +5043,12 @@
       <c r="H12" s="7">
         <v>85</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7">
+        <v>90</v>
+      </c>
       <c r="J12" s="6">
         <f>AVERAGE(F12:I12)</f>
-        <v>85</v>
+        <v>86.25</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5057,10 +5076,12 @@
       <c r="H13" s="7">
         <v>98</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7">
+        <v>100</v>
+      </c>
       <c r="J13" s="6">
         <f t="shared" ref="J13:J50" si="0">AVERAGE(F13:I13)</f>
-        <v>85</v>
+        <v>88.75</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5088,10 +5109,12 @@
       <c r="H14" s="7">
         <v>78</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="7">
+        <v>100</v>
+      </c>
       <c r="J14" s="6">
         <f t="shared" si="0"/>
-        <v>88.333333333333329</v>
+        <v>91.25</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5119,10 +5142,12 @@
       <c r="H15" s="7">
         <v>93</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="7">
+        <v>100</v>
+      </c>
       <c r="J15" s="6">
         <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5150,10 +5175,12 @@
       <c r="H16" s="7">
         <v>83</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="7">
+        <v>100</v>
+      </c>
       <c r="J16" s="6">
         <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5181,10 +5208,12 @@
       <c r="H17" s="7">
         <v>80</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="7">
+        <v>100</v>
+      </c>
       <c r="J17" s="6">
         <f t="shared" si="0"/>
-        <v>84.333333333333329</v>
+        <v>88.25</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5212,10 +5241,12 @@
       <c r="H18" s="7">
         <v>89</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="7">
+        <v>90</v>
+      </c>
       <c r="J18" s="6">
         <f t="shared" si="0"/>
-        <v>88.666666666666671</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5243,10 +5274,12 @@
       <c r="H19" s="7">
         <v>82</v>
       </c>
-      <c r="I19" s="7"/>
+      <c r="I19" s="7">
+        <v>80</v>
+      </c>
       <c r="J19" s="6">
         <f t="shared" si="0"/>
-        <v>81.666666666666671</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5274,10 +5307,12 @@
       <c r="H20" s="7">
         <v>72</v>
       </c>
-      <c r="I20" s="7"/>
+      <c r="I20" s="7">
+        <v>100</v>
+      </c>
       <c r="J20" s="6">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5305,10 +5340,12 @@
       <c r="H21" s="7">
         <v>91</v>
       </c>
-      <c r="I21" s="7"/>
+      <c r="I21" s="7">
+        <v>100</v>
+      </c>
       <c r="J21" s="6">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>90.25</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5336,10 +5373,12 @@
       <c r="H22" s="7">
         <v>96</v>
       </c>
-      <c r="I22" s="7"/>
+      <c r="I22" s="7">
+        <v>100</v>
+      </c>
       <c r="J22" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5367,10 +5406,12 @@
       <c r="H23" s="7">
         <v>91</v>
       </c>
-      <c r="I23" s="7"/>
+      <c r="I23" s="7">
+        <v>100</v>
+      </c>
       <c r="J23" s="6">
         <f t="shared" si="0"/>
-        <v>89.333333333333329</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5398,10 +5439,12 @@
       <c r="H24" s="7">
         <v>97</v>
       </c>
-      <c r="I24" s="7"/>
+      <c r="I24" s="7">
+        <v>100</v>
+      </c>
       <c r="J24" s="6">
         <f t="shared" si="0"/>
-        <v>94.666666666666671</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5429,10 +5472,12 @@
       <c r="H25" s="7">
         <v>98</v>
       </c>
-      <c r="I25" s="7"/>
+      <c r="I25" s="7">
+        <v>90</v>
+      </c>
       <c r="J25" s="6">
         <f t="shared" si="0"/>
-        <v>91.666666666666671</v>
+        <v>91.25</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5460,10 +5505,12 @@
       <c r="H26" s="7">
         <v>89</v>
       </c>
-      <c r="I26" s="7"/>
+      <c r="I26" s="7">
+        <v>100</v>
+      </c>
       <c r="J26" s="6">
         <f t="shared" si="0"/>
-        <v>89.666666666666671</v>
+        <v>92.25</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5491,10 +5538,12 @@
       <c r="H27" s="7">
         <v>84</v>
       </c>
-      <c r="I27" s="7"/>
+      <c r="I27" s="7">
+        <v>100</v>
+      </c>
       <c r="J27" s="6">
         <f t="shared" si="0"/>
-        <v>90.333333333333329</v>
+        <v>92.75</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5522,10 +5571,12 @@
       <c r="H28" s="7">
         <v>84</v>
       </c>
-      <c r="I28" s="7"/>
+      <c r="I28" s="7">
+        <v>100</v>
+      </c>
       <c r="J28" s="6">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>90.25</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5553,10 +5604,12 @@
       <c r="H29" s="7">
         <v>96</v>
       </c>
-      <c r="I29" s="7"/>
+      <c r="I29" s="7">
+        <v>90</v>
+      </c>
       <c r="J29" s="6">
         <f t="shared" si="0"/>
-        <v>96.333333333333329</v>
+        <v>94.75</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5584,10 +5637,12 @@
       <c r="H30" s="7">
         <v>97</v>
       </c>
-      <c r="I30" s="7"/>
+      <c r="I30" s="7">
+        <v>80</v>
+      </c>
       <c r="J30" s="6">
         <f t="shared" si="0"/>
-        <v>85.666666666666671</v>
+        <v>84.25</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5615,10 +5670,12 @@
       <c r="H31" s="7">
         <v>94</v>
       </c>
-      <c r="I31" s="7"/>
+      <c r="I31" s="7">
+        <v>90</v>
+      </c>
       <c r="J31" s="6">
         <f t="shared" si="0"/>
-        <v>90.333333333333329</v>
+        <v>90.25</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5646,10 +5703,12 @@
       <c r="H32" s="7">
         <v>72</v>
       </c>
-      <c r="I32" s="7"/>
+      <c r="I32" s="7">
+        <v>100</v>
+      </c>
       <c r="J32" s="6">
         <f t="shared" si="0"/>
-        <v>70.666666666666671</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5677,10 +5736,12 @@
       <c r="H33" s="7">
         <v>82</v>
       </c>
-      <c r="I33" s="7"/>
+      <c r="I33" s="7">
+        <v>100</v>
+      </c>
       <c r="J33" s="6">
         <f t="shared" si="0"/>
-        <v>86.333333333333329</v>
+        <v>89.75</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5708,10 +5769,12 @@
       <c r="H34" s="7">
         <v>84</v>
       </c>
-      <c r="I34" s="7"/>
+      <c r="I34" s="7">
+        <v>100</v>
+      </c>
       <c r="J34" s="6">
         <f t="shared" si="0"/>
-        <v>90.333333333333329</v>
+        <v>92.75</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5739,10 +5802,12 @@
       <c r="H35" s="7">
         <v>90</v>
       </c>
-      <c r="I35" s="7"/>
+      <c r="I35" s="7">
+        <v>100</v>
+      </c>
       <c r="J35" s="6">
         <f t="shared" si="0"/>
-        <v>85.666666666666671</v>
+        <v>89.25</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5770,10 +5835,12 @@
       <c r="H36" s="7">
         <v>86</v>
       </c>
-      <c r="I36" s="7"/>
+      <c r="I36" s="7">
+        <v>90</v>
+      </c>
       <c r="J36" s="6">
         <f t="shared" si="0"/>
-        <v>87.666666666666671</v>
+        <v>88.25</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5801,10 +5868,12 @@
       <c r="H37" s="7">
         <v>97</v>
       </c>
-      <c r="I37" s="7"/>
+      <c r="I37" s="7">
+        <v>100</v>
+      </c>
       <c r="J37" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5832,10 +5901,12 @@
       <c r="H38" s="7">
         <v>93</v>
       </c>
-      <c r="I38" s="7"/>
+      <c r="I38" s="7">
+        <v>100</v>
+      </c>
       <c r="J38" s="6">
         <f t="shared" si="0"/>
-        <v>83.333333333333329</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5863,10 +5934,12 @@
       <c r="H39" s="7">
         <v>75</v>
       </c>
-      <c r="I39" s="7"/>
+      <c r="I39" s="7">
+        <v>100</v>
+      </c>
       <c r="J39" s="6">
         <f t="shared" si="0"/>
-        <v>82.666666666666671</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5894,10 +5967,12 @@
       <c r="H40" s="7">
         <v>91</v>
       </c>
-      <c r="I40" s="7"/>
+      <c r="I40" s="7">
+        <v>90</v>
+      </c>
       <c r="J40" s="6">
         <f t="shared" si="0"/>
-        <v>79.333333333333329</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5925,10 +6000,12 @@
       <c r="H41" s="7">
         <v>94</v>
       </c>
-      <c r="I41" s="7"/>
+      <c r="I41" s="7">
+        <v>100</v>
+      </c>
       <c r="J41" s="6">
         <f t="shared" si="0"/>
-        <v>84.666666666666671</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5956,10 +6033,12 @@
       <c r="H42" s="7">
         <v>82</v>
       </c>
-      <c r="I42" s="7"/>
+      <c r="I42" s="7">
+        <v>100</v>
+      </c>
       <c r="J42" s="6">
         <f t="shared" si="0"/>
-        <v>81.666666666666671</v>
+        <v>86.25</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -5987,10 +6066,12 @@
       <c r="H43" s="7">
         <v>93</v>
       </c>
-      <c r="I43" s="7"/>
+      <c r="I43" s="7">
+        <v>100</v>
+      </c>
       <c r="J43" s="6">
         <f t="shared" si="0"/>
-        <v>88.666666666666671</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6018,10 +6099,12 @@
       <c r="H44" s="7">
         <v>82</v>
       </c>
-      <c r="I44" s="7"/>
+      <c r="I44" s="7">
+        <v>90</v>
+      </c>
       <c r="J44" s="6">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6049,10 +6132,12 @@
       <c r="H45" s="7">
         <v>94</v>
       </c>
-      <c r="I45" s="7"/>
+      <c r="I45" s="7">
+        <v>100</v>
+      </c>
       <c r="J45" s="6">
         <f t="shared" si="0"/>
-        <v>93.666666666666671</v>
+        <v>95.25</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6080,10 +6165,12 @@
       <c r="H46" s="7">
         <v>72</v>
       </c>
-      <c r="I46" s="7"/>
+      <c r="I46" s="7">
+        <v>80</v>
+      </c>
       <c r="J46" s="6">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6111,10 +6198,12 @@
       <c r="H47" s="7">
         <v>99</v>
       </c>
-      <c r="I47" s="7"/>
+      <c r="I47" s="7">
+        <v>100</v>
+      </c>
       <c r="J47" s="6">
         <f t="shared" si="0"/>
-        <v>95.333333333333329</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6142,10 +6231,12 @@
       <c r="H48" s="7">
         <v>91</v>
       </c>
-      <c r="I48" s="7"/>
+      <c r="I48" s="7">
+        <v>100</v>
+      </c>
       <c r="J48" s="6">
         <f t="shared" si="0"/>
-        <v>90.333333333333329</v>
+        <v>92.75</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6173,10 +6264,12 @@
       <c r="H49" s="7">
         <v>98</v>
       </c>
-      <c r="I49" s="7"/>
+      <c r="I49" s="7">
+        <v>80</v>
+      </c>
       <c r="J49" s="6">
         <f t="shared" si="0"/>
-        <v>82.666666666666671</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6204,10 +6297,12 @@
       <c r="H50" s="7">
         <v>95</v>
       </c>
-      <c r="I50" s="7"/>
+      <c r="I50" s="7">
+        <v>100</v>
+      </c>
       <c r="J50" s="6">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6235,10 +6330,12 @@
       <c r="H51" s="7">
         <v>79</v>
       </c>
-      <c r="I51" s="7"/>
+      <c r="I51" s="7">
+        <v>90</v>
+      </c>
       <c r="J51" s="6">
         <f t="shared" ref="J51" si="1">AVERAGE(F51:I51)</f>
-        <v>73</v>
+        <v>77.25</v>
       </c>
     </row>
   </sheetData>
@@ -6271,8 +6368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="C25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6281,9 +6378,10 @@
     <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="8" width="11.125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="4" customWidth="1"/>
     <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -6351,8 +6449,8 @@
       <c r="H3" s="3">
         <v>44169</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>12</v>
+      <c r="I3" s="3">
+        <v>44183</v>
       </c>
       <c r="J3" s="11"/>
     </row>
@@ -6373,7 +6471,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="7">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7">
         <v>87</v>
@@ -6381,10 +6479,12 @@
       <c r="H4" s="7">
         <v>95</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>90</v>
+      </c>
       <c r="J4" s="6">
         <f>AVERAGE(F4:I4)</f>
-        <v>87.333333333333329</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6412,10 +6512,12 @@
       <c r="H5" s="7">
         <v>91</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>70</v>
+      </c>
       <c r="J5" s="6">
         <f>AVERAGE(F5:I5)</f>
-        <v>76.666666666666671</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6443,10 +6545,12 @@
       <c r="H6" s="7">
         <v>86</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>80</v>
+      </c>
       <c r="J6" s="6">
         <f>AVERAGE(F6:I6)</f>
-        <v>78.333333333333329</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6474,10 +6578,12 @@
       <c r="H7" s="7">
         <v>87</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7">
+        <v>90</v>
+      </c>
       <c r="J7" s="6">
         <f>AVERAGE(F7:I7)</f>
-        <v>85.666666666666671</v>
+        <v>86.75</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6505,7 +6611,9 @@
       <c r="H8" s="7">
         <v>92</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7">
+        <v>80</v>
+      </c>
       <c r="J8" s="6">
         <f>AVERAGE(F8,G8)</f>
         <v>80</v>
@@ -6536,10 +6644,12 @@
       <c r="H9" s="7">
         <v>90</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7">
+        <v>90</v>
+      </c>
       <c r="J9" s="6">
         <f>AVERAGE(F9:I9)</f>
-        <v>89</v>
+        <v>89.25</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6567,10 +6677,12 @@
       <c r="H10" s="7">
         <v>92</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7">
+        <v>90</v>
+      </c>
       <c r="J10" s="6">
         <f>AVERAGE(F10:I10)</f>
-        <v>83.666666666666671</v>
+        <v>85.25</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6598,10 +6710,12 @@
       <c r="H11" s="7">
         <v>85</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="7">
+        <v>70</v>
+      </c>
       <c r="J11" s="6">
         <f>AVERAGE(F11:I11)</f>
-        <v>74.666666666666671</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6629,10 +6743,12 @@
       <c r="H12" s="7">
         <v>72</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7">
+        <v>90</v>
+      </c>
       <c r="J12" s="6">
         <f>AVERAGE(F12:I12)</f>
-        <v>80.666666666666671</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6660,10 +6776,12 @@
       <c r="H13" s="7">
         <v>86</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7">
+        <v>80</v>
+      </c>
       <c r="J13" s="6">
         <f t="shared" ref="J13:J51" si="0">AVERAGE(F13:I13)</f>
-        <v>78.333333333333329</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6691,10 +6809,12 @@
       <c r="H14" s="7">
         <v>91</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="7">
+        <v>70</v>
+      </c>
       <c r="J14" s="6">
         <f t="shared" si="0"/>
-        <v>82.666666666666671</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6722,10 +6842,12 @@
       <c r="H15" s="7">
         <v>92</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="7">
+        <v>100</v>
+      </c>
       <c r="J15" s="6">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>90.25</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6753,10 +6875,12 @@
       <c r="H16" s="7">
         <v>82</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="7">
+        <v>70</v>
+      </c>
       <c r="J16" s="6">
         <f t="shared" si="0"/>
-        <v>76.333333333333329</v>
+        <v>74.75</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6784,10 +6908,12 @@
       <c r="H17" s="7">
         <v>85</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="7">
+        <v>70</v>
+      </c>
       <c r="J17" s="6">
         <f t="shared" si="0"/>
-        <v>78.333333333333329</v>
+        <v>76.25</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6815,10 +6941,12 @@
       <c r="H18" s="7">
         <v>92</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="7">
+        <v>90</v>
+      </c>
       <c r="J18" s="6">
         <f t="shared" si="0"/>
-        <v>91.666666666666671</v>
+        <v>91.25</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6846,10 +6974,12 @@
       <c r="H19" s="7">
         <v>80</v>
       </c>
-      <c r="I19" s="7"/>
+      <c r="I19" s="7">
+        <v>80</v>
+      </c>
       <c r="J19" s="6">
         <f t="shared" si="0"/>
-        <v>76.333333333333329</v>
+        <v>77.25</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6877,10 +7007,12 @@
       <c r="H20" s="7">
         <v>79</v>
       </c>
-      <c r="I20" s="7"/>
+      <c r="I20" s="7">
+        <v>80</v>
+      </c>
       <c r="J20" s="6">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6908,10 +7040,12 @@
       <c r="H21" s="7">
         <v>89</v>
       </c>
-      <c r="I21" s="7"/>
+      <c r="I21" s="7">
+        <v>90</v>
+      </c>
       <c r="J21" s="6">
         <f t="shared" si="0"/>
-        <v>88.666666666666671</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6939,10 +7073,12 @@
       <c r="H22" s="7">
         <v>81</v>
       </c>
-      <c r="I22" s="7"/>
+      <c r="I22" s="7">
+        <v>90</v>
+      </c>
       <c r="J22" s="6">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -6970,10 +7106,12 @@
       <c r="H23" s="7">
         <v>92</v>
       </c>
-      <c r="I23" s="7"/>
+      <c r="I23" s="7">
+        <v>70</v>
+      </c>
       <c r="J23" s="6">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>79.75</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7001,10 +7139,12 @@
       <c r="H24" s="7">
         <v>83</v>
       </c>
-      <c r="I24" s="7"/>
+      <c r="I24" s="7">
+        <v>90</v>
+      </c>
       <c r="J24" s="6">
         <f t="shared" si="0"/>
-        <v>88.666666666666671</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7032,10 +7172,12 @@
       <c r="H25" s="7">
         <v>72</v>
       </c>
-      <c r="I25" s="7"/>
+      <c r="I25" s="7">
+        <v>90</v>
+      </c>
       <c r="J25" s="6">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>84.75</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7063,10 +7205,12 @@
       <c r="H26" s="7">
         <v>85</v>
       </c>
-      <c r="I26" s="7"/>
+      <c r="I26" s="7">
+        <v>80</v>
+      </c>
       <c r="J26" s="6">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7094,10 +7238,12 @@
       <c r="H27" s="7">
         <v>91</v>
       </c>
-      <c r="I27" s="7"/>
+      <c r="I27" s="7">
+        <v>90</v>
+      </c>
       <c r="J27" s="6">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>87.75</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7125,10 +7271,12 @@
       <c r="H28" s="7">
         <v>70</v>
       </c>
-      <c r="I28" s="7"/>
+      <c r="I28" s="7">
+        <v>80</v>
+      </c>
       <c r="J28" s="6">
         <f t="shared" si="0"/>
-        <v>76.666666666666671</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7156,10 +7304,12 @@
       <c r="H29" s="7">
         <v>87</v>
       </c>
-      <c r="I29" s="7"/>
+      <c r="I29" s="7">
+        <v>90</v>
+      </c>
       <c r="J29" s="6">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7187,10 +7337,12 @@
       <c r="H30" s="7">
         <v>83</v>
       </c>
-      <c r="I30" s="7"/>
+      <c r="I30" s="7">
+        <v>90</v>
+      </c>
       <c r="J30" s="6">
         <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7218,10 +7370,12 @@
       <c r="H31" s="7">
         <v>94</v>
       </c>
-      <c r="I31" s="7"/>
+      <c r="I31" s="7">
+        <v>100</v>
+      </c>
       <c r="J31" s="6">
         <f t="shared" si="0"/>
-        <v>93.666666666666671</v>
+        <v>95.25</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7249,10 +7403,12 @@
       <c r="H32" s="7">
         <v>97</v>
       </c>
-      <c r="I32" s="7"/>
+      <c r="I32" s="7">
+        <v>100</v>
+      </c>
       <c r="J32" s="6">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>84.25</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7280,10 +7436,12 @@
       <c r="H33" s="7">
         <v>89</v>
       </c>
-      <c r="I33" s="7"/>
+      <c r="I33" s="7">
+        <v>90</v>
+      </c>
       <c r="J33" s="6">
         <f t="shared" si="0"/>
-        <v>88.666666666666671</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7311,10 +7469,12 @@
       <c r="H34" s="7">
         <v>72</v>
       </c>
-      <c r="I34" s="7"/>
+      <c r="I34" s="7">
+        <v>80</v>
+      </c>
       <c r="J34" s="6">
         <f>AVERAGE(F34:I34)</f>
-        <v>77.333333333333329</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7342,10 +7502,12 @@
       <c r="H35" s="7">
         <v>77</v>
       </c>
-      <c r="I35" s="7"/>
+      <c r="I35" s="7">
+        <v>80</v>
+      </c>
       <c r="J35" s="6">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>74.75</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7373,10 +7535,12 @@
       <c r="H36" s="7">
         <v>91</v>
       </c>
-      <c r="I36" s="7"/>
+      <c r="I36" s="7">
+        <v>100</v>
+      </c>
       <c r="J36" s="6">
         <f t="shared" si="0"/>
-        <v>88.666666666666671</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7404,10 +7568,12 @@
       <c r="H37" s="7">
         <v>96</v>
       </c>
-      <c r="I37" s="7"/>
+      <c r="I37" s="7">
+        <v>90</v>
+      </c>
       <c r="J37" s="6">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>92.25</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7435,10 +7601,12 @@
       <c r="H38" s="7">
         <v>88</v>
       </c>
-      <c r="I38" s="7"/>
+      <c r="I38" s="7">
+        <v>90</v>
+      </c>
       <c r="J38" s="6">
         <f t="shared" si="0"/>
-        <v>84.333333333333329</v>
+        <v>85.75</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7466,10 +7634,12 @@
       <c r="H39" s="7">
         <v>91</v>
       </c>
-      <c r="I39" s="7"/>
+      <c r="I39" s="7">
+        <v>90</v>
+      </c>
       <c r="J39" s="6">
         <f t="shared" si="0"/>
-        <v>89.333333333333329</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7497,10 +7667,12 @@
       <c r="H40" s="7">
         <v>90</v>
       </c>
-      <c r="I40" s="7"/>
+      <c r="I40" s="7">
+        <v>80</v>
+      </c>
       <c r="J40" s="6">
         <f t="shared" si="0"/>
-        <v>77.333333333333329</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7528,10 +7700,12 @@
       <c r="H41" s="7">
         <v>85</v>
       </c>
-      <c r="I41" s="7"/>
+      <c r="I41" s="7">
+        <v>70</v>
+      </c>
       <c r="J41" s="6">
         <f t="shared" si="0"/>
-        <v>77.333333333333329</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7559,10 +7733,12 @@
       <c r="H42" s="7">
         <v>90</v>
       </c>
-      <c r="I42" s="7"/>
+      <c r="I42" s="7">
+        <v>80</v>
+      </c>
       <c r="J42" s="6">
         <f t="shared" si="0"/>
-        <v>81.666666666666671</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7590,10 +7766,12 @@
       <c r="H43" s="7">
         <v>90</v>
       </c>
-      <c r="I43" s="7"/>
+      <c r="I43" s="7">
+        <v>80</v>
+      </c>
       <c r="J43" s="6">
         <f t="shared" si="0"/>
-        <v>87.666666666666671</v>
+        <v>85.75</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7621,10 +7799,12 @@
       <c r="H44" s="7">
         <v>80</v>
       </c>
-      <c r="I44" s="7"/>
+      <c r="I44" s="7">
+        <v>90</v>
+      </c>
       <c r="J44" s="6">
         <f t="shared" si="0"/>
-        <v>75.333333333333329</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7652,10 +7832,12 @@
       <c r="H45" s="7">
         <v>86</v>
       </c>
-      <c r="I45" s="7"/>
+      <c r="I45" s="7">
+        <v>70</v>
+      </c>
       <c r="J45" s="6">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>75.25</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7683,10 +7865,12 @@
       <c r="H46" s="7">
         <v>86</v>
       </c>
-      <c r="I46" s="7"/>
+      <c r="I46" s="7">
+        <v>80</v>
+      </c>
       <c r="J46" s="6">
         <f t="shared" si="0"/>
-        <v>84.333333333333329</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7714,10 +7898,12 @@
       <c r="H47" s="7">
         <v>80</v>
       </c>
-      <c r="I47" s="7"/>
+      <c r="I47" s="7">
+        <v>90</v>
+      </c>
       <c r="J47" s="6">
         <f t="shared" si="0"/>
-        <v>77.333333333333329</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7745,10 +7931,12 @@
       <c r="H48" s="7">
         <v>97</v>
       </c>
-      <c r="I48" s="7"/>
+      <c r="I48" s="7">
+        <v>90</v>
+      </c>
       <c r="J48" s="6">
         <f t="shared" si="0"/>
-        <v>91.333333333333329</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7776,10 +7964,12 @@
       <c r="H49" s="7">
         <v>82</v>
       </c>
-      <c r="I49" s="7"/>
+      <c r="I49" s="7">
+        <v>80</v>
+      </c>
       <c r="J49" s="6">
         <f t="shared" si="0"/>
-        <v>77.333333333333329</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7807,10 +7997,12 @@
       <c r="H50" s="7">
         <v>78</v>
       </c>
-      <c r="I50" s="7"/>
+      <c r="I50" s="7">
+        <v>90</v>
+      </c>
       <c r="J50" s="6">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>86.25</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -7838,10 +8030,12 @@
       <c r="H51" s="7">
         <v>91</v>
       </c>
-      <c r="I51" s="7"/>
+      <c r="I51" s="7">
+        <v>90</v>
+      </c>
       <c r="J51" s="6">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>87.75</v>
       </c>
     </row>
   </sheetData>

--- a/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
+++ b/Grade 2018/Class Test/CT_Summary_YC_2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="12432" windowHeight="10128" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="12432" windowHeight="10128"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="2" r:id="rId1"/>
@@ -1677,8 +1677,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1784,11 +1784,13 @@
       <c r="G4" s="7">
         <v>60</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7">
+        <v>70</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="6">
         <f>AVERAGE(F4:I4)</f>
-        <v>57</v>
+        <v>61.333333333333336</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -1813,11 +1815,13 @@
       <c r="G5" s="7">
         <v>60</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7">
+        <v>70</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="J5" s="6">
         <f>AVERAGE(F5:I5)</f>
-        <v>57</v>
+        <v>61.333333333333336</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -1842,11 +1846,13 @@
       <c r="G6" s="7">
         <v>70</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7">
+        <v>80</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="6">
         <f>AVERAGE(F6:I6)</f>
-        <v>72</v>
+        <v>74.666666666666671</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -1871,11 +1877,13 @@
       <c r="G7" s="7">
         <v>70</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7">
+        <v>80</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="6">
         <f>AVERAGE(F7:I7)</f>
-        <v>75</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -1900,7 +1908,9 @@
       <c r="G8" s="7">
         <v>100</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7">
+        <v>90</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="6">
         <f>AVERAGE(F8,G8)</f>
@@ -1927,13 +1937,15 @@
         <v>54</v>
       </c>
       <c r="G9" s="7">
-        <v>50</v>
-      </c>
-      <c r="H9" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="H9" s="7">
+        <v>70</v>
+      </c>
       <c r="I9" s="7"/>
       <c r="J9" s="6">
         <f>AVERAGE(F9:I9)</f>
-        <v>52</v>
+        <v>61.333333333333336</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -1958,11 +1970,13 @@
       <c r="G10" s="7">
         <v>100</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7">
+        <v>70</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="6">
         <f>AVERAGE(F10:I10)</f>
-        <v>93.5</v>
+        <v>85.666666666666671</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -1987,11 +2001,13 @@
       <c r="G11" s="7">
         <v>100</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7">
+        <v>70</v>
+      </c>
       <c r="I11" s="7"/>
       <c r="J11" s="6">
         <f>AVERAGE(F11:I11)</f>
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2016,11 +2032,13 @@
       <c r="G12" s="7">
         <v>60</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7">
+        <v>90</v>
+      </c>
       <c r="I12" s="7"/>
       <c r="J12" s="6">
         <f>AVERAGE(F12:I12)</f>
-        <v>70</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2045,11 +2063,13 @@
       <c r="G13" s="7">
         <v>90</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7">
+        <v>70</v>
+      </c>
       <c r="I13" s="7"/>
       <c r="J13" s="6">
         <f t="shared" ref="J13:J14" si="0">AVERAGE(F13:I13)</f>
-        <v>92</v>
+        <v>84.666666666666671</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2074,11 +2094,13 @@
       <c r="G14" s="7">
         <v>100</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7">
+        <v>90</v>
+      </c>
       <c r="I14" s="7"/>
       <c r="J14" s="6">
         <f t="shared" si="0"/>
-        <v>93.5</v>
+        <v>92.333333333333329</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2103,11 +2125,13 @@
       <c r="G15" s="7">
         <v>100</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7">
+        <v>90</v>
+      </c>
       <c r="I15" s="7"/>
       <c r="J15" s="6">
         <f t="shared" ref="J15:J28" si="1">AVERAGE(F15:I15)</f>
-        <v>93.5</v>
+        <v>92.333333333333329</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2132,11 +2156,13 @@
       <c r="G16" s="7">
         <v>70</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="7">
+        <v>90</v>
+      </c>
       <c r="I16" s="7"/>
       <c r="J16" s="6">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2161,11 +2187,13 @@
       <c r="G17" s="7">
         <v>70</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="7">
+        <v>90</v>
+      </c>
       <c r="I17" s="7"/>
       <c r="J17" s="6">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2190,11 +2218,13 @@
       <c r="G18" s="7">
         <v>100</v>
       </c>
-      <c r="H18" s="7"/>
+      <c r="H18" s="7">
+        <v>90</v>
+      </c>
       <c r="I18" s="7"/>
       <c r="J18" s="6">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2219,11 +2249,13 @@
       <c r="G19" s="7">
         <v>10</v>
       </c>
-      <c r="H19" s="7"/>
+      <c r="H19" s="7">
+        <v>90</v>
+      </c>
       <c r="I19" s="7"/>
       <c r="J19" s="6">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>62.333333333333336</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2248,11 +2280,13 @@
       <c r="G20" s="7">
         <v>100</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="H20" s="7">
+        <v>90</v>
+      </c>
       <c r="I20" s="7"/>
       <c r="J20" s="6">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2277,11 +2311,13 @@
       <c r="G21" s="7">
         <v>70</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="7">
+        <v>80</v>
+      </c>
       <c r="I21" s="7"/>
       <c r="J21" s="6">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>81.333333333333329</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2306,11 +2342,13 @@
       <c r="G22" s="7">
         <v>70</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="7">
+        <v>90</v>
+      </c>
       <c r="I22" s="7"/>
       <c r="J22" s="6">
         <f t="shared" si="1"/>
-        <v>68.5</v>
+        <v>75.666666666666671</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2335,11 +2373,13 @@
       <c r="G23" s="7">
         <v>90</v>
       </c>
-      <c r="H23" s="7"/>
+      <c r="H23" s="7">
+        <v>100</v>
+      </c>
       <c r="I23" s="7"/>
       <c r="J23" s="6">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>94.666666666666671</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2364,11 +2404,13 @@
       <c r="G24" s="7">
         <v>70</v>
       </c>
-      <c r="H24" s="7"/>
+      <c r="H24" s="7">
+        <v>90</v>
+      </c>
       <c r="I24" s="7"/>
       <c r="J24" s="6">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2393,11 +2435,13 @@
       <c r="G25" s="7">
         <v>90</v>
       </c>
-      <c r="H25" s="7"/>
+      <c r="H25" s="7">
+        <v>80</v>
+      </c>
       <c r="I25" s="7"/>
       <c r="J25" s="6">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2422,11 +2466,13 @@
       <c r="G26" s="7">
         <v>50</v>
       </c>
-      <c r="H26" s="7"/>
+      <c r="H26" s="7">
+        <v>80</v>
+      </c>
       <c r="I26" s="7"/>
       <c r="J26" s="6">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2451,11 +2497,13 @@
       <c r="G27" s="7">
         <v>70</v>
       </c>
-      <c r="H27" s="7"/>
+      <c r="H27" s="7">
+        <v>90</v>
+      </c>
       <c r="I27" s="7"/>
       <c r="J27" s="6">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2480,11 +2528,13 @@
       <c r="G28" s="7">
         <v>80</v>
       </c>
-      <c r="H28" s="7"/>
+      <c r="H28" s="7">
+        <v>80</v>
+      </c>
       <c r="I28" s="7"/>
       <c r="J28" s="6">
         <f t="shared" si="1"/>
-        <v>53.5</v>
+        <v>62.333333333333336</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2509,11 +2559,13 @@
       <c r="G29" s="7">
         <v>50</v>
       </c>
-      <c r="H29" s="7"/>
+      <c r="H29" s="7">
+        <v>90</v>
+      </c>
       <c r="I29" s="7"/>
       <c r="J29" s="6">
         <f t="shared" ref="J29:J50" si="2">AVERAGE(F29:I29)</f>
-        <v>55</v>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2538,11 +2590,13 @@
       <c r="G30" s="7">
         <v>80</v>
       </c>
-      <c r="H30" s="7"/>
+      <c r="H30" s="7">
+        <v>90</v>
+      </c>
       <c r="I30" s="7"/>
       <c r="J30" s="6">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2567,11 +2621,13 @@
       <c r="G31" s="7">
         <v>40</v>
       </c>
-      <c r="H31" s="7"/>
+      <c r="H31" s="7">
+        <v>90</v>
+      </c>
       <c r="I31" s="7"/>
       <c r="J31" s="6">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>63.333333333333336</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2596,11 +2652,13 @@
       <c r="G32" s="7">
         <v>80</v>
       </c>
-      <c r="H32" s="7"/>
+      <c r="H32" s="7">
+        <v>60</v>
+      </c>
       <c r="I32" s="7"/>
       <c r="J32" s="6">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>64.666666666666671</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2625,11 +2683,13 @@
       <c r="G33" s="7">
         <v>50</v>
       </c>
-      <c r="H33" s="7"/>
+      <c r="H33" s="7">
+        <v>90</v>
+      </c>
       <c r="I33" s="7"/>
       <c r="J33" s="6">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>71.333333333333329</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2654,11 +2714,13 @@
       <c r="G34" s="7">
         <v>50</v>
       </c>
-      <c r="H34" s="7"/>
+      <c r="H34" s="7">
+        <v>80</v>
+      </c>
       <c r="I34" s="7"/>
       <c r="J34" s="6">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2678,16 +2740,18 @@
         <v>24</v>
       </c>
       <c r="F35" s="7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G35" s="7">
         <v>90</v>
       </c>
-      <c r="H35" s="7"/>
+      <c r="H35" s="7">
+        <v>80</v>
+      </c>
       <c r="I35" s="7"/>
       <c r="J35" s="6">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2712,11 +2776,13 @@
       <c r="G36" s="7">
         <v>90</v>
       </c>
-      <c r="H36" s="7"/>
+      <c r="H36" s="7">
+        <v>90</v>
+      </c>
       <c r="I36" s="7"/>
       <c r="J36" s="6">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>91.333333333333329</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2741,11 +2807,13 @@
       <c r="G37" s="7">
         <v>90</v>
       </c>
-      <c r="H37" s="7"/>
+      <c r="H37" s="7">
+        <v>80</v>
+      </c>
       <c r="I37" s="7"/>
       <c r="J37" s="6">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2770,11 +2838,13 @@
       <c r="G38" s="7">
         <v>50</v>
       </c>
-      <c r="H38" s="7"/>
+      <c r="H38" s="7">
+        <v>80</v>
+      </c>
       <c r="I38" s="7"/>
       <c r="J38" s="6">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>61.333333333333336</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2799,11 +2869,13 @@
       <c r="G39" s="7">
         <v>70</v>
       </c>
-      <c r="H39" s="7"/>
+      <c r="H39" s="7">
+        <v>80</v>
+      </c>
       <c r="I39" s="7"/>
       <c r="J39" s="6">
         <f t="shared" si="2"/>
-        <v>78.5</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2828,11 +2900,13 @@
       <c r="G40" s="7">
         <v>70</v>
       </c>
-      <c r="H40" s="7"/>
+      <c r="H40" s="7">
+        <v>80</v>
+      </c>
       <c r="I40" s="7"/>
       <c r="J40" s="6">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2857,11 +2931,13 @@
       <c r="G41" s="7">
         <v>100</v>
       </c>
-      <c r="H41" s="7"/>
+      <c r="H41" s="7">
+        <v>90</v>
+      </c>
       <c r="I41" s="7"/>
       <c r="J41" s="6">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2886,11 +2962,13 @@
       <c r="G42" s="7">
         <v>80</v>
       </c>
-      <c r="H42" s="7"/>
+      <c r="H42" s="7">
+        <v>60</v>
+      </c>
       <c r="I42" s="7"/>
       <c r="J42" s="6">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2915,11 +2993,13 @@
       <c r="G43" s="7">
         <v>100</v>
       </c>
-      <c r="H43" s="7"/>
+      <c r="H43" s="7">
+        <v>80</v>
+      </c>
       <c r="I43" s="7"/>
       <c r="J43" s="6">
         <f t="shared" si="2"/>
-        <v>93.5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2944,11 +3024,13 @@
       <c r="G44" s="7">
         <v>80</v>
       </c>
-      <c r="H44" s="7"/>
+      <c r="H44" s="7">
+        <v>90</v>
+      </c>
       <c r="I44" s="7"/>
       <c r="J44" s="6">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>83.333333333333329</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2973,11 +3055,13 @@
       <c r="G45" s="7">
         <v>100</v>
       </c>
-      <c r="H45" s="7"/>
+      <c r="H45" s="7">
+        <v>80</v>
+      </c>
       <c r="I45" s="7"/>
       <c r="J45" s="6">
         <f t="shared" si="2"/>
-        <v>93.5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -3002,11 +3086,13 @@
       <c r="G46" s="7">
         <v>90</v>
       </c>
-      <c r="H46" s="7"/>
+      <c r="H46" s="7">
+        <v>80</v>
+      </c>
       <c r="I46" s="7"/>
       <c r="J46" s="6">
         <f t="shared" si="2"/>
-        <v>88.5</v>
+        <v>85.666666666666671</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -3031,11 +3117,13 @@
       <c r="G47" s="7">
         <v>70</v>
       </c>
-      <c r="H47" s="7"/>
+      <c r="H47" s="7">
+        <v>90</v>
+      </c>
       <c r="I47" s="7"/>
       <c r="J47" s="6">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -3060,11 +3148,13 @@
       <c r="G48" s="7">
         <v>70</v>
       </c>
-      <c r="H48" s="7"/>
+      <c r="H48" s="7">
+        <v>70</v>
+      </c>
       <c r="I48" s="7"/>
       <c r="J48" s="6">
         <f t="shared" si="2"/>
-        <v>58.5</v>
+        <v>62.333333333333336</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -3089,11 +3179,13 @@
       <c r="G49" s="7">
         <v>70</v>
       </c>
-      <c r="H49" s="7"/>
+      <c r="H49" s="7">
+        <v>90</v>
+      </c>
       <c r="I49" s="7"/>
       <c r="J49" s="6">
         <f t="shared" si="2"/>
-        <v>68.5</v>
+        <v>75.666666666666671</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -3118,11 +3210,13 @@
       <c r="G50" s="7">
         <v>80</v>
       </c>
-      <c r="H50" s="7"/>
+      <c r="H50" s="7">
+        <v>90</v>
+      </c>
       <c r="I50" s="7"/>
       <c r="J50" s="6">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>83.333333333333329</v>
       </c>
     </row>
   </sheetData>
@@ -3155,8 +3249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3262,11 +3356,13 @@
       <c r="G4" s="7">
         <v>90</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7">
+        <v>50</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="6">
         <f>AVERAGE(F4:I4)</f>
-        <v>78.5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -3291,11 +3387,13 @@
       <c r="G5" s="7">
         <v>100</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7">
+        <v>70</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="J5" s="6">
         <f>AVERAGE(F5:I5)</f>
-        <v>87</v>
+        <v>81.333333333333329</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -3320,11 +3418,13 @@
       <c r="G6" s="7">
         <v>70</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7">
+        <v>70</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="6">
         <f>AVERAGE(F6:I6)</f>
-        <v>62</v>
+        <v>64.666666666666671</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -3349,11 +3449,13 @@
       <c r="G7" s="7">
         <v>100</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7">
+        <v>80</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="6">
         <f>AVERAGE(F7:I7)</f>
-        <v>83.5</v>
+        <v>82.333333333333329</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -3378,7 +3480,9 @@
       <c r="G8" s="7">
         <v>100</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7">
+        <v>70</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="6">
         <f>AVERAGE(F8,G8)</f>
@@ -3407,11 +3511,13 @@
       <c r="G9" s="7">
         <v>100</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7">
+        <v>70</v>
+      </c>
       <c r="I9" s="7"/>
       <c r="J9" s="6">
         <f>AVERAGE(F9:I9)</f>
-        <v>83.5</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -3436,11 +3542,13 @@
       <c r="G10" s="7">
         <v>90</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7">
+        <v>60</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="6">
         <f>AVERAGE(F10:I10)</f>
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -3465,11 +3573,13 @@
       <c r="G11" s="7">
         <v>100</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7">
+        <v>70</v>
+      </c>
       <c r="I11" s="7"/>
       <c r="J11" s="6">
         <f>AVERAGE(F11:I11)</f>
-        <v>90</v>
+        <v>83.333333333333329</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -3494,11 +3604,13 @@
       <c r="G12" s="7">
         <v>100</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7">
+        <v>80</v>
+      </c>
       <c r="I12" s="7"/>
       <c r="J12" s="6">
         <f>AVERAGE(F12:I12)</f>
-        <v>83.5</v>
+        <v>82.333333333333329</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -3523,11 +3635,13 @@
       <c r="G13" s="7">
         <v>100</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7">
+        <v>80</v>
+      </c>
       <c r="I13" s="7"/>
       <c r="J13" s="6">
         <f t="shared" ref="J13:J50" si="0">AVERAGE(F13:I13)</f>
-        <v>90</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -3552,11 +3666,13 @@
       <c r="G14" s="7">
         <v>90</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7">
+        <v>50</v>
+      </c>
       <c r="I14" s="7"/>
       <c r="J14" s="6">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -3581,11 +3697,13 @@
       <c r="G15" s="7">
         <v>90</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7">
+        <v>70</v>
+      </c>
       <c r="I15" s="7"/>
       <c r="J15" s="6">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -3610,11 +3728,13 @@
       <c r="G16" s="7">
         <v>70</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="7">
+        <v>60</v>
+      </c>
       <c r="I16" s="7"/>
       <c r="J16" s="6">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>61.333333333333336</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -3639,11 +3759,13 @@
       <c r="G17" s="7">
         <v>80</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="7">
+        <v>70</v>
+      </c>
       <c r="I17" s="7"/>
       <c r="J17" s="6">
         <f t="shared" si="0"/>
-        <v>63.5</v>
+        <v>65.666666666666671</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -3668,11 +3790,13 @@
       <c r="G18" s="7">
         <v>90</v>
       </c>
-      <c r="H18" s="7"/>
+      <c r="H18" s="7">
+        <v>80</v>
+      </c>
       <c r="I18" s="7"/>
       <c r="J18" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -3697,11 +3821,13 @@
       <c r="G19" s="7">
         <v>80</v>
       </c>
-      <c r="H19" s="7"/>
+      <c r="H19" s="7">
+        <v>70</v>
+      </c>
       <c r="I19" s="7"/>
       <c r="J19" s="6">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -3726,11 +3852,13 @@
       <c r="G20" s="7">
         <v>80</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="H20" s="7">
+        <v>80</v>
+      </c>
       <c r="I20" s="7"/>
       <c r="J20" s="6">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -3755,11 +3883,13 @@
       <c r="G21" s="7">
         <v>100</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="7">
+        <v>70</v>
+      </c>
       <c r="I21" s="7"/>
       <c r="J21" s="6">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>74.666666666666671</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -3784,11 +3914,13 @@
       <c r="G22" s="7">
         <v>90</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="7">
+        <v>80</v>
+      </c>
       <c r="I22" s="7"/>
       <c r="J22" s="6">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>74.666666666666671</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -3813,11 +3945,13 @@
       <c r="G23" s="7">
         <v>90</v>
       </c>
-      <c r="H23" s="7"/>
+      <c r="H23" s="7">
+        <v>80</v>
+      </c>
       <c r="I23" s="7"/>
       <c r="J23" s="6">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -3842,11 +3976,13 @@
       <c r="G24" s="7">
         <v>100</v>
       </c>
-      <c r="H24" s="7"/>
+      <c r="H24" s="7">
+        <v>60</v>
+      </c>
       <c r="I24" s="7"/>
       <c r="J24" s="6">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>84.666666666666671</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -3866,16 +4002,18 @@
         <v>245</v>
       </c>
       <c r="F25" s="7">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="G25" s="7">
-        <v>60</v>
-      </c>
-      <c r="H25" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="H25" s="7">
+        <v>70</v>
+      </c>
       <c r="I25" s="7"/>
       <c r="J25" s="6">
         <f t="shared" si="0"/>
-        <v>43.5</v>
+        <v>62.333333333333336</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -3900,11 +4038,13 @@
       <c r="G26" s="7">
         <v>100</v>
       </c>
-      <c r="H26" s="7"/>
+      <c r="H26" s="7">
+        <v>70</v>
+      </c>
       <c r="I26" s="7"/>
       <c r="J26" s="6">
         <f t="shared" si="0"/>
-        <v>73.5</v>
+        <v>72.333333333333329</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -3927,13 +4067,15 @@
         <v>54</v>
       </c>
       <c r="G27" s="7">
-        <v>50</v>
-      </c>
-      <c r="H27" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="H27" s="7">
+        <v>60</v>
+      </c>
       <c r="I27" s="7"/>
       <c r="J27" s="6">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>61.333333333333336</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -3958,11 +4100,13 @@
       <c r="G28" s="7">
         <v>100</v>
       </c>
-      <c r="H28" s="7"/>
+      <c r="H28" s="7">
+        <v>70</v>
+      </c>
       <c r="I28" s="7"/>
       <c r="J28" s="6">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -3985,13 +4129,15 @@
         <v>47</v>
       </c>
       <c r="G29" s="7">
-        <v>0</v>
-      </c>
-      <c r="H29" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="H29" s="7">
+        <v>80</v>
+      </c>
       <c r="I29" s="7"/>
       <c r="J29" s="6">
         <f t="shared" si="0"/>
-        <v>23.5</v>
+        <v>65.666666666666671</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -4016,11 +4162,13 @@
       <c r="G30" s="7">
         <v>100</v>
       </c>
-      <c r="H30" s="7"/>
+      <c r="H30" s="7">
+        <v>70</v>
+      </c>
       <c r="I30" s="7"/>
       <c r="J30" s="6">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>74.666666666666671</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -4045,11 +4193,13 @@
       <c r="G31" s="7">
         <v>90</v>
       </c>
-      <c r="H31" s="7"/>
+      <c r="H31" s="7">
+        <v>70</v>
+      </c>
       <c r="I31" s="7"/>
       <c r="J31" s="6">
         <f t="shared" si="0"/>
-        <v>78.5</v>
+        <v>75.666666666666671</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -4074,11 +4224,13 @@
       <c r="G32" s="7">
         <v>100</v>
       </c>
-      <c r="H32" s="7"/>
+      <c r="H32" s="7">
+        <v>50</v>
+      </c>
       <c r="I32" s="7"/>
       <c r="J32" s="6">
         <f t="shared" si="0"/>
-        <v>83.5</v>
+        <v>72.333333333333329</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -4103,11 +4255,13 @@
       <c r="G33" s="7">
         <v>80</v>
       </c>
-      <c r="H33" s="7"/>
+      <c r="H33" s="7">
+        <v>80</v>
+      </c>
       <c r="I33" s="7"/>
       <c r="J33" s="6">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -4132,11 +4286,13 @@
       <c r="G34" s="7">
         <v>90</v>
       </c>
-      <c r="H34" s="7"/>
+      <c r="H34" s="7">
+        <v>80</v>
+      </c>
       <c r="I34" s="7"/>
       <c r="J34" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -4161,11 +4317,13 @@
       <c r="G35" s="7">
         <v>100</v>
       </c>
-      <c r="H35" s="7"/>
+      <c r="H35" s="7">
+        <v>70</v>
+      </c>
       <c r="I35" s="7"/>
       <c r="J35" s="6">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>81.333333333333329</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -4190,11 +4348,13 @@
       <c r="G36" s="7">
         <v>60</v>
       </c>
-      <c r="H36" s="7"/>
+      <c r="H36" s="7">
+        <v>80</v>
+      </c>
       <c r="I36" s="7"/>
       <c r="J36" s="6">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>64.666666666666671</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -4219,11 +4379,13 @@
       <c r="G37" s="7">
         <v>100</v>
       </c>
-      <c r="H37" s="7"/>
+      <c r="H37" s="7">
+        <v>70</v>
+      </c>
       <c r="I37" s="7"/>
       <c r="J37" s="6">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>74.666666666666671</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -4248,11 +4410,13 @@
       <c r="G38" s="7">
         <v>60</v>
       </c>
-      <c r="H38" s="7"/>
+      <c r="H38" s="7">
+        <v>70</v>
+      </c>
       <c r="I38" s="7"/>
       <c r="J38" s="6">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>61.333333333333336</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -4277,11 +4441,13 @@
       <c r="G39" s="7">
         <v>100</v>
       </c>
-      <c r="H39" s="7"/>
+      <c r="H39" s="7">
+        <v>70</v>
+      </c>
       <c r="I39" s="7"/>
       <c r="J39" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>83.333333333333329</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -4306,11 +4472,13 @@
       <c r="G40" s="7">
         <v>100</v>
       </c>
-      <c r="H40" s="7"/>
+      <c r="H40" s="7">
+        <v>70</v>
+      </c>
       <c r="I40" s="7"/>
       <c r="J40" s="6">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -4335,11 +4503,13 @@
       <c r="G41" s="7">
         <v>90</v>
       </c>
-      <c r="H41" s="7"/>
+      <c r="H41" s="7">
+        <v>90</v>
+      </c>
       <c r="I41" s="7"/>
       <c r="J41" s="6">
         <f t="shared" si="0"/>
-        <v>68.5</v>
+        <v>75.666666666666671</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -4364,11 +4534,13 @@
       <c r="G42" s="7">
         <v>100</v>
       </c>
-      <c r="H42" s="7"/>
+      <c r="H42" s="7">
+        <v>70</v>
+      </c>
       <c r="I42" s="7"/>
       <c r="J42" s="6">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -4393,11 +4565,13 @@
       <c r="G43" s="7">
         <v>90</v>
       </c>
-      <c r="H43" s="7"/>
+      <c r="H43" s="7">
+        <v>80</v>
+      </c>
       <c r="I43" s="7"/>
       <c r="J43" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -4422,11 +4596,13 @@
       <c r="G44" s="7">
         <v>90</v>
       </c>
-      <c r="H44" s="7"/>
+      <c r="H44" s="7">
+        <v>80</v>
+      </c>
       <c r="I44" s="7"/>
       <c r="J44" s="6">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>81.333333333333329</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -4451,11 +4627,13 @@
       <c r="G45" s="7">
         <v>40</v>
       </c>
-      <c r="H45" s="7"/>
+      <c r="H45" s="7">
+        <v>80</v>
+      </c>
       <c r="I45" s="7"/>
       <c r="J45" s="6">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -4480,11 +4658,13 @@
       <c r="G46" s="7">
         <v>80</v>
       </c>
-      <c r="H46" s="7"/>
+      <c r="H46" s="7">
+        <v>70</v>
+      </c>
       <c r="I46" s="7"/>
       <c r="J46" s="6">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -4509,11 +4689,13 @@
       <c r="G47" s="7">
         <v>80</v>
       </c>
-      <c r="H47" s="7"/>
+      <c r="H47" s="7">
+        <v>70</v>
+      </c>
       <c r="I47" s="7"/>
       <c r="J47" s="6">
         <f t="shared" si="0"/>
-        <v>73.5</v>
+        <v>72.333333333333329</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -4538,11 +4720,13 @@
       <c r="G48" s="7">
         <v>100</v>
       </c>
-      <c r="H48" s="7"/>
+      <c r="H48" s="7">
+        <v>50</v>
+      </c>
       <c r="I48" s="7"/>
       <c r="J48" s="6">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -4567,11 +4751,13 @@
       <c r="G49" s="7">
         <v>100</v>
       </c>
-      <c r="H49" s="7"/>
+      <c r="H49" s="7">
+        <v>50</v>
+      </c>
       <c r="I49" s="7"/>
       <c r="J49" s="6">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -4596,11 +4782,13 @@
       <c r="G50" s="7">
         <v>100</v>
       </c>
-      <c r="H50" s="7"/>
+      <c r="H50" s="7">
+        <v>80</v>
+      </c>
       <c r="I50" s="7"/>
       <c r="J50" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -4625,11 +4813,13 @@
       <c r="G51" s="7">
         <v>100</v>
       </c>
-      <c r="H51" s="7"/>
+      <c r="H51" s="7">
+        <v>70</v>
+      </c>
       <c r="I51" s="7"/>
       <c r="J51" s="6">
         <f t="shared" ref="J51" si="1">AVERAGE(F51:I51)</f>
-        <v>77</v>
+        <v>74.666666666666671</v>
       </c>
     </row>
   </sheetData>
